--- a/src/main/resources/input/Kennisnet/props/Kennisnet.xlsx
+++ b/src/main/resources/input/Kennisnet/props/Kennisnet.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="313">
   <si>
     <t>Name</t>
   </si>
@@ -612,9 +612,6 @@
     <t>migrate</t>
   </si>
   <si>
-    <t>Yes if the source XMI file must be migrated to the new metamodel.</t>
-  </si>
-  <si>
     <t>passoffice</t>
   </si>
   <si>
@@ -964,6 +961,9 @@
   </si>
   <si>
     <t>Opmerkingen</t>
+  </si>
+  <si>
+    <t>Specify a name if the source XMI file must be migrated to a (new) metamodel.</t>
   </si>
 </sst>
 </file>
@@ -1095,7 +1095,7 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1197,6 +1197,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1496,10 +1499,10 @@
   <dimension ref="A1:V110"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B88" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B49" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F108" sqref="F108"/>
+      <selection pane="bottomRight" activeCell="A70" sqref="A70:F70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1538,97 +1541,97 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>214</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>215</v>
       </c>
       <c r="G1" s="16"/>
       <c r="H1" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="L1" s="16"/>
       <c r="M1" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="Q1" s="16"/>
       <c r="R1" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="U1" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="V1" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="2" spans="1:22" s="3" customFormat="1" ht="56.15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F2" s="2"/>
       <c r="G2" s="17"/>
       <c r="H2" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>289</v>
-      </c>
       <c r="J2" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>275</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>276</v>
       </c>
       <c r="L2" s="17"/>
       <c r="M2" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="O2" s="2" t="s">
-        <v>279</v>
-      </c>
       <c r="P2" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Q2" s="17"/>
       <c r="R2" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="S2" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="T2" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="U2" s="2" t="s">
         <v>282</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="3" spans="1:22" s="1" customFormat="1" ht="44.15" thickTop="1" x14ac:dyDescent="0.4">
@@ -1742,16 +1745,16 @@
       <c r="Q6" s="25"/>
     </row>
     <row r="7" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="40" t="s">
+      <c r="A7" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="40" t="s">
+      <c r="B7" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="40" t="s">
+      <c r="C7" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="40" t="b">
+      <c r="D7" s="41" t="b">
         <v>1</v>
       </c>
       <c r="E7" s="1" t="b">
@@ -1770,10 +1773,10 @@
       <c r="U7" s="36"/>
     </row>
     <row r="8" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="40"/>
-      <c r="B8" s="40"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
+      <c r="A8" s="41"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
       <c r="G8" s="18"/>
       <c r="L8" s="18"/>
       <c r="M8" s="15"/>
@@ -1893,22 +1896,22 @@
     </row>
     <row r="13" spans="1:22" s="11" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A13" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="B13" s="11" t="s">
         <v>244</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="C13" s="11" t="s">
         <v>245</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="D13" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="E13" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="F13" s="11" t="s">
         <v>246</v>
-      </c>
-      <c r="D13" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="E13" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>247</v>
       </c>
       <c r="G13" s="18"/>
       <c r="L13" s="18"/>
@@ -1977,10 +1980,10 @@
         <v>19</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L15" s="18"/>
       <c r="M15" s="15" t="s">
@@ -1990,10 +1993,10 @@
         <v>19</v>
       </c>
       <c r="O15" s="15" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="P15" s="15" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="Q15" s="25"/>
       <c r="R15" s="36" t="s">
@@ -2003,10 +2006,10 @@
         <v>19</v>
       </c>
       <c r="T15" s="36" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="U15" s="36" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="16" spans="1:22" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
@@ -2042,22 +2045,22 @@
     </row>
     <row r="17" spans="1:21" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D17" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E17" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>222</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="D17" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E17" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>223</v>
       </c>
       <c r="G17" s="18"/>
       <c r="L17" s="18"/>
@@ -2073,7 +2076,7 @@
     </row>
     <row r="18" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -2084,7 +2087,7 @@
         <v>1</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G18" s="18"/>
       <c r="L18" s="18"/>
@@ -2143,7 +2146,7 @@
         <v>1</v>
       </c>
       <c r="F20" s="32" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G20" s="18"/>
       <c r="L20" s="18"/>
@@ -2174,7 +2177,7 @@
         <v>1</v>
       </c>
       <c r="F21" s="32" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G21" s="18"/>
       <c r="L21" s="18"/>
@@ -2521,13 +2524,13 @@
     </row>
     <row r="29" spans="1:21" s="26" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A29" s="26" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B29" s="26" t="s">
         <v>5</v>
       </c>
       <c r="C29" s="26" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D29" s="26" t="b">
         <v>0</v>
@@ -2577,13 +2580,13 @@
     </row>
     <row r="30" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A30" s="28" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B30" s="28" t="s">
         <v>10</v>
       </c>
       <c r="C30" s="28" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D30" s="28" t="b">
         <v>0</v>
@@ -2592,7 +2595,7 @@
         <v>1</v>
       </c>
       <c r="F30" s="28" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G30" s="25"/>
       <c r="H30" s="29"/>
@@ -2689,7 +2692,7 @@
         <v>1</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G33" s="18"/>
       <c r="L33" s="18"/>
@@ -2705,22 +2708,22 @@
     </row>
     <row r="34" spans="1:21" s="35" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A34" s="35" t="s">
+        <v>270</v>
+      </c>
+      <c r="B34" s="35" t="s">
         <v>271</v>
       </c>
-      <c r="B34" s="35" t="s">
+      <c r="C34" s="35" t="s">
         <v>272</v>
       </c>
-      <c r="C34" s="35" t="s">
+      <c r="D34" s="35" t="b">
+        <v>0</v>
+      </c>
+      <c r="E34" s="35" t="b">
+        <v>1</v>
+      </c>
+      <c r="F34" s="35" t="s">
         <v>273</v>
-      </c>
-      <c r="D34" s="35" t="b">
-        <v>0</v>
-      </c>
-      <c r="E34" s="35" t="b">
-        <v>1</v>
-      </c>
-      <c r="F34" s="35" t="s">
-        <v>274</v>
       </c>
       <c r="G34" s="25"/>
       <c r="L34" s="25"/>
@@ -2763,13 +2766,13 @@
     </row>
     <row r="36" spans="1:21" s="37" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A36" s="37" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B36" s="37" t="s">
         <v>5</v>
       </c>
       <c r="C36" s="37" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D36" s="37" t="b">
         <v>0</v>
@@ -2904,13 +2907,13 @@
     </row>
     <row r="40" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A40" s="28" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B40" s="28" t="s">
         <v>10</v>
       </c>
       <c r="C40" s="28" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D40" s="28" t="b">
         <v>0</v>
@@ -2920,42 +2923,42 @@
       </c>
       <c r="G40" s="25"/>
       <c r="H40" s="34" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="I40" s="39" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="J40" s="39" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="K40" s="39" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="L40" s="25"/>
       <c r="M40" s="28" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="N40" s="39" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="O40" s="39" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="P40" s="39" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="Q40" s="25"/>
       <c r="R40" s="36" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="S40" s="39" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="T40" s="39" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="U40" s="39" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="41" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.4">
@@ -3029,23 +3032,23 @@
         <v>0</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G43" s="18"/>
       <c r="L43" s="18"/>
       <c r="Q43" s="25"/>
     </row>
     <row r="44" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="40" t="s">
+      <c r="A44" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="B44" s="40" t="s">
+      <c r="B44" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="C44" s="40" t="s">
+      <c r="C44" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="D44" s="40" t="b">
+      <c r="D44" s="41" t="b">
         <v>0</v>
       </c>
       <c r="E44" s="1" t="b">
@@ -3067,10 +3070,10 @@
       <c r="U44" s="36"/>
     </row>
     <row r="45" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="40"/>
-      <c r="B45" s="40"/>
-      <c r="C45" s="40"/>
-      <c r="D45" s="40"/>
+      <c r="A45" s="41"/>
+      <c r="B45" s="41"/>
+      <c r="C45" s="41"/>
+      <c r="D45" s="41"/>
       <c r="G45" s="18"/>
       <c r="L45" s="18"/>
       <c r="M45" s="15"/>
@@ -3156,7 +3159,7 @@
         <v>1</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G48" s="19"/>
       <c r="L48" s="19"/>
@@ -3172,7 +3175,7 @@
     </row>
     <row r="49" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A49" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B49" s="6"/>
       <c r="C49" s="6"/>
@@ -3184,42 +3187,42 @@
       </c>
       <c r="G49" s="19"/>
       <c r="H49" s="39" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="I49" s="39" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="J49" s="39" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="K49" s="39" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="L49" s="25"/>
       <c r="M49" s="39" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="N49" s="39" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="O49" s="39" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="P49" s="39" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="Q49" s="25"/>
       <c r="R49" s="39" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="S49" s="39" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="T49" s="39" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="U49" s="39" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="50" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.4">
@@ -3262,7 +3265,7 @@
         <v>1</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G51" s="18"/>
       <c r="L51" s="18"/>
@@ -3386,13 +3389,13 @@
     </row>
     <row r="56" spans="1:21" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A56" s="14" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B56" s="14" t="s">
         <v>10</v>
       </c>
       <c r="C56" s="13" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D56" s="14" t="b">
         <v>0</v>
@@ -3401,7 +3404,7 @@
         <v>1</v>
       </c>
       <c r="F56" s="39" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G56" s="20"/>
       <c r="H56" s="14"/>
@@ -3418,22 +3421,22 @@
     </row>
     <row r="57" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A57" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="B57" s="5" t="s">
         <v>298</v>
       </c>
-      <c r="B57" s="5" t="s">
+      <c r="C57" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="C57" s="5" t="s">
+      <c r="D57" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E57" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F57" s="5" t="s">
         <v>300</v>
-      </c>
-      <c r="D57" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="E57" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="F57" s="5" t="s">
-        <v>301</v>
       </c>
       <c r="G57" s="25"/>
       <c r="L57" s="25"/>
@@ -3441,13 +3444,13 @@
     </row>
     <row r="58" spans="1:21" s="5" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A58" s="5" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B58" s="5" t="s">
         <v>89</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D58" s="5" t="b">
         <v>0</v>
@@ -3456,7 +3459,7 @@
         <v>1</v>
       </c>
       <c r="F58" s="32" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G58" s="25"/>
       <c r="H58" s="32"/>
@@ -3492,22 +3495,22 @@
     </row>
     <row r="60" spans="1:21" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A60" s="14" t="s">
+        <v>239</v>
+      </c>
+      <c r="B60" s="14" t="s">
         <v>240</v>
       </c>
-      <c r="B60" s="14" t="s">
+      <c r="C60" s="13" t="s">
         <v>241</v>
       </c>
-      <c r="C60" s="13" t="s">
+      <c r="D60" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="E60" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="F60" s="14" t="s">
         <v>242</v>
-      </c>
-      <c r="D60" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="E60" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="F60" s="14" t="s">
-        <v>243</v>
       </c>
       <c r="G60" s="20"/>
       <c r="H60" s="14"/>
@@ -3565,7 +3568,7 @@
         <v>1</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G62" s="18"/>
       <c r="L62" s="18"/>
@@ -3596,7 +3599,7 @@
         <v>0</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G63" s="18"/>
       <c r="L63" s="18"/>
@@ -3604,13 +3607,13 @@
     </row>
     <row r="64" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B64" t="s">
         <v>81</v>
       </c>
       <c r="C64" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D64" t="b">
         <v>0</v>
@@ -3619,7 +3622,7 @@
         <v>1</v>
       </c>
       <c r="F64" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G64" s="25"/>
       <c r="L64" s="25"/>
@@ -3642,7 +3645,7 @@
         <v>0</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G65" s="18"/>
       <c r="L65" s="18"/>
@@ -3673,7 +3676,7 @@
         <v>0</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G66" s="18"/>
       <c r="L66" s="18"/>
@@ -3704,7 +3707,7 @@
         <v>1</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G67" s="18"/>
       <c r="L67" s="18"/>
@@ -3720,13 +3723,13 @@
     </row>
     <row r="68" spans="1:21" s="22" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A68" s="22" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B68" s="22" t="s">
         <v>5</v>
       </c>
       <c r="C68" s="22" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D68" s="22" t="b">
         <v>0</v>
@@ -3735,7 +3738,7 @@
         <v>1</v>
       </c>
       <c r="F68" s="22" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G68" s="18"/>
       <c r="L68" s="18"/>
@@ -3763,63 +3766,61 @@
       </c>
       <c r="G69" s="18"/>
       <c r="H69" s="39" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="I69" s="39" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="J69" s="39" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="K69" s="39" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="L69" s="25"/>
       <c r="M69" s="39" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="N69" s="39" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="O69" s="39" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="P69" s="39" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="Q69" s="25"/>
       <c r="R69" s="39" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="S69" s="39" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="T69" s="39" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="U69" s="39" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="70" spans="1:21" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A70" s="1" t="s">
+      <c r="A70" s="40" t="s">
         <v>194</v>
       </c>
-      <c r="B70" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="D70" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E70" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F70" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="B70" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="C70" s="40" t="s">
+        <v>312</v>
+      </c>
+      <c r="D70" s="40" t="b">
+        <v>0</v>
+      </c>
+      <c r="E70" s="40" t="b">
+        <v>1</v>
+      </c>
+      <c r="F70" s="40"/>
       <c r="G70" s="18"/>
       <c r="L70" s="18"/>
       <c r="M70" s="15"/>
@@ -3857,13 +3858,13 @@
     </row>
     <row r="72" spans="1:21" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A72" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D72" s="1" t="b">
         <v>1</v>
@@ -3936,42 +3937,42 @@
       <c r="F74" s="31"/>
       <c r="G74" s="18"/>
       <c r="H74" s="39" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="I74" s="39" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="J74" s="39" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="K74" s="39" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="L74" s="25"/>
       <c r="M74" s="39" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="N74" s="39" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="O74" s="39" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="P74" s="39" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="Q74" s="25"/>
       <c r="R74" s="39" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="S74" s="39" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="T74" s="39" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="U74" s="39" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="75" spans="1:21" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
@@ -3991,7 +3992,7 @@
         <v>0</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G75" s="18"/>
       <c r="L75" s="18"/>
@@ -4022,7 +4023,7 @@
         <v>0</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G76" s="18"/>
       <c r="L76" s="18"/>
@@ -4030,13 +4031,13 @@
     </row>
     <row r="77" spans="1:21" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A77" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B77" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="C77" s="1" t="s">
         <v>197</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>198</v>
       </c>
       <c r="D77" s="1" t="b">
         <v>0</v>
@@ -4061,13 +4062,13 @@
     </row>
     <row r="78" spans="1:21" s="5" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A78" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B78" s="5" t="s">
         <v>177</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D78" s="5" t="b">
         <v>0</v>
@@ -4076,7 +4077,7 @@
         <v>1</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G78" s="18"/>
       <c r="L78" s="18"/>
@@ -4100,42 +4101,42 @@
       </c>
       <c r="G79" s="18"/>
       <c r="H79" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="J79" s="15" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="K79" s="15" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="L79" s="18"/>
       <c r="M79" s="15" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="N79" s="15" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="O79" s="15" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="P79" s="15" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="Q79" s="25"/>
       <c r="R79" s="36" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="S79" s="36" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="T79" s="36" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="U79" s="36" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="80" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.4">
@@ -4248,7 +4249,7 @@
     </row>
     <row r="84" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A84" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B84" s="6"/>
       <c r="C84" s="6"/>
@@ -4346,7 +4347,7 @@
         <v>0</v>
       </c>
       <c r="F86" s="29" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G86" s="25"/>
       <c r="L86" s="25"/>
@@ -4358,14 +4359,14 @@
     </row>
     <row r="87" spans="1:21" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A87" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B87" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="B87" s="1" t="s">
+      <c r="C87" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="C87" s="1" t="s">
-        <v>203</v>
-      </c>
       <c r="D87" s="1" t="b">
         <v>0</v>
       </c>
@@ -4373,7 +4374,7 @@
         <v>1</v>
       </c>
       <c r="F87" s="10" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G87" s="18"/>
       <c r="L87" s="18"/>
@@ -4389,22 +4390,22 @@
     </row>
     <row r="88" spans="1:21" s="12" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A88" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="B88" s="12" t="s">
         <v>248</v>
       </c>
-      <c r="B88" s="12" t="s">
+      <c r="C88" s="12" t="s">
         <v>249</v>
       </c>
-      <c r="C88" s="12" t="s">
+      <c r="D88" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="E88" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="F88" s="4" t="s">
         <v>250</v>
-      </c>
-      <c r="D88" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="E88" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="F88" s="4" t="s">
-        <v>251</v>
       </c>
       <c r="G88" s="18"/>
       <c r="L88" s="18"/>
@@ -4420,7 +4421,7 @@
     </row>
     <row r="89" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A89" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B89" s="6"/>
       <c r="C89" s="6"/>
@@ -4431,7 +4432,7 @@
         <v>1</v>
       </c>
       <c r="F89" s="15" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G89" s="18"/>
       <c r="I89" s="33"/>
@@ -4481,13 +4482,13 @@
     </row>
     <row r="91" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A91" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B91" t="s">
         <v>10</v>
       </c>
       <c r="C91" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D91" t="b">
         <v>1</v>
@@ -4496,7 +4497,7 @@
         <v>1</v>
       </c>
       <c r="F91" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G91" s="25"/>
       <c r="L91" s="25"/>
@@ -4519,7 +4520,7 @@
         <v>1</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G92" s="18"/>
       <c r="L92" s="18"/>
@@ -4566,13 +4567,13 @@
     </row>
     <row r="94" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A94" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D94" s="1" t="b">
         <v>0</v>
@@ -4641,42 +4642,42 @@
       </c>
       <c r="G96" s="18"/>
       <c r="H96" s="39" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="I96" s="39" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="J96" s="39" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="K96" s="39" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="L96" s="25"/>
       <c r="M96" s="39" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="N96" s="39" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="O96" s="39" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="P96" s="39" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="Q96" s="25"/>
       <c r="R96" s="39" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="S96" s="39" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="T96" s="39" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="U96" s="39" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="97" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.4">
@@ -4696,7 +4697,7 @@
         <v>0</v>
       </c>
       <c r="F97" s="5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G97" s="18"/>
       <c r="L97" s="18"/>
@@ -4719,7 +4720,7 @@
         <v>0</v>
       </c>
       <c r="F98" s="5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G98" s="18"/>
       <c r="L98" s="18"/>
@@ -4953,13 +4954,13 @@
     </row>
     <row r="104" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A104" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B104" t="s">
         <v>5</v>
       </c>
       <c r="C104" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D104" t="b">
         <v>0</v>
@@ -5067,7 +5068,7 @@
     </row>
     <row r="107" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A107" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>5</v>
@@ -5138,7 +5139,7 @@
         <v>0</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G108" s="18"/>
       <c r="L108" s="18"/>
@@ -5154,22 +5155,22 @@
     </row>
     <row r="109" spans="1:21" s="23" customFormat="1" ht="58.3" x14ac:dyDescent="0.4">
       <c r="A109" s="24" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B109" s="24" t="s">
         <v>81</v>
       </c>
       <c r="C109" s="24" t="s">
+        <v>257</v>
+      </c>
+      <c r="D109" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="E109" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="F109" s="24" t="s">
         <v>258</v>
-      </c>
-      <c r="D109" s="24" t="b">
-        <v>1</v>
-      </c>
-      <c r="E109" s="24" t="b">
-        <v>1</v>
-      </c>
-      <c r="F109" s="24" t="s">
-        <v>259</v>
       </c>
       <c r="G109" s="25"/>
       <c r="H109" s="24"/>
@@ -5201,7 +5202,7 @@
         <v>0</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G110" s="18"/>
       <c r="L110" s="18"/>
@@ -5250,48 +5251,48 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" s="9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="6" spans="1:2" ht="19.3" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="19.3" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="19.3" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.4"/>

--- a/src/main/resources/input/Kennisnet/props/Kennisnet.xlsx
+++ b/src/main/resources/input/Kennisnet/props/Kennisnet.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="313">
   <si>
     <t>Name</t>
   </si>
@@ -1095,7 +1095,7 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1197,6 +1197,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1499,10 +1502,10 @@
   <dimension ref="A1:V110"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B49" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A70" sqref="A70:F70"/>
+      <selection pane="bottomRight" activeCell="J31" sqref="J31:K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1745,16 +1748,16 @@
       <c r="Q6" s="25"/>
     </row>
     <row r="7" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="41" t="s">
+      <c r="A7" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="41" t="s">
+      <c r="C7" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="41" t="b">
+      <c r="D7" s="42" t="b">
         <v>1</v>
       </c>
       <c r="E7" s="1" t="b">
@@ -1773,10 +1776,10 @@
       <c r="U7" s="36"/>
     </row>
     <row r="8" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="41"/>
-      <c r="B8" s="41"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
+      <c r="A8" s="42"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
       <c r="G8" s="18"/>
       <c r="L8" s="18"/>
       <c r="M8" s="15"/>
@@ -2630,9 +2633,18 @@
         <v>1</v>
       </c>
       <c r="F31" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G31" s="18"/>
+      <c r="I31" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G31" s="18"/>
+      <c r="J31" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="K31" s="41" t="s">
+        <v>34</v>
+      </c>
       <c r="L31" s="18"/>
       <c r="M31" s="15"/>
       <c r="N31" s="15"/>
@@ -3039,16 +3051,16 @@
       <c r="Q43" s="25"/>
     </row>
     <row r="44" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="41" t="s">
+      <c r="A44" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="B44" s="41" t="s">
+      <c r="B44" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="C44" s="41" t="s">
+      <c r="C44" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="D44" s="41" t="b">
+      <c r="D44" s="42" t="b">
         <v>0</v>
       </c>
       <c r="E44" s="1" t="b">
@@ -3070,10 +3082,10 @@
       <c r="U44" s="36"/>
     </row>
     <row r="45" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="41"/>
-      <c r="B45" s="41"/>
-      <c r="C45" s="41"/>
-      <c r="D45" s="41"/>
+      <c r="A45" s="42"/>
+      <c r="B45" s="42"/>
+      <c r="C45" s="42"/>
+      <c r="D45" s="42"/>
       <c r="G45" s="18"/>
       <c r="L45" s="18"/>
       <c r="M45" s="15"/>

--- a/src/main/resources/input/Kennisnet/props/Kennisnet.xlsx
+++ b/src/main/resources/input/Kennisnet/props/Kennisnet.xlsx
@@ -1505,7 +1505,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J31" sqref="J31:K31"/>
+      <selection pane="bottomRight" activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -2598,7 +2598,7 @@
         <v>1</v>
       </c>
       <c r="F30" s="28" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="G30" s="25"/>
       <c r="H30" s="29"/>

--- a/src/main/resources/input/Kennisnet/props/Kennisnet.xlsx
+++ b/src/main/resources/input/Kennisnet/props/Kennisnet.xlsx
@@ -1095,7 +1095,7 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1197,6 +1197,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1748,16 +1751,16 @@
       <c r="Q6" s="25"/>
     </row>
     <row r="7" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="42" t="s">
+      <c r="A7" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="42" t="s">
+      <c r="B7" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="42" t="s">
+      <c r="C7" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="42" t="b">
+      <c r="D7" s="43" t="b">
         <v>1</v>
       </c>
       <c r="E7" s="1" t="b">
@@ -1776,10 +1779,10 @@
       <c r="U7" s="36"/>
     </row>
     <row r="8" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="42"/>
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
+      <c r="A8" s="43"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
       <c r="G8" s="18"/>
       <c r="L8" s="18"/>
       <c r="M8" s="15"/>
@@ -2559,26 +2562,26 @@
         <v>16</v>
       </c>
       <c r="N29" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="O29" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="P29" s="26" t="s">
-        <v>4</v>
+        <v>16</v>
+      </c>
+      <c r="O29" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="P29" s="42" t="s">
+        <v>16</v>
       </c>
       <c r="Q29" s="25"/>
-      <c r="R29" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="S29" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="T29" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="U29" s="36" t="s">
-        <v>4</v>
+      <c r="R29" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="S29" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="T29" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="U29" s="42" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="30" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.4">
@@ -3051,16 +3054,16 @@
       <c r="Q43" s="25"/>
     </row>
     <row r="44" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="42" t="s">
+      <c r="A44" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="B44" s="42" t="s">
+      <c r="B44" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="C44" s="42" t="s">
+      <c r="C44" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="D44" s="42" t="b">
+      <c r="D44" s="43" t="b">
         <v>0</v>
       </c>
       <c r="E44" s="1" t="b">
@@ -3082,10 +3085,10 @@
       <c r="U44" s="36"/>
     </row>
     <row r="45" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="42"/>
-      <c r="B45" s="42"/>
-      <c r="C45" s="42"/>
-      <c r="D45" s="42"/>
+      <c r="A45" s="43"/>
+      <c r="B45" s="43"/>
+      <c r="C45" s="43"/>
+      <c r="D45" s="43"/>
       <c r="G45" s="18"/>
       <c r="L45" s="18"/>
       <c r="M45" s="15"/>

--- a/src/main/resources/input/Kennisnet/props/Kennisnet.xlsx
+++ b/src/main/resources/input/Kennisnet/props/Kennisnet.xlsx
@@ -1505,10 +1505,10 @@
   <dimension ref="A1:V110"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B25" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B56" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F30" sqref="F30"/>
+      <selection pane="bottomRight" activeCell="F71" sqref="F71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -3865,7 +3865,7 @@
         <v>0</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="G71" s="18"/>
       <c r="L71" s="18"/>

--- a/src/main/resources/input/Kennisnet/props/Kennisnet.xlsx
+++ b/src/main/resources/input/Kennisnet/props/Kennisnet.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="315">
   <si>
     <t>Name</t>
   </si>
@@ -964,6 +964,12 @@
   </si>
   <si>
     <t>Specify a name if the source XMI file must be migrated to a (new) metamodel.</t>
+  </si>
+  <si>
+    <t>visuals</t>
+  </si>
+  <si>
+    <t>Name of the visuals file</t>
   </si>
 </sst>
 </file>
@@ -1095,7 +1101,7 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1197,6 +1203,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1502,13 +1511,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:V110"/>
+  <dimension ref="A1:V111"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B56" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="C95" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F71" sqref="F71"/>
+      <selection pane="bottomRight" activeCell="H109" sqref="H109:U109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1751,16 +1760,16 @@
       <c r="Q6" s="25"/>
     </row>
     <row r="7" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="43" t="s">
+      <c r="B7" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="43" t="s">
+      <c r="C7" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="43" t="b">
+      <c r="D7" s="44" t="b">
         <v>1</v>
       </c>
       <c r="E7" s="1" t="b">
@@ -1779,10 +1788,10 @@
       <c r="U7" s="36"/>
     </row>
     <row r="8" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="43"/>
-      <c r="B8" s="43"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
+      <c r="A8" s="44"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
       <c r="G8" s="18"/>
       <c r="L8" s="18"/>
       <c r="M8" s="15"/>
@@ -3054,16 +3063,16 @@
       <c r="Q43" s="25"/>
     </row>
     <row r="44" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="43" t="s">
+      <c r="A44" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="B44" s="43" t="s">
+      <c r="B44" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="C44" s="43" t="s">
+      <c r="C44" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="D44" s="43" t="b">
+      <c r="D44" s="44" t="b">
         <v>0</v>
       </c>
       <c r="E44" s="1" t="b">
@@ -3085,10 +3094,10 @@
       <c r="U44" s="36"/>
     </row>
     <row r="45" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="43"/>
-      <c r="B45" s="43"/>
-      <c r="C45" s="43"/>
-      <c r="D45" s="43"/>
+      <c r="A45" s="44"/>
+      <c r="B45" s="44"/>
+      <c r="C45" s="44"/>
+      <c r="D45" s="44"/>
       <c r="G45" s="18"/>
       <c r="L45" s="18"/>
       <c r="M45" s="15"/>
@@ -5168,68 +5177,124 @@
       <c r="T108" s="36"/>
       <c r="U108" s="36"/>
     </row>
-    <row r="109" spans="1:21" s="23" customFormat="1" ht="58.3" x14ac:dyDescent="0.4">
-      <c r="A109" s="24" t="s">
+    <row r="109" spans="1:21" s="43" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A109" s="43" t="s">
+        <v>313</v>
+      </c>
+      <c r="B109" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="C109" s="43" t="s">
+        <v>314</v>
+      </c>
+      <c r="D109" s="43" t="b">
+        <v>1</v>
+      </c>
+      <c r="E109" s="43" t="b">
+        <v>1</v>
+      </c>
+      <c r="G109" s="25"/>
+      <c r="H109" s="43" t="s">
+        <v>308</v>
+      </c>
+      <c r="I109" s="43" t="s">
+        <v>308</v>
+      </c>
+      <c r="J109" s="43" t="s">
+        <v>308</v>
+      </c>
+      <c r="K109" s="43" t="s">
+        <v>308</v>
+      </c>
+      <c r="L109" s="25"/>
+      <c r="M109" s="43" t="s">
+        <v>309</v>
+      </c>
+      <c r="N109" s="43" t="s">
+        <v>309</v>
+      </c>
+      <c r="O109" s="43" t="s">
+        <v>309</v>
+      </c>
+      <c r="P109" s="43" t="s">
+        <v>309</v>
+      </c>
+      <c r="Q109" s="25"/>
+      <c r="R109" s="43" t="s">
+        <v>310</v>
+      </c>
+      <c r="S109" s="43" t="s">
+        <v>310</v>
+      </c>
+      <c r="T109" s="43" t="s">
+        <v>310</v>
+      </c>
+      <c r="U109" s="43" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="110" spans="1:21" s="23" customFormat="1" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A110" s="24" t="s">
         <v>256</v>
       </c>
-      <c r="B109" s="24" t="s">
+      <c r="B110" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="C109" s="24" t="s">
+      <c r="C110" s="24" t="s">
         <v>257</v>
       </c>
-      <c r="D109" s="24" t="b">
-        <v>1</v>
-      </c>
-      <c r="E109" s="24" t="b">
-        <v>1</v>
-      </c>
-      <c r="F109" s="24" t="s">
+      <c r="D110" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="E110" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="F110" s="24" t="s">
         <v>258</v>
       </c>
-      <c r="G109" s="25"/>
-      <c r="H109" s="24"/>
-      <c r="I109" s="24"/>
-      <c r="J109" s="24"/>
-      <c r="K109" s="24"/>
-      <c r="L109" s="25"/>
-      <c r="M109" s="24"/>
-      <c r="Q109" s="25"/>
-      <c r="R109" s="36"/>
-      <c r="S109" s="36"/>
-      <c r="T109" s="36"/>
-      <c r="U109" s="36"/>
-    </row>
-    <row r="110" spans="1:21" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A110" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="D110" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E110" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F110" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="G110" s="18"/>
-      <c r="L110" s="18"/>
-      <c r="M110" s="15"/>
-      <c r="N110" s="15"/>
-      <c r="O110" s="15"/>
-      <c r="P110" s="15"/>
+      <c r="G110" s="25"/>
+      <c r="H110" s="24"/>
+      <c r="I110" s="24"/>
+      <c r="J110" s="24"/>
+      <c r="K110" s="24"/>
+      <c r="L110" s="25"/>
+      <c r="M110" s="24"/>
       <c r="Q110" s="25"/>
       <c r="R110" s="36"/>
       <c r="S110" s="36"/>
       <c r="T110" s="36"/>
       <c r="U110" s="36"/>
+    </row>
+    <row r="111" spans="1:21" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A111" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D111" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E111" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="G111" s="18"/>
+      <c r="L111" s="18"/>
+      <c r="M111" s="15"/>
+      <c r="N111" s="15"/>
+      <c r="O111" s="15"/>
+      <c r="P111" s="15"/>
+      <c r="Q111" s="25"/>
+      <c r="R111" s="36"/>
+      <c r="S111" s="36"/>
+      <c r="T111" s="36"/>
+      <c r="U111" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/src/main/resources/input/Kennisnet/props/Kennisnet.xlsx
+++ b/src/main/resources/input/Kennisnet/props/Kennisnet.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="317">
   <si>
     <t>Name</t>
   </si>
@@ -970,6 +970,12 @@
   </si>
   <si>
     <t>Name of the visuals file</t>
+  </si>
+  <si>
+    <t>nativescalars</t>
+  </si>
+  <si>
+    <t>Yes if scalar types may be entered without reference to a UML datatype</t>
   </si>
 </sst>
 </file>
@@ -1101,7 +1107,7 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1203,6 +1209,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1511,13 +1520,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:V111"/>
+  <dimension ref="A1:V112"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="C95" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B64" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H109" sqref="H109:U109"/>
+      <selection pane="bottomRight" activeCell="A72" sqref="A72:XFD72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1760,16 +1769,16 @@
       <c r="Q6" s="25"/>
     </row>
     <row r="7" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="44" t="s">
+      <c r="A7" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="44" t="s">
+      <c r="B7" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="44" t="s">
+      <c r="C7" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="44" t="b">
+      <c r="D7" s="45" t="b">
         <v>1</v>
       </c>
       <c r="E7" s="1" t="b">
@@ -1788,10 +1797,10 @@
       <c r="U7" s="36"/>
     </row>
     <row r="8" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="44"/>
-      <c r="B8" s="44"/>
-      <c r="C8" s="44"/>
-      <c r="D8" s="44"/>
+      <c r="A8" s="45"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
       <c r="G8" s="18"/>
       <c r="L8" s="18"/>
       <c r="M8" s="15"/>
@@ -3063,16 +3072,16 @@
       <c r="Q43" s="25"/>
     </row>
     <row r="44" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="44" t="s">
+      <c r="A44" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="B44" s="44" t="s">
+      <c r="B44" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="C44" s="44" t="s">
+      <c r="C44" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="D44" s="44" t="b">
+      <c r="D44" s="45" t="b">
         <v>0</v>
       </c>
       <c r="E44" s="1" t="b">
@@ -3094,10 +3103,10 @@
       <c r="U44" s="36"/>
     </row>
     <row r="45" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="44"/>
-      <c r="B45" s="44"/>
-      <c r="C45" s="44"/>
-      <c r="D45" s="44"/>
+      <c r="A45" s="45"/>
+      <c r="B45" s="45"/>
+      <c r="C45" s="45"/>
+      <c r="D45" s="45"/>
       <c r="G45" s="18"/>
       <c r="L45" s="18"/>
       <c r="M45" s="15"/>
@@ -3880,55 +3889,47 @@
       <c r="L71" s="18"/>
       <c r="Q71" s="25"/>
     </row>
-    <row r="72" spans="1:21" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A72" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="B72" s="1" t="s">
+    <row r="72" spans="1:21" s="5" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A72" s="37" t="s">
+        <v>315</v>
+      </c>
+      <c r="B72" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="C72" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="D72" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E72" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F72" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G72" s="18"/>
-      <c r="L72" s="18"/>
-      <c r="M72" s="15"/>
-      <c r="N72" s="15"/>
-      <c r="O72" s="15"/>
-      <c r="P72" s="15"/>
+      <c r="C72" s="37" t="s">
+        <v>316</v>
+      </c>
+      <c r="D72" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="E72" s="44" t="b">
+        <v>1</v>
+      </c>
+      <c r="F72" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="G72" s="25"/>
+      <c r="L72" s="25"/>
       <c r="Q72" s="25"/>
-      <c r="R72" s="36"/>
-      <c r="S72" s="36"/>
-      <c r="T72" s="36"/>
-      <c r="U72" s="36"/>
     </row>
     <row r="73" spans="1:21" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>217</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>77</v>
+        <v>229</v>
       </c>
       <c r="D73" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E73" s="1" t="b">
         <v>0</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="G73" s="18"/>
       <c r="L73" s="18"/>
@@ -3942,494 +3943,494 @@
       <c r="T73" s="36"/>
       <c r="U73" s="36"/>
     </row>
-    <row r="74" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:21" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A74" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D74" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E74" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G74" s="18"/>
+      <c r="L74" s="18"/>
+      <c r="M74" s="15"/>
+      <c r="N74" s="15"/>
+      <c r="O74" s="15"/>
+      <c r="P74" s="15"/>
+      <c r="Q74" s="25"/>
+      <c r="R74" s="36"/>
+      <c r="S74" s="36"/>
+      <c r="T74" s="36"/>
+      <c r="U74" s="36"/>
+    </row>
+    <row r="75" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A75" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="B75" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C74" s="1" t="s">
+      <c r="C75" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D74" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E74" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F74" s="31"/>
-      <c r="G74" s="18"/>
-      <c r="H74" s="39" t="s">
+      <c r="D75" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E75" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F75" s="31"/>
+      <c r="G75" s="18"/>
+      <c r="H75" s="39" t="s">
         <v>308</v>
       </c>
-      <c r="I74" s="39" t="s">
+      <c r="I75" s="39" t="s">
         <v>308</v>
       </c>
-      <c r="J74" s="39" t="s">
+      <c r="J75" s="39" t="s">
         <v>308</v>
       </c>
-      <c r="K74" s="39" t="s">
+      <c r="K75" s="39" t="s">
         <v>308</v>
       </c>
-      <c r="L74" s="25"/>
-      <c r="M74" s="39" t="s">
+      <c r="L75" s="25"/>
+      <c r="M75" s="39" t="s">
         <v>309</v>
       </c>
-      <c r="N74" s="39" t="s">
+      <c r="N75" s="39" t="s">
         <v>309</v>
       </c>
-      <c r="O74" s="39" t="s">
+      <c r="O75" s="39" t="s">
         <v>309</v>
       </c>
-      <c r="P74" s="39" t="s">
+      <c r="P75" s="39" t="s">
         <v>309</v>
       </c>
-      <c r="Q74" s="25"/>
-      <c r="R74" s="39" t="s">
+      <c r="Q75" s="25"/>
+      <c r="R75" s="39" t="s">
         <v>310</v>
       </c>
-      <c r="S74" s="39" t="s">
+      <c r="S75" s="39" t="s">
         <v>310</v>
       </c>
-      <c r="T74" s="39" t="s">
+      <c r="T75" s="39" t="s">
         <v>310</v>
       </c>
-      <c r="U74" s="39" t="s">
+      <c r="U75" s="39" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="75" spans="1:21" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A75" s="1" t="s">
+    <row r="76" spans="1:21" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A76" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="B76" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="C76" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D75" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E75" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F75" s="1" t="s">
+      <c r="D76" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E76" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F76" s="1" t="s">
         <v>269</v>
-      </c>
-      <c r="G75" s="18"/>
-      <c r="L75" s="18"/>
-      <c r="M75" s="15"/>
-      <c r="N75" s="15"/>
-      <c r="O75" s="15"/>
-      <c r="P75" s="15"/>
-      <c r="Q75" s="25"/>
-      <c r="R75" s="36"/>
-      <c r="S75" s="36"/>
-      <c r="T75" s="36"/>
-      <c r="U75" s="36"/>
-    </row>
-    <row r="76" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A76" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="B76" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C76" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D76" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E76" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="F76" s="5" t="s">
-        <v>305</v>
       </c>
       <c r="G76" s="18"/>
       <c r="L76" s="18"/>
+      <c r="M76" s="15"/>
+      <c r="N76" s="15"/>
+      <c r="O76" s="15"/>
+      <c r="P76" s="15"/>
       <c r="Q76" s="25"/>
-    </row>
-    <row r="77" spans="1:21" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A77" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="D77" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E77" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F77" s="1" t="s">
-        <v>19</v>
+      <c r="R76" s="36"/>
+      <c r="S76" s="36"/>
+      <c r="T76" s="36"/>
+      <c r="U76" s="36"/>
+    </row>
+    <row r="77" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A77" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D77" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E77" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F77" s="5" t="s">
+        <v>305</v>
       </c>
       <c r="G77" s="18"/>
       <c r="L77" s="18"/>
-      <c r="M77" s="15"/>
-      <c r="N77" s="15"/>
-      <c r="O77" s="15"/>
-      <c r="P77" s="15"/>
       <c r="Q77" s="25"/>
-      <c r="R77" s="36"/>
-      <c r="S77" s="36"/>
-      <c r="T77" s="36"/>
-      <c r="U77" s="36"/>
-    </row>
-    <row r="78" spans="1:21" s="5" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="A78" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="B78" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="C78" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="D78" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="E78" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="F78" s="5" t="s">
-        <v>211</v>
+    </row>
+    <row r="78" spans="1:21" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A78" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D78" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E78" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="G78" s="18"/>
       <c r="L78" s="18"/>
+      <c r="M78" s="15"/>
+      <c r="N78" s="15"/>
+      <c r="O78" s="15"/>
+      <c r="P78" s="15"/>
       <c r="Q78" s="25"/>
-    </row>
-    <row r="79" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A79" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D79" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E79" s="1" t="b">
-        <v>0</v>
+      <c r="R78" s="36"/>
+      <c r="S78" s="36"/>
+      <c r="T78" s="36"/>
+      <c r="U78" s="36"/>
+    </row>
+    <row r="79" spans="1:21" s="5" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A79" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="D79" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E79" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F79" s="5" t="s">
+        <v>211</v>
       </c>
       <c r="G79" s="18"/>
-      <c r="H79" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="I79" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="J79" s="15" t="s">
-        <v>284</v>
-      </c>
-      <c r="K79" s="15" t="s">
-        <v>284</v>
-      </c>
       <c r="L79" s="18"/>
-      <c r="M79" s="15" t="s">
-        <v>285</v>
-      </c>
-      <c r="N79" s="15" t="s">
-        <v>285</v>
-      </c>
-      <c r="O79" s="15" t="s">
-        <v>285</v>
-      </c>
-      <c r="P79" s="15" t="s">
-        <v>285</v>
-      </c>
       <c r="Q79" s="25"/>
-      <c r="R79" s="36" t="s">
-        <v>286</v>
-      </c>
-      <c r="S79" s="36" t="s">
-        <v>286</v>
-      </c>
-      <c r="T79" s="36" t="s">
-        <v>286</v>
-      </c>
-      <c r="U79" s="36" t="s">
-        <v>286</v>
-      </c>
     </row>
     <row r="80" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A80" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D80" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E80" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G80" s="18"/>
+      <c r="H80" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="J80" s="15" t="s">
+        <v>284</v>
+      </c>
+      <c r="K80" s="15" t="s">
+        <v>284</v>
+      </c>
+      <c r="L80" s="18"/>
+      <c r="M80" s="15" t="s">
+        <v>285</v>
+      </c>
+      <c r="N80" s="15" t="s">
+        <v>285</v>
+      </c>
+      <c r="O80" s="15" t="s">
+        <v>285</v>
+      </c>
+      <c r="P80" s="15" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q80" s="25"/>
+      <c r="R80" s="36" t="s">
+        <v>286</v>
+      </c>
+      <c r="S80" s="36" t="s">
+        <v>286</v>
+      </c>
+      <c r="T80" s="36" t="s">
+        <v>286</v>
+      </c>
+      <c r="U80" s="36" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="81" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A81" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="B81" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C80" s="1" t="s">
+      <c r="C81" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D80" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E80" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F80" s="1" t="s">
+      <c r="D81" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E81" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F81" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="G80" s="18"/>
-      <c r="L80" s="18"/>
-      <c r="M80" s="15"/>
-      <c r="N80" s="15"/>
-      <c r="O80" s="15"/>
-      <c r="P80" s="15"/>
-      <c r="Q80" s="25"/>
-      <c r="R80" s="36"/>
-      <c r="S80" s="36"/>
-      <c r="T80" s="36"/>
-      <c r="U80" s="36"/>
-    </row>
-    <row r="81" spans="1:21" s="5" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A81" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="B81" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="C81" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="D81" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="E81" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="F81" s="5" t="s">
-        <v>92</v>
       </c>
       <c r="G81" s="18"/>
       <c r="L81" s="18"/>
+      <c r="M81" s="15"/>
+      <c r="N81" s="15"/>
+      <c r="O81" s="15"/>
+      <c r="P81" s="15"/>
       <c r="Q81" s="25"/>
+      <c r="R81" s="36"/>
+      <c r="S81" s="36"/>
+      <c r="T81" s="36"/>
+      <c r="U81" s="36"/>
     </row>
     <row r="82" spans="1:21" s="5" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A82" s="5" t="s">
-        <v>148</v>
+        <v>91</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>5</v>
+        <v>93</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>149</v>
+        <v>94</v>
       </c>
       <c r="D82" s="5" t="b">
         <v>0</v>
       </c>
       <c r="E82" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>16</v>
+        <v>92</v>
       </c>
       <c r="G82" s="18"/>
       <c r="L82" s="18"/>
       <c r="Q82" s="25"/>
     </row>
-    <row r="83" spans="1:21" s="1" customFormat="1" ht="58.3" x14ac:dyDescent="0.4">
-      <c r="A83" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D83" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E83" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F83" s="1" t="s">
-        <v>96</v>
+    <row r="83" spans="1:21" s="5" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A83" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="D83" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E83" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F83" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="G83" s="18"/>
       <c r="L83" s="18"/>
-      <c r="M83" s="15"/>
-      <c r="N83" s="15"/>
-      <c r="O83" s="15"/>
-      <c r="P83" s="15"/>
       <c r="Q83" s="25"/>
-      <c r="R83" s="36"/>
-      <c r="S83" s="36"/>
-      <c r="T83" s="36"/>
-      <c r="U83" s="36"/>
-    </row>
-    <row r="84" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="84" spans="1:21" s="1" customFormat="1" ht="58.3" x14ac:dyDescent="0.4">
       <c r="A84" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="B84" s="6"/>
-      <c r="C84" s="6"/>
+        <v>95</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>97</v>
+      </c>
       <c r="D84" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E84" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>96</v>
       </c>
       <c r="G84" s="18"/>
-      <c r="H84" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I84" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J84" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K84" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="L84" s="18"/>
-      <c r="M84" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="N84" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="O84" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="P84" s="15" t="s">
-        <v>4</v>
-      </c>
+      <c r="M84" s="15"/>
+      <c r="N84" s="15"/>
+      <c r="O84" s="15"/>
+      <c r="P84" s="15"/>
       <c r="Q84" s="25"/>
-      <c r="R84" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="S84" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="T84" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="U84" s="36" t="s">
-        <v>4</v>
-      </c>
+      <c r="R84" s="36"/>
+      <c r="S84" s="36"/>
+      <c r="T84" s="36"/>
+      <c r="U84" s="36"/>
     </row>
     <row r="85" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A85" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B85" s="6"/>
+      <c r="C85" s="6"/>
+      <c r="D85" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E85" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G85" s="18"/>
+      <c r="H85" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I85" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J85" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K85" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L85" s="18"/>
+      <c r="M85" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="N85" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="O85" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="P85" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q85" s="25"/>
+      <c r="R85" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="S85" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="T85" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="U85" s="36" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A86" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B85" s="1" t="s">
+      <c r="B86" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C85" s="1" t="s">
+      <c r="C86" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="D85" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E85" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F85" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G85" s="18"/>
-      <c r="L85" s="18"/>
-      <c r="M85" s="15"/>
-      <c r="N85" s="15"/>
-      <c r="O85" s="15"/>
-      <c r="P85" s="15"/>
-      <c r="Q85" s="25"/>
-      <c r="R85" s="36"/>
-      <c r="S85" s="36"/>
-      <c r="T85" s="36"/>
-      <c r="U85" s="36"/>
-    </row>
-    <row r="86" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A86" s="29" t="s">
-        <v>98</v>
-      </c>
-      <c r="B86" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="C86" s="29" t="s">
-        <v>99</v>
-      </c>
-      <c r="D86" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="E86" s="29" t="b">
-        <v>0</v>
-      </c>
-      <c r="F86" s="29" t="s">
-        <v>267</v>
-      </c>
-      <c r="G86" s="25"/>
-      <c r="L86" s="25"/>
+      <c r="D86" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E86" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G86" s="18"/>
+      <c r="L86" s="18"/>
+      <c r="M86" s="15"/>
+      <c r="N86" s="15"/>
+      <c r="O86" s="15"/>
+      <c r="P86" s="15"/>
       <c r="Q86" s="25"/>
       <c r="R86" s="36"/>
       <c r="S86" s="36"/>
       <c r="T86" s="36"/>
       <c r="U86" s="36"/>
     </row>
-    <row r="87" spans="1:21" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A87" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="D87" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E87" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F87" s="10" t="s">
-        <v>251</v>
-      </c>
-      <c r="G87" s="18"/>
-      <c r="L87" s="18"/>
-      <c r="M87" s="15"/>
-      <c r="N87" s="15"/>
-      <c r="O87" s="15"/>
-      <c r="P87" s="15"/>
+    <row r="87" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A87" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="B87" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="C87" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="D87" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="E87" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="F87" s="29" t="s">
+        <v>267</v>
+      </c>
+      <c r="G87" s="25"/>
+      <c r="L87" s="25"/>
       <c r="Q87" s="25"/>
       <c r="R87" s="36"/>
       <c r="S87" s="36"/>
       <c r="T87" s="36"/>
       <c r="U87" s="36"/>
     </row>
-    <row r="88" spans="1:21" s="12" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A88" s="12" t="s">
-        <v>247</v>
-      </c>
-      <c r="B88" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="C88" s="12" t="s">
-        <v>249</v>
-      </c>
-      <c r="D88" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="E88" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="F88" s="4" t="s">
-        <v>250</v>
+    <row r="88" spans="1:21" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A88" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D88" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E88" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F88" s="10" t="s">
+        <v>251</v>
       </c>
       <c r="G88" s="18"/>
       <c r="L88" s="18"/>
@@ -4443,130 +4444,130 @@
       <c r="T88" s="36"/>
       <c r="U88" s="36"/>
     </row>
-    <row r="89" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A89" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="B89" s="6"/>
-      <c r="C89" s="6"/>
-      <c r="D89" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E89" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F89" s="15" t="s">
-        <v>305</v>
+    <row r="89" spans="1:21" s="12" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A89" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="B89" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="C89" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="D89" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="E89" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="F89" s="4" t="s">
+        <v>250</v>
       </c>
       <c r="G89" s="18"/>
-      <c r="I89" s="33"/>
-      <c r="J89" s="33"/>
-      <c r="K89" s="33"/>
       <c r="L89" s="18"/>
-      <c r="M89" s="33"/>
-      <c r="N89" s="33"/>
-      <c r="O89" s="33"/>
-      <c r="P89" s="33"/>
+      <c r="M89" s="15"/>
+      <c r="N89" s="15"/>
+      <c r="O89" s="15"/>
+      <c r="P89" s="15"/>
       <c r="Q89" s="25"/>
       <c r="R89" s="36"/>
       <c r="S89" s="36"/>
       <c r="T89" s="36"/>
       <c r="U89" s="36"/>
     </row>
-    <row r="90" spans="1:21" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A90" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>101</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="B90" s="6"/>
+      <c r="C90" s="6"/>
       <c r="D90" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E90" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F90" s="1" t="s">
-        <v>16</v>
+      <c r="F90" s="15" t="s">
+        <v>305</v>
       </c>
       <c r="G90" s="18"/>
+      <c r="I90" s="33"/>
+      <c r="J90" s="33"/>
+      <c r="K90" s="33"/>
       <c r="L90" s="18"/>
-      <c r="M90" s="15"/>
-      <c r="N90" s="15"/>
-      <c r="O90" s="15"/>
-      <c r="P90" s="15"/>
+      <c r="M90" s="33"/>
+      <c r="N90" s="33"/>
+      <c r="O90" s="33"/>
+      <c r="P90" s="33"/>
       <c r="Q90" s="25"/>
       <c r="R90" s="36"/>
       <c r="S90" s="36"/>
       <c r="T90" s="36"/>
       <c r="U90" s="36"/>
     </row>
-    <row r="91" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A91" t="s">
+    <row r="91" spans="1:21" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A91" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D91" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E91" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G91" s="18"/>
+      <c r="L91" s="18"/>
+      <c r="M91" s="15"/>
+      <c r="N91" s="15"/>
+      <c r="O91" s="15"/>
+      <c r="P91" s="15"/>
+      <c r="Q91" s="25"/>
+      <c r="R91" s="36"/>
+      <c r="S91" s="36"/>
+      <c r="T91" s="36"/>
+      <c r="U91" s="36"/>
+    </row>
+    <row r="92" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A92" t="s">
         <v>291</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B92" t="s">
         <v>10</v>
       </c>
-      <c r="C91" t="s">
+      <c r="C92" t="s">
         <v>292</v>
       </c>
-      <c r="D91" t="b">
-        <v>1</v>
-      </c>
-      <c r="E91" t="b">
-        <v>1</v>
-      </c>
-      <c r="F91" t="s">
+      <c r="D92" t="b">
+        <v>1</v>
+      </c>
+      <c r="E92" t="b">
+        <v>1</v>
+      </c>
+      <c r="F92" t="s">
         <v>305</v>
       </c>
-      <c r="G91" s="25"/>
-      <c r="L91" s="25"/>
-      <c r="Q91" s="25"/>
-    </row>
-    <row r="92" spans="1:21" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A92" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D92" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E92" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F92" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="G92" s="18"/>
-      <c r="L92" s="18"/>
-      <c r="M92" s="15"/>
-      <c r="N92" s="15"/>
-      <c r="O92" s="15"/>
-      <c r="P92" s="15"/>
+      <c r="G92" s="25"/>
+      <c r="L92" s="25"/>
       <c r="Q92" s="25"/>
-      <c r="R92" s="36"/>
-      <c r="S92" s="36"/>
-      <c r="T92" s="36"/>
-      <c r="U92" s="36"/>
     </row>
     <row r="93" spans="1:21" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A93" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D93" s="1" t="b">
         <v>0</v>
@@ -4574,8 +4575,8 @@
       <c r="E93" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F93" s="1" t="s">
-        <v>16</v>
+      <c r="F93" s="4" t="s">
+        <v>212</v>
       </c>
       <c r="G93" s="18"/>
       <c r="L93" s="18"/>
@@ -4589,21 +4590,24 @@
       <c r="T93" s="36"/>
       <c r="U93" s="36"/>
     </row>
-    <row r="94" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:21" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A94" s="1" t="s">
-        <v>203</v>
+        <v>104</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>204</v>
+        <v>105</v>
       </c>
       <c r="D94" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E94" s="1" t="b">
         <v>1</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="G94" s="18"/>
       <c r="L94" s="18"/>
@@ -4619,22 +4623,19 @@
     </row>
     <row r="95" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A95" s="1" t="s">
-        <v>106</v>
+        <v>203</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>108</v>
+        <v>5</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>109</v>
+        <v>204</v>
       </c>
       <c r="D95" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E95" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F95" s="1" t="s">
-        <v>107</v>
+        <v>1</v>
       </c>
       <c r="G95" s="18"/>
       <c r="L95" s="18"/>
@@ -4648,94 +4649,102 @@
       <c r="T95" s="36"/>
       <c r="U95" s="36"/>
     </row>
-    <row r="96" spans="1:21" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A96" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D96" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E96" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G96" s="18"/>
+      <c r="L96" s="18"/>
+      <c r="M96" s="15"/>
+      <c r="N96" s="15"/>
+      <c r="O96" s="15"/>
+      <c r="P96" s="15"/>
+      <c r="Q96" s="25"/>
+      <c r="R96" s="36"/>
+      <c r="S96" s="36"/>
+      <c r="T96" s="36"/>
+      <c r="U96" s="36"/>
+    </row>
+    <row r="97" spans="1:21" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A97" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B96" s="1" t="s">
+      <c r="B97" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C96" s="1" t="s">
+      <c r="C97" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="D96" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E96" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G96" s="18"/>
-      <c r="H96" s="39" t="s">
+      <c r="D97" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E97" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G97" s="18"/>
+      <c r="H97" s="39" t="s">
         <v>308</v>
       </c>
-      <c r="I96" s="39" t="s">
+      <c r="I97" s="39" t="s">
         <v>308</v>
       </c>
-      <c r="J96" s="39" t="s">
+      <c r="J97" s="39" t="s">
         <v>308</v>
       </c>
-      <c r="K96" s="39" t="s">
+      <c r="K97" s="39" t="s">
         <v>308</v>
       </c>
-      <c r="L96" s="25"/>
-      <c r="M96" s="39" t="s">
+      <c r="L97" s="25"/>
+      <c r="M97" s="39" t="s">
         <v>309</v>
       </c>
-      <c r="N96" s="39" t="s">
+      <c r="N97" s="39" t="s">
         <v>309</v>
       </c>
-      <c r="O96" s="39" t="s">
+      <c r="O97" s="39" t="s">
         <v>309</v>
       </c>
-      <c r="P96" s="39" t="s">
+      <c r="P97" s="39" t="s">
         <v>309</v>
       </c>
-      <c r="Q96" s="25"/>
-      <c r="R96" s="39" t="s">
+      <c r="Q97" s="25"/>
+      <c r="R97" s="39" t="s">
         <v>310</v>
       </c>
-      <c r="S96" s="39" t="s">
+      <c r="S97" s="39" t="s">
         <v>310</v>
       </c>
-      <c r="T96" s="39" t="s">
+      <c r="T97" s="39" t="s">
         <v>310</v>
       </c>
-      <c r="U96" s="39" t="s">
+      <c r="U97" s="39" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="97" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A97" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="B97" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C97" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="D97" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E97" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="F97" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="G97" s="18"/>
-      <c r="L97" s="18"/>
-      <c r="Q97" s="25"/>
     </row>
     <row r="98" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A98" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D98" s="5" t="b">
         <v>1</v>
@@ -4752,95 +4761,62 @@
     </row>
     <row r="99" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A99" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>5</v>
+        <v>66</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D99" s="5" t="b">
         <v>1</v>
       </c>
       <c r="E99" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F99" s="5" t="s">
-        <v>16</v>
+        <v>218</v>
       </c>
       <c r="G99" s="18"/>
       <c r="L99" s="18"/>
       <c r="Q99" s="25"/>
     </row>
-    <row r="100" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A100" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B100" s="1" t="s">
+    <row r="100" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A100" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B100" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C100" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D100" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E100" s="1" t="b">
-        <v>1</v>
+      <c r="C100" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D100" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E100" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F100" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="G100" s="18"/>
-      <c r="H100" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I100" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J100" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K100" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="L100" s="18"/>
-      <c r="M100" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="N100" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="O100" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="P100" s="15" t="s">
-        <v>4</v>
-      </c>
       <c r="Q100" s="25"/>
-      <c r="R100" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="S100" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="T100" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="U100" s="36" t="s">
-        <v>4</v>
-      </c>
     </row>
     <row r="101" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A101" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D101" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E101" s="1" t="b">
         <v>1</v>
@@ -4887,23 +4863,23 @@
     </row>
     <row r="102" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A102" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D102" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E102" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G102" s="18"/>
       <c r="H102" s="1" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="I102" s="1" t="s">
         <v>4</v>
@@ -4916,7 +4892,7 @@
       </c>
       <c r="L102" s="18"/>
       <c r="M102" s="15" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="N102" s="15" t="s">
         <v>4</v>
@@ -4929,7 +4905,7 @@
       </c>
       <c r="Q102" s="25"/>
       <c r="R102" s="36" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="S102" s="36" t="s">
         <v>4</v>
@@ -4941,164 +4917,164 @@
         <v>4</v>
       </c>
     </row>
-    <row r="103" spans="1:21" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A103" s="1" t="s">
-        <v>152</v>
+        <v>122</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C103" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D103" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E103" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G103" s="18"/>
+      <c r="H103" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I103" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J103" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K103" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L103" s="18"/>
+      <c r="M103" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="N103" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="O103" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="P103" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q103" s="25"/>
+      <c r="R103" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="S103" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="T103" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="U103" s="36" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="104" spans="1:21" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A104" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C104" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="D103" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E103" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F103" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G103" s="18"/>
-      <c r="H103"/>
-      <c r="I103"/>
-      <c r="J103"/>
-      <c r="K103"/>
-      <c r="L103" s="18"/>
-      <c r="M103" s="15"/>
-      <c r="N103" s="15"/>
-      <c r="O103" s="15"/>
-      <c r="P103" s="15"/>
-      <c r="Q103" s="25"/>
-      <c r="R103" s="36"/>
-      <c r="S103" s="36"/>
-      <c r="T103" s="36"/>
-      <c r="U103" s="36"/>
-    </row>
-    <row r="104" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A104" t="s">
-        <v>293</v>
-      </c>
-      <c r="B104" t="s">
-        <v>5</v>
-      </c>
-      <c r="C104" t="s">
-        <v>294</v>
-      </c>
-      <c r="D104" t="b">
-        <v>0</v>
-      </c>
-      <c r="E104" t="b">
-        <v>1</v>
-      </c>
-      <c r="F104" t="s">
-        <v>4</v>
-      </c>
-      <c r="G104" s="25"/>
+      <c r="D104" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E104" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G104" s="18"/>
       <c r="H104"/>
       <c r="I104"/>
       <c r="J104"/>
       <c r="K104"/>
-      <c r="L104" s="25"/>
-      <c r="M104"/>
-      <c r="N104"/>
-      <c r="O104"/>
-      <c r="P104"/>
+      <c r="L104" s="18"/>
+      <c r="M104" s="15"/>
+      <c r="N104" s="15"/>
+      <c r="O104" s="15"/>
+      <c r="P104" s="15"/>
       <c r="Q104" s="25"/>
-      <c r="R104"/>
-      <c r="S104"/>
-      <c r="T104"/>
-      <c r="U104"/>
-    </row>
-    <row r="105" spans="1:21" s="5" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A105" s="5" t="s">
+      <c r="R104" s="36"/>
+      <c r="S104" s="36"/>
+      <c r="T104" s="36"/>
+      <c r="U104" s="36"/>
+    </row>
+    <row r="105" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A105" t="s">
+        <v>293</v>
+      </c>
+      <c r="B105" t="s">
+        <v>5</v>
+      </c>
+      <c r="C105" t="s">
+        <v>294</v>
+      </c>
+      <c r="D105" t="b">
+        <v>0</v>
+      </c>
+      <c r="E105" t="b">
+        <v>1</v>
+      </c>
+      <c r="F105" t="s">
+        <v>4</v>
+      </c>
+      <c r="G105" s="25"/>
+      <c r="H105"/>
+      <c r="I105"/>
+      <c r="J105"/>
+      <c r="K105"/>
+      <c r="L105" s="25"/>
+      <c r="M105"/>
+      <c r="N105"/>
+      <c r="O105"/>
+      <c r="P105"/>
+      <c r="Q105" s="25"/>
+      <c r="R105"/>
+      <c r="S105"/>
+      <c r="T105"/>
+      <c r="U105"/>
+    </row>
+    <row r="106" spans="1:21" s="5" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A106" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="B105" s="5" t="s">
+      <c r="B106" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="C105" s="5" t="s">
+      <c r="C106" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="D105" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E105" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="F105" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G105" s="18"/>
-      <c r="L105" s="18"/>
-      <c r="Q105" s="25"/>
-    </row>
-    <row r="106" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A106" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="D106" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E106" s="1" t="b">
-        <v>1</v>
+      <c r="D106" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E106" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F106" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="G106" s="18"/>
-      <c r="H106" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I106" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J106" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K106" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="L106" s="18"/>
-      <c r="M106" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="N106" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="O106" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="P106" s="15" t="s">
-        <v>4</v>
-      </c>
       <c r="Q106" s="25"/>
-      <c r="R106" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="S106" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="T106" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="U106" s="36" t="s">
-        <v>4</v>
-      </c>
     </row>
     <row r="107" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A107" s="1" t="s">
-        <v>238</v>
+        <v>127</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D107" s="1" t="b">
         <v>1</v>
@@ -5148,153 +5124,209 @@
     </row>
     <row r="108" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A108" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D108" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E108" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G108" s="18"/>
+      <c r="H108" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I108" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J108" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K108" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L108" s="18"/>
+      <c r="M108" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="N108" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="O108" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="P108" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q108" s="25"/>
+      <c r="R108" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="S108" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="T108" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="U108" s="36" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="109" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A109" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B108" s="1" t="s">
+      <c r="B109" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C108" s="1" t="s">
+      <c r="C109" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="D108" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E108" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F108" s="1" t="s">
+      <c r="D109" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E109" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F109" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="G108" s="18"/>
-      <c r="L108" s="18"/>
-      <c r="M108" s="15"/>
-      <c r="N108" s="15"/>
-      <c r="O108" s="15"/>
-      <c r="P108" s="15"/>
-      <c r="Q108" s="25"/>
-      <c r="R108" s="36"/>
-      <c r="S108" s="36"/>
-      <c r="T108" s="36"/>
-      <c r="U108" s="36"/>
-    </row>
-    <row r="109" spans="1:21" s="43" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A109" s="43" t="s">
+      <c r="G109" s="18"/>
+      <c r="L109" s="18"/>
+      <c r="M109" s="15"/>
+      <c r="N109" s="15"/>
+      <c r="O109" s="15"/>
+      <c r="P109" s="15"/>
+      <c r="Q109" s="25"/>
+      <c r="R109" s="36"/>
+      <c r="S109" s="36"/>
+      <c r="T109" s="36"/>
+      <c r="U109" s="36"/>
+    </row>
+    <row r="110" spans="1:21" s="43" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A110" s="43" t="s">
         <v>313</v>
       </c>
-      <c r="B109" s="43" t="s">
+      <c r="B110" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="C109" s="43" t="s">
+      <c r="C110" s="43" t="s">
         <v>314</v>
       </c>
-      <c r="D109" s="43" t="b">
-        <v>1</v>
-      </c>
-      <c r="E109" s="43" t="b">
-        <v>1</v>
-      </c>
-      <c r="G109" s="25"/>
-      <c r="H109" s="43" t="s">
+      <c r="D110" s="43" t="b">
+        <v>1</v>
+      </c>
+      <c r="E110" s="43" t="b">
+        <v>1</v>
+      </c>
+      <c r="G110" s="25"/>
+      <c r="H110" s="43" t="s">
         <v>308</v>
       </c>
-      <c r="I109" s="43" t="s">
+      <c r="I110" s="43" t="s">
         <v>308</v>
       </c>
-      <c r="J109" s="43" t="s">
+      <c r="J110" s="43" t="s">
         <v>308</v>
       </c>
-      <c r="K109" s="43" t="s">
+      <c r="K110" s="43" t="s">
         <v>308</v>
       </c>
-      <c r="L109" s="25"/>
-      <c r="M109" s="43" t="s">
+      <c r="L110" s="25"/>
+      <c r="M110" s="43" t="s">
         <v>309</v>
       </c>
-      <c r="N109" s="43" t="s">
+      <c r="N110" s="43" t="s">
         <v>309</v>
       </c>
-      <c r="O109" s="43" t="s">
+      <c r="O110" s="43" t="s">
         <v>309</v>
       </c>
-      <c r="P109" s="43" t="s">
+      <c r="P110" s="43" t="s">
         <v>309</v>
       </c>
-      <c r="Q109" s="25"/>
-      <c r="R109" s="43" t="s">
+      <c r="Q110" s="25"/>
+      <c r="R110" s="43" t="s">
         <v>310</v>
       </c>
-      <c r="S109" s="43" t="s">
+      <c r="S110" s="43" t="s">
         <v>310</v>
       </c>
-      <c r="T109" s="43" t="s">
+      <c r="T110" s="43" t="s">
         <v>310</v>
       </c>
-      <c r="U109" s="43" t="s">
+      <c r="U110" s="43" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="110" spans="1:21" s="23" customFormat="1" ht="58.3" x14ac:dyDescent="0.4">
-      <c r="A110" s="24" t="s">
+    <row r="111" spans="1:21" s="23" customFormat="1" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A111" s="24" t="s">
         <v>256</v>
       </c>
-      <c r="B110" s="24" t="s">
+      <c r="B111" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="C110" s="24" t="s">
+      <c r="C111" s="24" t="s">
         <v>257</v>
       </c>
-      <c r="D110" s="24" t="b">
-        <v>1</v>
-      </c>
-      <c r="E110" s="24" t="b">
-        <v>1</v>
-      </c>
-      <c r="F110" s="24" t="s">
+      <c r="D111" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="E111" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="F111" s="24" t="s">
         <v>258</v>
       </c>
-      <c r="G110" s="25"/>
-      <c r="H110" s="24"/>
-      <c r="I110" s="24"/>
-      <c r="J110" s="24"/>
-      <c r="K110" s="24"/>
-      <c r="L110" s="25"/>
-      <c r="M110" s="24"/>
-      <c r="Q110" s="25"/>
-      <c r="R110" s="36"/>
-      <c r="S110" s="36"/>
-      <c r="T110" s="36"/>
-      <c r="U110" s="36"/>
-    </row>
-    <row r="111" spans="1:21" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A111" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B111" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C111" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="D111" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E111" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F111" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="G111" s="18"/>
-      <c r="L111" s="18"/>
-      <c r="M111" s="15"/>
-      <c r="N111" s="15"/>
-      <c r="O111" s="15"/>
-      <c r="P111" s="15"/>
+      <c r="G111" s="25"/>
+      <c r="H111" s="24"/>
+      <c r="I111" s="24"/>
+      <c r="J111" s="24"/>
+      <c r="K111" s="24"/>
+      <c r="L111" s="25"/>
+      <c r="M111" s="24"/>
       <c r="Q111" s="25"/>
       <c r="R111" s="36"/>
       <c r="S111" s="36"/>
       <c r="T111" s="36"/>
       <c r="U111" s="36"/>
+    </row>
+    <row r="112" spans="1:21" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A112" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D112" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E112" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="G112" s="18"/>
+      <c r="L112" s="18"/>
+      <c r="M112" s="15"/>
+      <c r="N112" s="15"/>
+      <c r="O112" s="15"/>
+      <c r="P112" s="15"/>
+      <c r="Q112" s="25"/>
+      <c r="R112" s="36"/>
+      <c r="S112" s="36"/>
+      <c r="T112" s="36"/>
+      <c r="U112" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/src/main/resources/input/Kennisnet/props/Kennisnet.xlsx
+++ b/src/main/resources/input/Kennisnet/props/Kennisnet.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="321">
   <si>
     <t>Name</t>
   </si>
@@ -976,6 +976,18 @@
   </si>
   <si>
     <t>Yes if scalar types may be entered without reference to a UML datatype</t>
+  </si>
+  <si>
+    <t>mimformatname</t>
+  </si>
+  <si>
+    <t>The name of the MIM format file generated</t>
+  </si>
+  <si>
+    <t>createmimformat</t>
+  </si>
+  <si>
+    <t>Yes if MIM format must be generated</t>
   </si>
 </sst>
 </file>
@@ -1107,7 +1119,7 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1209,6 +1221,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1520,13 +1535,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:V112"/>
+  <dimension ref="A1:V114"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B64" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A72" sqref="A72:XFD72"/>
+      <selection pane="bottomRight" activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1769,16 +1784,16 @@
       <c r="Q6" s="25"/>
     </row>
     <row r="7" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="45" t="s">
+      <c r="B7" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="45" t="s">
+      <c r="C7" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="45" t="b">
+      <c r="D7" s="46" t="b">
         <v>1</v>
       </c>
       <c r="E7" s="1" t="b">
@@ -1797,10 +1812,10 @@
       <c r="U7" s="36"/>
     </row>
     <row r="8" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="45"/>
-      <c r="B8" s="45"/>
-      <c r="C8" s="45"/>
-      <c r="D8" s="45"/>
+      <c r="A8" s="46"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
       <c r="G8" s="18"/>
       <c r="L8" s="18"/>
       <c r="M8" s="15"/>
@@ -2637,55 +2652,47 @@
       <c r="T30" s="36"/>
       <c r="U30" s="36"/>
     </row>
-    <row r="31" spans="1:21" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A31" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D31" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E31" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G31" s="18"/>
-      <c r="I31" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J31" s="41" t="s">
-        <v>34</v>
-      </c>
-      <c r="K31" s="41" t="s">
-        <v>34</v>
-      </c>
-      <c r="L31" s="18"/>
-      <c r="M31" s="15"/>
-      <c r="N31" s="15"/>
-      <c r="O31" s="15"/>
-      <c r="P31" s="15"/>
+    <row r="31" spans="1:21" s="45" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="45" t="s">
+        <v>319</v>
+      </c>
+      <c r="B31" s="45" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" s="45" t="s">
+        <v>320</v>
+      </c>
+      <c r="D31" s="45" t="b">
+        <v>0</v>
+      </c>
+      <c r="E31" s="45" t="b">
+        <v>1</v>
+      </c>
+      <c r="F31" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="G31" s="25"/>
+      <c r="I31" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="J31" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="K31" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="L31" s="25"/>
       <c r="Q31" s="25"/>
-      <c r="R31" s="36"/>
-      <c r="S31" s="36"/>
-      <c r="T31" s="36"/>
-      <c r="U31" s="36"/>
     </row>
     <row r="32" spans="1:21" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A32" s="1" t="s">
-        <v>168</v>
+        <v>33</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>169</v>
+        <v>35</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>170</v>
+        <v>36</v>
       </c>
       <c r="D32" s="1" t="b">
         <v>0</v>
@@ -2694,9 +2701,18 @@
         <v>1</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G32" s="18"/>
+      <c r="I32" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J32" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="K32" s="41" t="s">
+        <v>34</v>
+      </c>
       <c r="L32" s="18"/>
       <c r="M32" s="15"/>
       <c r="N32" s="15"/>
@@ -2708,15 +2724,15 @@
       <c r="T32" s="36"/>
       <c r="U32" s="36"/>
     </row>
-    <row r="33" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:21" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A33" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D33" s="1" t="b">
         <v>0</v>
@@ -2725,7 +2741,7 @@
         <v>1</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>268</v>
+        <v>10</v>
       </c>
       <c r="G33" s="18"/>
       <c r="L33" s="18"/>
@@ -2739,133 +2755,133 @@
       <c r="T33" s="36"/>
       <c r="U33" s="36"/>
     </row>
-    <row r="34" spans="1:21" s="35" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A34" s="35" t="s">
-        <v>270</v>
-      </c>
-      <c r="B34" s="35" t="s">
-        <v>271</v>
-      </c>
-      <c r="C34" s="35" t="s">
-        <v>272</v>
-      </c>
-      <c r="D34" s="35" t="b">
-        <v>0</v>
-      </c>
-      <c r="E34" s="35" t="b">
-        <v>1</v>
-      </c>
-      <c r="F34" s="35" t="s">
-        <v>273</v>
-      </c>
-      <c r="G34" s="25"/>
-      <c r="L34" s="25"/>
+    <row r="34" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D34" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E34" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="G34" s="18"/>
+      <c r="L34" s="18"/>
+      <c r="M34" s="15"/>
+      <c r="N34" s="15"/>
+      <c r="O34" s="15"/>
+      <c r="P34" s="15"/>
       <c r="Q34" s="25"/>
       <c r="R34" s="36"/>
       <c r="S34" s="36"/>
       <c r="T34" s="36"/>
       <c r="U34" s="36"/>
     </row>
-    <row r="35" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D35" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E35" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G35" s="18"/>
-      <c r="L35" s="18"/>
-      <c r="M35" s="15"/>
-      <c r="N35" s="15"/>
-      <c r="O35" s="15"/>
-      <c r="P35" s="15"/>
+    <row r="35" spans="1:21" s="35" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A35" s="35" t="s">
+        <v>270</v>
+      </c>
+      <c r="B35" s="35" t="s">
+        <v>271</v>
+      </c>
+      <c r="C35" s="35" t="s">
+        <v>272</v>
+      </c>
+      <c r="D35" s="35" t="b">
+        <v>0</v>
+      </c>
+      <c r="E35" s="35" t="b">
+        <v>1</v>
+      </c>
+      <c r="F35" s="35" t="s">
+        <v>273</v>
+      </c>
+      <c r="G35" s="25"/>
+      <c r="L35" s="25"/>
       <c r="Q35" s="25"/>
       <c r="R35" s="36"/>
       <c r="S35" s="36"/>
       <c r="T35" s="36"/>
       <c r="U35" s="36"/>
     </row>
-    <row r="36" spans="1:21" s="37" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="37" t="s">
+    <row r="36" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D36" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E36" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G36" s="18"/>
+      <c r="L36" s="18"/>
+      <c r="M36" s="15"/>
+      <c r="N36" s="15"/>
+      <c r="O36" s="15"/>
+      <c r="P36" s="15"/>
+      <c r="Q36" s="25"/>
+      <c r="R36" s="36"/>
+      <c r="S36" s="36"/>
+      <c r="T36" s="36"/>
+      <c r="U36" s="36"/>
+    </row>
+    <row r="37" spans="1:21" s="37" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="37" t="s">
         <v>289</v>
       </c>
-      <c r="B36" s="37" t="s">
+      <c r="B37" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="C36" s="37" t="s">
+      <c r="C37" s="37" t="s">
         <v>290</v>
       </c>
-      <c r="D36" s="37" t="b">
-        <v>0</v>
-      </c>
-      <c r="E36" s="37" t="b">
-        <v>1</v>
-      </c>
-      <c r="F36" s="37" t="s">
-        <v>16</v>
-      </c>
-      <c r="G36" s="38"/>
-      <c r="L36" s="38"/>
-      <c r="Q36" s="38"/>
-    </row>
-    <row r="37" spans="1:21" s="1" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="A37" s="1" t="s">
+      <c r="D37" s="37" t="b">
+        <v>0</v>
+      </c>
+      <c r="E37" s="37" t="b">
+        <v>1</v>
+      </c>
+      <c r="F37" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="G37" s="38"/>
+      <c r="L37" s="38"/>
+      <c r="Q37" s="38"/>
+    </row>
+    <row r="38" spans="1:21" s="1" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A38" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D37" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E37" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G37" s="18"/>
-      <c r="L37" s="18"/>
-      <c r="M37" s="15"/>
-      <c r="N37" s="15"/>
-      <c r="O37" s="15"/>
-      <c r="P37" s="15"/>
-      <c r="Q37" s="25"/>
-      <c r="R37" s="36"/>
-      <c r="S37" s="36"/>
-      <c r="T37" s="36"/>
-      <c r="U37" s="36"/>
-    </row>
-    <row r="38" spans="1:21" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A38" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D38" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E38" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>16</v>
@@ -2882,181 +2898,189 @@
       <c r="T38" s="36"/>
       <c r="U38" s="36"/>
     </row>
-    <row r="39" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:21" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C39" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D39" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E39" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G39" s="18"/>
+      <c r="L39" s="18"/>
+      <c r="M39" s="15"/>
+      <c r="N39" s="15"/>
+      <c r="O39" s="15"/>
+      <c r="P39" s="15"/>
+      <c r="Q39" s="25"/>
+      <c r="R39" s="36"/>
+      <c r="S39" s="36"/>
+      <c r="T39" s="36"/>
+      <c r="U39" s="36"/>
+    </row>
+    <row r="40" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D39" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E39" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G39" s="18"/>
-      <c r="H39" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J39" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K39" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L39" s="18"/>
-      <c r="M39" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="N39" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="O39" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="P39" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q39" s="25"/>
-      <c r="R39" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="S39" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="T39" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="U39" s="36" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="40" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="28" t="s">
-        <v>263</v>
-      </c>
-      <c r="B40" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="C40" s="28" t="s">
-        <v>266</v>
-      </c>
-      <c r="D40" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="E40" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="G40" s="25"/>
-      <c r="H40" s="34" t="s">
-        <v>308</v>
-      </c>
-      <c r="I40" s="39" t="s">
-        <v>308</v>
-      </c>
-      <c r="J40" s="39" t="s">
-        <v>308</v>
-      </c>
-      <c r="K40" s="39" t="s">
-        <v>308</v>
-      </c>
-      <c r="L40" s="25"/>
-      <c r="M40" s="28" t="s">
-        <v>309</v>
-      </c>
-      <c r="N40" s="39" t="s">
-        <v>309</v>
-      </c>
-      <c r="O40" s="39" t="s">
-        <v>309</v>
-      </c>
-      <c r="P40" s="39" t="s">
-        <v>309</v>
+      <c r="D40" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E40" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G40" s="18"/>
+      <c r="H40" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L40" s="18"/>
+      <c r="M40" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="N40" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="O40" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="P40" s="15" t="s">
+        <v>16</v>
       </c>
       <c r="Q40" s="25"/>
       <c r="R40" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="S40" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="T40" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="U40" s="36" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="28" t="s">
+        <v>263</v>
+      </c>
+      <c r="B41" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="C41" s="28" t="s">
+        <v>266</v>
+      </c>
+      <c r="D41" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="E41" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="G41" s="25"/>
+      <c r="H41" s="34" t="s">
+        <v>308</v>
+      </c>
+      <c r="I41" s="39" t="s">
+        <v>308</v>
+      </c>
+      <c r="J41" s="39" t="s">
+        <v>308</v>
+      </c>
+      <c r="K41" s="39" t="s">
+        <v>308</v>
+      </c>
+      <c r="L41" s="25"/>
+      <c r="M41" s="28" t="s">
+        <v>309</v>
+      </c>
+      <c r="N41" s="39" t="s">
+        <v>309</v>
+      </c>
+      <c r="O41" s="39" t="s">
+        <v>309</v>
+      </c>
+      <c r="P41" s="39" t="s">
+        <v>309</v>
+      </c>
+      <c r="Q41" s="25"/>
+      <c r="R41" s="36" t="s">
         <v>310</v>
       </c>
-      <c r="S40" s="39" t="s">
+      <c r="S41" s="39" t="s">
         <v>310</v>
       </c>
-      <c r="T40" s="39" t="s">
+      <c r="T41" s="39" t="s">
         <v>310</v>
       </c>
-      <c r="U40" s="39" t="s">
+      <c r="U41" s="39" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="41" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="1" t="s">
+    <row r="42" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B42" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C42" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="D41" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E41" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G41" s="18"/>
-      <c r="L41" s="18"/>
-      <c r="M41" s="15"/>
-      <c r="N41" s="15"/>
-      <c r="O41" s="15"/>
-      <c r="P41" s="15"/>
-      <c r="Q41" s="25"/>
-      <c r="R41" s="36"/>
-      <c r="S41" s="36"/>
-      <c r="T41" s="36"/>
-      <c r="U41" s="36"/>
-    </row>
-    <row r="42" spans="1:21" s="5" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A42" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D42" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E42" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="F42" s="5" t="s">
+      <c r="D42" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E42" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F42" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G42" s="18"/>
       <c r="L42" s="18"/>
+      <c r="M42" s="15"/>
+      <c r="N42" s="15"/>
+      <c r="O42" s="15"/>
+      <c r="P42" s="15"/>
       <c r="Q42" s="25"/>
-    </row>
-    <row r="43" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="R42" s="36"/>
+      <c r="S42" s="36"/>
+      <c r="T42" s="36"/>
+      <c r="U42" s="36"/>
+    </row>
+    <row r="43" spans="1:21" s="5" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A43" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>48</v>
+        <v>5</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D43" s="5" t="b">
         <v>1</v>
@@ -3065,48 +3089,54 @@
         <v>0</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>218</v>
+        <v>16</v>
       </c>
       <c r="G43" s="18"/>
       <c r="L43" s="18"/>
       <c r="Q43" s="25"/>
     </row>
-    <row r="44" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="45" t="s">
-        <v>50</v>
-      </c>
-      <c r="B44" s="45" t="s">
-        <v>5</v>
-      </c>
-      <c r="C44" s="45" t="s">
-        <v>51</v>
-      </c>
-      <c r="D44" s="45" t="b">
-        <v>0</v>
-      </c>
-      <c r="E44" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>16</v>
+    <row r="44" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A44" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D44" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E44" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>218</v>
       </c>
       <c r="G44" s="18"/>
       <c r="L44" s="18"/>
-      <c r="M44" s="15"/>
-      <c r="N44" s="15"/>
-      <c r="O44" s="15"/>
-      <c r="P44" s="15"/>
       <c r="Q44" s="25"/>
-      <c r="R44" s="36"/>
-      <c r="S44" s="36"/>
-      <c r="T44" s="36"/>
-      <c r="U44" s="36"/>
     </row>
     <row r="45" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="45"/>
-      <c r="B45" s="45"/>
-      <c r="C45" s="45"/>
-      <c r="D45" s="45"/>
+      <c r="A45" s="46" t="s">
+        <v>50</v>
+      </c>
+      <c r="B45" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="C45" s="46" t="s">
+        <v>51</v>
+      </c>
+      <c r="D45" s="46" t="b">
+        <v>0</v>
+      </c>
+      <c r="E45" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="G45" s="18"/>
       <c r="L45" s="18"/>
       <c r="M45" s="15"/>
@@ -3119,22 +3149,11 @@
       <c r="T45" s="36"/>
       <c r="U45" s="36"/>
     </row>
-    <row r="46" spans="1:21" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A46" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D46" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E46" s="1" t="b">
-        <v>0</v>
-      </c>
+    <row r="46" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A46" s="46"/>
+      <c r="B46" s="46"/>
+      <c r="C46" s="46"/>
+      <c r="D46" s="46"/>
       <c r="G46" s="18"/>
       <c r="L46" s="18"/>
       <c r="M46" s="15"/>
@@ -3147,21 +3166,21 @@
       <c r="T46" s="36"/>
       <c r="U46" s="36"/>
     </row>
-    <row r="47" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:21" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A47" s="1" t="s">
-        <v>52</v>
+        <v>176</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>5</v>
+        <v>177</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>53</v>
+        <v>178</v>
       </c>
       <c r="D47" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E47" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G47" s="18"/>
       <c r="L47" s="18"/>
@@ -3175,15 +3194,15 @@
       <c r="T47" s="36"/>
       <c r="U47" s="36"/>
     </row>
-    <row r="48" spans="1:21" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A48" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>55</v>
+        <v>5</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D48" s="1" t="b">
         <v>0</v>
@@ -3191,106 +3210,111 @@
       <c r="E48" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F48" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="G48" s="19"/>
-      <c r="L48" s="19"/>
+      <c r="G48" s="18"/>
+      <c r="L48" s="18"/>
       <c r="M48" s="15"/>
       <c r="N48" s="15"/>
       <c r="O48" s="15"/>
       <c r="P48" s="15"/>
-      <c r="Q48" s="19"/>
+      <c r="Q48" s="25"/>
       <c r="R48" s="36"/>
       <c r="S48" s="36"/>
       <c r="T48" s="36"/>
       <c r="U48" s="36"/>
     </row>
-    <row r="49" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:21" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A49" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D49" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E49" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="G49" s="19"/>
+      <c r="L49" s="19"/>
+      <c r="M49" s="15"/>
+      <c r="N49" s="15"/>
+      <c r="O49" s="15"/>
+      <c r="P49" s="15"/>
+      <c r="Q49" s="19"/>
+      <c r="R49" s="36"/>
+      <c r="S49" s="36"/>
+      <c r="T49" s="36"/>
+      <c r="U49" s="36"/>
+    </row>
+    <row r="50" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A50" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="B49" s="6"/>
-      <c r="C49" s="6"/>
-      <c r="D49" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E49" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G49" s="19"/>
-      <c r="H49" s="39" t="s">
+      <c r="B50" s="6"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E50" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G50" s="19"/>
+      <c r="H50" s="39" t="s">
         <v>308</v>
       </c>
-      <c r="I49" s="39" t="s">
+      <c r="I50" s="39" t="s">
         <v>308</v>
       </c>
-      <c r="J49" s="39" t="s">
+      <c r="J50" s="39" t="s">
         <v>308</v>
       </c>
-      <c r="K49" s="39" t="s">
+      <c r="K50" s="39" t="s">
         <v>308</v>
       </c>
-      <c r="L49" s="25"/>
-      <c r="M49" s="39" t="s">
+      <c r="L50" s="25"/>
+      <c r="M50" s="39" t="s">
         <v>309</v>
       </c>
-      <c r="N49" s="39" t="s">
+      <c r="N50" s="39" t="s">
         <v>309</v>
       </c>
-      <c r="O49" s="39" t="s">
+      <c r="O50" s="39" t="s">
         <v>309</v>
       </c>
-      <c r="P49" s="39" t="s">
+      <c r="P50" s="39" t="s">
         <v>309</v>
       </c>
-      <c r="Q49" s="25"/>
-      <c r="R49" s="39" t="s">
+      <c r="Q50" s="25"/>
+      <c r="R50" s="39" t="s">
         <v>310</v>
       </c>
-      <c r="S49" s="39" t="s">
+      <c r="S50" s="39" t="s">
         <v>310</v>
       </c>
-      <c r="T49" s="39" t="s">
+      <c r="T50" s="39" t="s">
         <v>310</v>
       </c>
-      <c r="U49" s="39" t="s">
+      <c r="U50" s="39" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="50" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A50" s="5" t="s">
+    <row r="51" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A51" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="B50" s="5" t="s">
+      <c r="B51" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C50" s="5" t="s">
+      <c r="C51" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="D50" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="E50" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="F50" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G50" s="18"/>
-      <c r="L50" s="18"/>
-      <c r="Q50" s="25"/>
-    </row>
-    <row r="51" spans="1:21" s="5" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A51" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="B51" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>183</v>
-      </c>
       <c r="D51" s="5" t="b">
         <v>0</v>
       </c>
@@ -3298,52 +3322,44 @@
         <v>1</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>209</v>
+        <v>4</v>
       </c>
       <c r="G51" s="18"/>
       <c r="L51" s="18"/>
       <c r="Q51" s="25"/>
     </row>
-    <row r="52" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D52" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E52" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>16</v>
+    <row r="52" spans="1:21" s="5" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A52" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="D52" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E52" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>209</v>
       </c>
       <c r="G52" s="18"/>
       <c r="L52" s="18"/>
-      <c r="M52" s="15"/>
-      <c r="N52" s="15"/>
-      <c r="O52" s="15"/>
-      <c r="P52" s="15"/>
       <c r="Q52" s="25"/>
-      <c r="R52" s="36"/>
-      <c r="S52" s="36"/>
-      <c r="T52" s="36"/>
-      <c r="U52" s="36"/>
     </row>
     <row r="53" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A53" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D53" s="1" t="b">
         <v>0</v>
@@ -3366,350 +3382,350 @@
       <c r="T53" s="36"/>
       <c r="U53" s="36"/>
     </row>
-    <row r="54" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B54" s="5" t="s">
+    <row r="54" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A54" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B54" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C54" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D54" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="E54" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="F54" s="5" t="s">
+      <c r="C54" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D54" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E54" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F54" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G54" s="18"/>
       <c r="L54" s="18"/>
+      <c r="M54" s="15"/>
+      <c r="N54" s="15"/>
+      <c r="O54" s="15"/>
+      <c r="P54" s="15"/>
       <c r="Q54" s="25"/>
-    </row>
-    <row r="55" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A55" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="B55" s="1" t="s">
+      <c r="R54" s="36"/>
+      <c r="S54" s="36"/>
+      <c r="T54" s="36"/>
+      <c r="U54" s="36"/>
+    </row>
+    <row r="55" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A55" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B55" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C55" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="D55" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E55" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F55" s="1" t="s">
+      <c r="C55" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D55" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E55" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F55" s="5" t="s">
         <v>16</v>
       </c>
       <c r="G55" s="18"/>
       <c r="L55" s="18"/>
-      <c r="M55" s="15"/>
-      <c r="N55" s="15"/>
-      <c r="O55" s="15"/>
-      <c r="P55" s="15"/>
       <c r="Q55" s="25"/>
-      <c r="R55" s="36"/>
-      <c r="S55" s="36"/>
-      <c r="T55" s="36"/>
-      <c r="U55" s="36"/>
-    </row>
-    <row r="56" spans="1:21" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="A56" s="14" t="s">
+    </row>
+    <row r="56" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A56" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D56" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E56" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G56" s="18"/>
+      <c r="L56" s="18"/>
+      <c r="M56" s="15"/>
+      <c r="N56" s="15"/>
+      <c r="O56" s="15"/>
+      <c r="P56" s="15"/>
+      <c r="Q56" s="25"/>
+      <c r="R56" s="36"/>
+      <c r="S56" s="36"/>
+      <c r="T56" s="36"/>
+      <c r="U56" s="36"/>
+    </row>
+    <row r="57" spans="1:21" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A57" s="14" t="s">
         <v>295</v>
       </c>
-      <c r="B56" s="14" t="s">
+      <c r="B57" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C56" s="13" t="s">
+      <c r="C57" s="13" t="s">
         <v>296</v>
       </c>
-      <c r="D56" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="E56" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="F56" s="39" t="s">
+      <c r="D57" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="E57" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="F57" s="39" t="s">
         <v>305</v>
       </c>
-      <c r="G56" s="20"/>
-      <c r="H56" s="14"/>
-      <c r="I56" s="14"/>
-      <c r="J56" s="14"/>
-      <c r="K56" s="14"/>
-      <c r="L56" s="20"/>
-      <c r="M56" s="14"/>
-      <c r="N56" s="14"/>
-      <c r="O56" s="14"/>
-      <c r="P56" s="14"/>
-      <c r="Q56" s="20"/>
-      <c r="R56" s="14"/>
-    </row>
-    <row r="57" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A57" s="5" t="s">
+      <c r="G57" s="20"/>
+      <c r="H57" s="14"/>
+      <c r="I57" s="14"/>
+      <c r="J57" s="14"/>
+      <c r="K57" s="14"/>
+      <c r="L57" s="20"/>
+      <c r="M57" s="14"/>
+      <c r="N57" s="14"/>
+      <c r="O57" s="14"/>
+      <c r="P57" s="14"/>
+      <c r="Q57" s="20"/>
+      <c r="R57" s="14"/>
+    </row>
+    <row r="58" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A58" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="B57" s="5" t="s">
+      <c r="B58" s="5" t="s">
         <v>298</v>
       </c>
-      <c r="C57" s="5" t="s">
+      <c r="C58" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="D57" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="E57" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="F57" s="5" t="s">
+      <c r="D58" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E58" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F58" s="5" t="s">
         <v>300</v>
       </c>
-      <c r="G57" s="25"/>
-      <c r="L57" s="25"/>
-      <c r="Q57" s="25"/>
-    </row>
-    <row r="58" spans="1:21" s="5" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A58" s="5" t="s">
-        <v>301</v>
-      </c>
-      <c r="B58" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="C58" s="5" t="s">
-        <v>302</v>
-      </c>
-      <c r="D58" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="E58" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="F58" s="32" t="s">
-        <v>307</v>
-      </c>
       <c r="G58" s="25"/>
-      <c r="H58" s="32"/>
-      <c r="I58" s="32"/>
-      <c r="J58" s="32"/>
-      <c r="K58" s="32"/>
       <c r="L58" s="25"/>
-      <c r="M58" s="32"/>
-      <c r="N58" s="32"/>
-      <c r="O58" s="32"/>
-      <c r="P58" s="32"/>
       <c r="Q58" s="25"/>
     </row>
     <row r="59" spans="1:21" s="5" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A59" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="D59" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E59" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F59" s="32" t="s">
+        <v>307</v>
+      </c>
+      <c r="G59" s="25"/>
+      <c r="H59" s="32"/>
+      <c r="I59" s="32"/>
+      <c r="J59" s="32"/>
+      <c r="K59" s="32"/>
+      <c r="L59" s="25"/>
+      <c r="M59" s="32"/>
+      <c r="N59" s="32"/>
+      <c r="O59" s="32"/>
+      <c r="P59" s="32"/>
+      <c r="Q59" s="25"/>
+    </row>
+    <row r="60" spans="1:21" s="5" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A60" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="B59" s="5" t="s">
+      <c r="B60" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="C59" s="5" t="s">
+      <c r="C60" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="D59" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="E59" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="G59" s="18"/>
-      <c r="L59" s="18"/>
-      <c r="Q59" s="25"/>
-    </row>
-    <row r="60" spans="1:21" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A60" s="14" t="s">
+      <c r="D60" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E60" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G60" s="18"/>
+      <c r="L60" s="18"/>
+      <c r="Q60" s="25"/>
+    </row>
+    <row r="61" spans="1:21" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A61" s="14" t="s">
         <v>239</v>
       </c>
-      <c r="B60" s="14" t="s">
+      <c r="B61" s="14" t="s">
         <v>240</v>
       </c>
-      <c r="C60" s="13" t="s">
+      <c r="C61" s="13" t="s">
         <v>241</v>
       </c>
-      <c r="D60" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="E60" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="F60" s="14" t="s">
+      <c r="D61" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="E61" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="F61" s="14" t="s">
         <v>242</v>
       </c>
-      <c r="G60" s="20"/>
-      <c r="H60" s="14"/>
-      <c r="I60" s="14"/>
-      <c r="J60" s="14"/>
-      <c r="K60" s="14"/>
-      <c r="L60" s="20"/>
-      <c r="M60" s="14"/>
-      <c r="N60" s="14"/>
-      <c r="O60" s="14"/>
-      <c r="P60" s="14"/>
-      <c r="Q60" s="20"/>
-      <c r="R60" s="14"/>
-      <c r="S60" s="14"/>
-      <c r="T60" s="14"/>
-      <c r="U60" s="14"/>
-    </row>
-    <row r="61" spans="1:21" s="5" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A61" s="5" t="s">
+      <c r="G61" s="20"/>
+      <c r="H61" s="14"/>
+      <c r="I61" s="14"/>
+      <c r="J61" s="14"/>
+      <c r="K61" s="14"/>
+      <c r="L61" s="20"/>
+      <c r="M61" s="14"/>
+      <c r="N61" s="14"/>
+      <c r="O61" s="14"/>
+      <c r="P61" s="14"/>
+      <c r="Q61" s="20"/>
+      <c r="R61" s="14"/>
+      <c r="S61" s="14"/>
+      <c r="T61" s="14"/>
+      <c r="U61" s="14"/>
+    </row>
+    <row r="62" spans="1:21" s="5" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A62" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="B61" s="5" t="s">
+      <c r="B62" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="C61" s="5" t="s">
+      <c r="C62" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="D61" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="E61" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="F61" s="5" t="s">
+      <c r="D62" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E62" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F62" s="5" t="s">
         <v>19</v>
-      </c>
-      <c r="G61" s="18"/>
-      <c r="L61" s="18"/>
-      <c r="Q61" s="25"/>
-    </row>
-    <row r="62" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A62" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D62" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E62" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>207</v>
       </c>
       <c r="G62" s="18"/>
       <c r="L62" s="18"/>
-      <c r="M62" s="15"/>
-      <c r="N62" s="15"/>
-      <c r="O62" s="15"/>
-      <c r="P62" s="15"/>
       <c r="Q62" s="25"/>
-      <c r="R62" s="36"/>
-      <c r="S62" s="36"/>
-      <c r="T62" s="36"/>
-      <c r="U62" s="36"/>
-    </row>
-    <row r="63" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A63" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B63" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C63" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="D63" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E63" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="F63" s="5" t="s">
-        <v>218</v>
+    </row>
+    <row r="63" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A63" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D63" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E63" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>207</v>
       </c>
       <c r="G63" s="18"/>
       <c r="L63" s="18"/>
+      <c r="M63" s="15"/>
+      <c r="N63" s="15"/>
+      <c r="O63" s="15"/>
+      <c r="P63" s="15"/>
       <c r="Q63" s="25"/>
+      <c r="R63" s="36"/>
+      <c r="S63" s="36"/>
+      <c r="T63" s="36"/>
+      <c r="U63" s="36"/>
     </row>
     <row r="64" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A64" t="s">
+      <c r="A64" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D64" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E64" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="G64" s="18"/>
+      <c r="L64" s="18"/>
+      <c r="Q64" s="25"/>
+    </row>
+    <row r="65" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A65" t="s">
         <v>261</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B65" t="s">
         <v>81</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C65" t="s">
         <v>262</v>
       </c>
-      <c r="D64" t="b">
-        <v>0</v>
-      </c>
-      <c r="E64" t="b">
-        <v>1</v>
-      </c>
-      <c r="F64" t="s">
+      <c r="D65" t="b">
+        <v>0</v>
+      </c>
+      <c r="E65" t="b">
+        <v>1</v>
+      </c>
+      <c r="F65" t="s">
         <v>226</v>
       </c>
-      <c r="G64" s="25"/>
-      <c r="L64" s="25"/>
-      <c r="Q64" s="25"/>
-    </row>
-    <row r="65" spans="1:21" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A65" s="1" t="s">
+      <c r="G65" s="25"/>
+      <c r="L65" s="25"/>
+      <c r="Q65" s="25"/>
+    </row>
+    <row r="66" spans="1:21" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A66" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="B66" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="C66" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="D65" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E65" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F65" s="1" t="s">
+      <c r="D66" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E66" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F66" s="1" t="s">
         <v>210</v>
-      </c>
-      <c r="G65" s="18"/>
-      <c r="L65" s="18"/>
-      <c r="M65" s="15"/>
-      <c r="N65" s="15"/>
-      <c r="O65" s="15"/>
-      <c r="P65" s="15"/>
-      <c r="Q65" s="25"/>
-      <c r="R65" s="36"/>
-      <c r="S65" s="36"/>
-      <c r="T65" s="36"/>
-      <c r="U65" s="36"/>
-    </row>
-    <row r="66" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A66" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D66" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E66" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>306</v>
       </c>
       <c r="G66" s="18"/>
       <c r="L66" s="18"/>
@@ -3723,24 +3739,24 @@
       <c r="T66" s="36"/>
       <c r="U66" s="36"/>
     </row>
-    <row r="67" spans="1:21" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A67" s="1" t="s">
-        <v>191</v>
+        <v>70</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>192</v>
+        <v>10</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>193</v>
+        <v>71</v>
       </c>
       <c r="D67" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E67" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>208</v>
+        <v>306</v>
       </c>
       <c r="G67" s="18"/>
       <c r="L67" s="18"/>
@@ -3754,235 +3770,227 @@
       <c r="T67" s="36"/>
       <c r="U67" s="36"/>
     </row>
-    <row r="68" spans="1:21" s="22" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A68" s="22" t="s">
-        <v>253</v>
-      </c>
-      <c r="B68" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C68" s="22" t="s">
-        <v>255</v>
-      </c>
-      <c r="D68" s="22" t="b">
-        <v>0</v>
-      </c>
-      <c r="E68" s="22" t="b">
-        <v>1</v>
-      </c>
-      <c r="F68" s="22" t="s">
-        <v>254</v>
+    <row r="68" spans="1:21" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A68" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D68" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E68" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>208</v>
       </c>
       <c r="G68" s="18"/>
       <c r="L68" s="18"/>
+      <c r="M68" s="15"/>
+      <c r="N68" s="15"/>
+      <c r="O68" s="15"/>
+      <c r="P68" s="15"/>
       <c r="Q68" s="25"/>
       <c r="R68" s="36"/>
       <c r="S68" s="36"/>
       <c r="T68" s="36"/>
       <c r="U68" s="36"/>
     </row>
-    <row r="69" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A69" s="1" t="s">
+    <row r="69" spans="1:21" s="22" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A69" s="22" t="s">
+        <v>253</v>
+      </c>
+      <c r="B69" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C69" s="22" t="s">
+        <v>255</v>
+      </c>
+      <c r="D69" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="E69" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="F69" s="22" t="s">
+        <v>254</v>
+      </c>
+      <c r="G69" s="18"/>
+      <c r="L69" s="18"/>
+      <c r="Q69" s="25"/>
+      <c r="R69" s="36"/>
+      <c r="S69" s="36"/>
+      <c r="T69" s="36"/>
+      <c r="U69" s="36"/>
+    </row>
+    <row r="70" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A70" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="B70" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="C70" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D69" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E69" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G69" s="18"/>
-      <c r="H69" s="39" t="s">
+      <c r="D70" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E70" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G70" s="18"/>
+      <c r="H70" s="39" t="s">
         <v>308</v>
       </c>
-      <c r="I69" s="39" t="s">
+      <c r="I70" s="39" t="s">
         <v>308</v>
       </c>
-      <c r="J69" s="39" t="s">
+      <c r="J70" s="39" t="s">
         <v>308</v>
       </c>
-      <c r="K69" s="39" t="s">
+      <c r="K70" s="39" t="s">
         <v>308</v>
       </c>
-      <c r="L69" s="25"/>
-      <c r="M69" s="39" t="s">
+      <c r="L70" s="25"/>
+      <c r="M70" s="39" t="s">
         <v>309</v>
       </c>
-      <c r="N69" s="39" t="s">
+      <c r="N70" s="39" t="s">
         <v>309</v>
       </c>
-      <c r="O69" s="39" t="s">
+      <c r="O70" s="39" t="s">
         <v>309</v>
       </c>
-      <c r="P69" s="39" t="s">
+      <c r="P70" s="39" t="s">
         <v>309</v>
       </c>
-      <c r="Q69" s="25"/>
-      <c r="R69" s="39" t="s">
+      <c r="Q70" s="25"/>
+      <c r="R70" s="39" t="s">
         <v>310</v>
       </c>
-      <c r="S69" s="39" t="s">
+      <c r="S70" s="39" t="s">
         <v>310</v>
       </c>
-      <c r="T69" s="39" t="s">
+      <c r="T70" s="39" t="s">
         <v>310</v>
       </c>
-      <c r="U69" s="39" t="s">
+      <c r="U70" s="39" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="70" spans="1:21" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A70" s="40" t="s">
+    <row r="71" spans="1:21" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A71" s="40" t="s">
         <v>194</v>
       </c>
-      <c r="B70" s="40" t="s">
+      <c r="B71" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="C70" s="40" t="s">
+      <c r="C71" s="40" t="s">
         <v>312</v>
       </c>
-      <c r="D70" s="40" t="b">
-        <v>0</v>
-      </c>
-      <c r="E70" s="40" t="b">
-        <v>1</v>
-      </c>
-      <c r="F70" s="40"/>
-      <c r="G70" s="18"/>
-      <c r="L70" s="18"/>
-      <c r="M70" s="15"/>
-      <c r="N70" s="15"/>
-      <c r="O70" s="15"/>
-      <c r="P70" s="15"/>
-      <c r="Q70" s="25"/>
-      <c r="R70" s="36"/>
-      <c r="S70" s="36"/>
-      <c r="T70" s="36"/>
-      <c r="U70" s="36"/>
-    </row>
-    <row r="71" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A71" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B71" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C71" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D71" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E71" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="F71" s="5" t="s">
-        <v>4</v>
-      </c>
+      <c r="D71" s="40" t="b">
+        <v>0</v>
+      </c>
+      <c r="E71" s="40" t="b">
+        <v>1</v>
+      </c>
+      <c r="F71" s="40"/>
       <c r="G71" s="18"/>
       <c r="L71" s="18"/>
+      <c r="M71" s="15"/>
+      <c r="N71" s="15"/>
+      <c r="O71" s="15"/>
+      <c r="P71" s="15"/>
       <c r="Q71" s="25"/>
-    </row>
-    <row r="72" spans="1:21" s="5" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A72" s="37" t="s">
-        <v>315</v>
-      </c>
-      <c r="B72" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="C72" s="37" t="s">
-        <v>316</v>
-      </c>
-      <c r="D72" s="44" t="b">
-        <v>0</v>
-      </c>
-      <c r="E72" s="44" t="b">
-        <v>1</v>
-      </c>
-      <c r="F72" s="44" t="s">
-        <v>4</v>
+      <c r="R71" s="36"/>
+      <c r="S71" s="36"/>
+      <c r="T71" s="36"/>
+      <c r="U71" s="36"/>
+    </row>
+    <row r="72" spans="1:21" s="45" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A72" s="45" t="s">
+        <v>317</v>
+      </c>
+      <c r="B72" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="C72" s="45" t="s">
+        <v>318</v>
+      </c>
+      <c r="D72" s="45" t="b">
+        <v>0</v>
+      </c>
+      <c r="E72" s="45" t="b">
+        <v>1</v>
+      </c>
+      <c r="F72" s="45" t="s">
+        <v>226</v>
       </c>
       <c r="G72" s="25"/>
       <c r="L72" s="25"/>
       <c r="Q72" s="25"/>
     </row>
-    <row r="73" spans="1:21" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A73" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="B73" s="1" t="s">
+    <row r="73" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A73" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B73" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C73" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="D73" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E73" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>16</v>
+      <c r="C73" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D73" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E73" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F73" s="5" t="s">
+        <v>4</v>
       </c>
       <c r="G73" s="18"/>
       <c r="L73" s="18"/>
-      <c r="M73" s="15"/>
-      <c r="N73" s="15"/>
-      <c r="O73" s="15"/>
-      <c r="P73" s="15"/>
       <c r="Q73" s="25"/>
-      <c r="R73" s="36"/>
-      <c r="S73" s="36"/>
-      <c r="T73" s="36"/>
-      <c r="U73" s="36"/>
-    </row>
-    <row r="74" spans="1:21" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A74" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B74" s="1" t="s">
+    </row>
+    <row r="74" spans="1:21" s="5" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A74" s="37" t="s">
+        <v>315</v>
+      </c>
+      <c r="B74" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="C74" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D74" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E74" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F74" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G74" s="18"/>
-      <c r="L74" s="18"/>
-      <c r="M74" s="15"/>
-      <c r="N74" s="15"/>
-      <c r="O74" s="15"/>
-      <c r="P74" s="15"/>
+      <c r="C74" s="37" t="s">
+        <v>316</v>
+      </c>
+      <c r="D74" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="E74" s="44" t="b">
+        <v>1</v>
+      </c>
+      <c r="F74" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="G74" s="25"/>
+      <c r="L74" s="25"/>
       <c r="Q74" s="25"/>
-      <c r="R74" s="36"/>
-      <c r="S74" s="36"/>
-      <c r="T74" s="36"/>
-      <c r="U74" s="36"/>
-    </row>
-    <row r="75" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="75" spans="1:21" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>217</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>79</v>
+        <v>229</v>
       </c>
       <c r="D75" s="1" t="b">
         <v>1</v>
@@ -3990,56 +3998,30 @@
       <c r="E75" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F75" s="31"/>
+      <c r="F75" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="G75" s="18"/>
-      <c r="H75" s="39" t="s">
-        <v>308</v>
-      </c>
-      <c r="I75" s="39" t="s">
-        <v>308</v>
-      </c>
-      <c r="J75" s="39" t="s">
-        <v>308</v>
-      </c>
-      <c r="K75" s="39" t="s">
-        <v>308</v>
-      </c>
-      <c r="L75" s="25"/>
-      <c r="M75" s="39" t="s">
-        <v>309</v>
-      </c>
-      <c r="N75" s="39" t="s">
-        <v>309</v>
-      </c>
-      <c r="O75" s="39" t="s">
-        <v>309</v>
-      </c>
-      <c r="P75" s="39" t="s">
-        <v>309</v>
-      </c>
+      <c r="L75" s="18"/>
+      <c r="M75" s="15"/>
+      <c r="N75" s="15"/>
+      <c r="O75" s="15"/>
+      <c r="P75" s="15"/>
       <c r="Q75" s="25"/>
-      <c r="R75" s="39" t="s">
-        <v>310</v>
-      </c>
-      <c r="S75" s="39" t="s">
-        <v>310</v>
-      </c>
-      <c r="T75" s="39" t="s">
-        <v>310</v>
-      </c>
-      <c r="U75" s="39" t="s">
-        <v>310</v>
-      </c>
+      <c r="R75" s="36"/>
+      <c r="S75" s="36"/>
+      <c r="T75" s="36"/>
+      <c r="U75" s="36"/>
     </row>
     <row r="76" spans="1:21" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>81</v>
+        <v>5</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D76" s="1" t="b">
         <v>0</v>
@@ -4048,7 +4030,7 @@
         <v>0</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>269</v>
+        <v>4</v>
       </c>
       <c r="G76" s="18"/>
       <c r="L76" s="18"/>
@@ -4062,38 +4044,72 @@
       <c r="T76" s="36"/>
       <c r="U76" s="36"/>
     </row>
-    <row r="77" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A77" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="B77" s="5" t="s">
+    <row r="77" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A77" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B77" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C77" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D77" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E77" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="F77" s="5" t="s">
-        <v>305</v>
-      </c>
+      <c r="C77" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D77" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E77" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F77" s="31"/>
       <c r="G77" s="18"/>
-      <c r="L77" s="18"/>
+      <c r="H77" s="39" t="s">
+        <v>308</v>
+      </c>
+      <c r="I77" s="39" t="s">
+        <v>308</v>
+      </c>
+      <c r="J77" s="39" t="s">
+        <v>308</v>
+      </c>
+      <c r="K77" s="39" t="s">
+        <v>308</v>
+      </c>
+      <c r="L77" s="25"/>
+      <c r="M77" s="39" t="s">
+        <v>309</v>
+      </c>
+      <c r="N77" s="39" t="s">
+        <v>309</v>
+      </c>
+      <c r="O77" s="39" t="s">
+        <v>309</v>
+      </c>
+      <c r="P77" s="39" t="s">
+        <v>309</v>
+      </c>
       <c r="Q77" s="25"/>
+      <c r="R77" s="39" t="s">
+        <v>310</v>
+      </c>
+      <c r="S77" s="39" t="s">
+        <v>310</v>
+      </c>
+      <c r="T77" s="39" t="s">
+        <v>310</v>
+      </c>
+      <c r="U77" s="39" t="s">
+        <v>310</v>
+      </c>
     </row>
     <row r="78" spans="1:21" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A78" s="1" t="s">
-        <v>195</v>
+        <v>80</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>196</v>
+        <v>81</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>197</v>
+        <v>82</v>
       </c>
       <c r="D78" s="1" t="b">
         <v>0</v>
@@ -4102,7 +4118,7 @@
         <v>0</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>19</v>
+        <v>269</v>
       </c>
       <c r="G78" s="18"/>
       <c r="L78" s="18"/>
@@ -4116,263 +4132,234 @@
       <c r="T78" s="36"/>
       <c r="U78" s="36"/>
     </row>
-    <row r="79" spans="1:21" s="5" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A79" s="5" t="s">
-        <v>198</v>
+        <v>83</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>177</v>
+        <v>10</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>199</v>
+        <v>84</v>
       </c>
       <c r="D79" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E79" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>211</v>
+        <v>305</v>
       </c>
       <c r="G79" s="18"/>
       <c r="L79" s="18"/>
       <c r="Q79" s="25"/>
     </row>
-    <row r="80" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:21" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A80" s="1" t="s">
-        <v>85</v>
+        <v>195</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>10</v>
+        <v>196</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>86</v>
+        <v>197</v>
       </c>
       <c r="D80" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E80" s="1" t="b">
         <v>0</v>
       </c>
+      <c r="F80" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="G80" s="18"/>
-      <c r="H80" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="I80" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="J80" s="15" t="s">
-        <v>284</v>
-      </c>
-      <c r="K80" s="15" t="s">
-        <v>284</v>
-      </c>
       <c r="L80" s="18"/>
-      <c r="M80" s="15" t="s">
-        <v>285</v>
-      </c>
-      <c r="N80" s="15" t="s">
-        <v>285</v>
-      </c>
-      <c r="O80" s="15" t="s">
-        <v>285</v>
-      </c>
-      <c r="P80" s="15" t="s">
-        <v>285</v>
-      </c>
+      <c r="M80" s="15"/>
+      <c r="N80" s="15"/>
+      <c r="O80" s="15"/>
+      <c r="P80" s="15"/>
       <c r="Q80" s="25"/>
-      <c r="R80" s="36" t="s">
-        <v>286</v>
-      </c>
-      <c r="S80" s="36" t="s">
-        <v>286</v>
-      </c>
-      <c r="T80" s="36" t="s">
-        <v>286</v>
-      </c>
-      <c r="U80" s="36" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="81" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A81" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D81" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E81" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F81" s="1" t="s">
-        <v>88</v>
+      <c r="R80" s="36"/>
+      <c r="S80" s="36"/>
+      <c r="T80" s="36"/>
+      <c r="U80" s="36"/>
+    </row>
+    <row r="81" spans="1:21" s="5" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A81" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="D81" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E81" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F81" s="5" t="s">
+        <v>211</v>
       </c>
       <c r="G81" s="18"/>
       <c r="L81" s="18"/>
-      <c r="M81" s="15"/>
-      <c r="N81" s="15"/>
-      <c r="O81" s="15"/>
-      <c r="P81" s="15"/>
       <c r="Q81" s="25"/>
-      <c r="R81" s="36"/>
-      <c r="S81" s="36"/>
-      <c r="T81" s="36"/>
-      <c r="U81" s="36"/>
-    </row>
-    <row r="82" spans="1:21" s="5" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A82" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="B82" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="C82" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="D82" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="E82" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="F82" s="5" t="s">
-        <v>92</v>
+    </row>
+    <row r="82" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A82" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D82" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E82" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="G82" s="18"/>
+      <c r="H82" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="I82" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="J82" s="15" t="s">
+        <v>284</v>
+      </c>
+      <c r="K82" s="15" t="s">
+        <v>284</v>
+      </c>
       <c r="L82" s="18"/>
+      <c r="M82" s="15" t="s">
+        <v>285</v>
+      </c>
+      <c r="N82" s="15" t="s">
+        <v>285</v>
+      </c>
+      <c r="O82" s="15" t="s">
+        <v>285</v>
+      </c>
+      <c r="P82" s="15" t="s">
+        <v>285</v>
+      </c>
       <c r="Q82" s="25"/>
-    </row>
-    <row r="83" spans="1:21" s="5" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A83" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="B83" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C83" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="D83" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="E83" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="F83" s="5" t="s">
-        <v>16</v>
+      <c r="R82" s="36" t="s">
+        <v>286</v>
+      </c>
+      <c r="S82" s="36" t="s">
+        <v>286</v>
+      </c>
+      <c r="T82" s="36" t="s">
+        <v>286</v>
+      </c>
+      <c r="U82" s="36" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="83" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A83" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D83" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E83" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="G83" s="18"/>
       <c r="L83" s="18"/>
+      <c r="M83" s="15"/>
+      <c r="N83" s="15"/>
+      <c r="O83" s="15"/>
+      <c r="P83" s="15"/>
       <c r="Q83" s="25"/>
-    </row>
-    <row r="84" spans="1:21" s="1" customFormat="1" ht="58.3" x14ac:dyDescent="0.4">
-      <c r="A84" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D84" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E84" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F84" s="1" t="s">
-        <v>96</v>
+      <c r="R83" s="36"/>
+      <c r="S83" s="36"/>
+      <c r="T83" s="36"/>
+      <c r="U83" s="36"/>
+    </row>
+    <row r="84" spans="1:21" s="5" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A84" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D84" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E84" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F84" s="5" t="s">
+        <v>92</v>
       </c>
       <c r="G84" s="18"/>
       <c r="L84" s="18"/>
-      <c r="M84" s="15"/>
-      <c r="N84" s="15"/>
-      <c r="O84" s="15"/>
-      <c r="P84" s="15"/>
       <c r="Q84" s="25"/>
-      <c r="R84" s="36"/>
-      <c r="S84" s="36"/>
-      <c r="T84" s="36"/>
-      <c r="U84" s="36"/>
-    </row>
-    <row r="85" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A85" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="B85" s="6"/>
-      <c r="C85" s="6"/>
-      <c r="D85" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E85" s="1" t="b">
-        <v>1</v>
+    </row>
+    <row r="85" spans="1:21" s="5" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A85" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="D85" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E85" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F85" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="G85" s="18"/>
-      <c r="H85" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I85" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J85" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K85" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="L85" s="18"/>
-      <c r="M85" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="N85" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="O85" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="P85" s="15" t="s">
-        <v>4</v>
-      </c>
       <c r="Q85" s="25"/>
-      <c r="R85" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="S85" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="T85" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="U85" s="36" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="86" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="86" spans="1:21" s="1" customFormat="1" ht="58.3" x14ac:dyDescent="0.4">
       <c r="A86" s="1" t="s">
-        <v>150</v>
+        <v>95</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>5</v>
+        <v>81</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>151</v>
+        <v>97</v>
       </c>
       <c r="D86" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E86" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>4</v>
+        <v>96</v>
       </c>
       <c r="G86" s="18"/>
       <c r="L86" s="18"/>
@@ -4386,42 +4373,67 @@
       <c r="T86" s="36"/>
       <c r="U86" s="36"/>
     </row>
-    <row r="87" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A87" s="29" t="s">
-        <v>98</v>
-      </c>
-      <c r="B87" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="C87" s="29" t="s">
-        <v>99</v>
-      </c>
-      <c r="D87" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="E87" s="29" t="b">
-        <v>0</v>
-      </c>
-      <c r="F87" s="29" t="s">
-        <v>267</v>
-      </c>
-      <c r="G87" s="25"/>
-      <c r="L87" s="25"/>
+    <row r="87" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A87" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B87" s="6"/>
+      <c r="C87" s="6"/>
+      <c r="D87" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E87" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G87" s="18"/>
+      <c r="H87" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I87" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J87" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K87" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L87" s="18"/>
+      <c r="M87" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="N87" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="O87" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="P87" s="15" t="s">
+        <v>4</v>
+      </c>
       <c r="Q87" s="25"/>
-      <c r="R87" s="36"/>
-      <c r="S87" s="36"/>
-      <c r="T87" s="36"/>
-      <c r="U87" s="36"/>
-    </row>
-    <row r="88" spans="1:21" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="R87" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="S87" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="T87" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="U87" s="36" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A88" s="1" t="s">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>201</v>
+        <v>5</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>202</v>
+        <v>151</v>
       </c>
       <c r="D88" s="1" t="b">
         <v>0</v>
@@ -4429,8 +4441,8 @@
       <c r="E88" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F88" s="10" t="s">
-        <v>251</v>
+      <c r="F88" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="G88" s="18"/>
       <c r="L88" s="18"/>
@@ -4444,85 +4456,82 @@
       <c r="T88" s="36"/>
       <c r="U88" s="36"/>
     </row>
-    <row r="89" spans="1:21" s="12" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A89" s="12" t="s">
-        <v>247</v>
-      </c>
-      <c r="B89" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="C89" s="12" t="s">
-        <v>249</v>
-      </c>
-      <c r="D89" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="E89" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="F89" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="G89" s="18"/>
-      <c r="L89" s="18"/>
-      <c r="M89" s="15"/>
-      <c r="N89" s="15"/>
-      <c r="O89" s="15"/>
-      <c r="P89" s="15"/>
+    <row r="89" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A89" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="B89" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="C89" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="D89" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="E89" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="F89" s="29" t="s">
+        <v>267</v>
+      </c>
+      <c r="G89" s="25"/>
+      <c r="L89" s="25"/>
       <c r="Q89" s="25"/>
       <c r="R89" s="36"/>
       <c r="S89" s="36"/>
       <c r="T89" s="36"/>
       <c r="U89" s="36"/>
     </row>
-    <row r="90" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:21" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A90" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="B90" s="6"/>
-      <c r="C90" s="6"/>
+        <v>200</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>202</v>
+      </c>
       <c r="D90" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E90" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F90" s="15" t="s">
-        <v>305</v>
+      <c r="F90" s="10" t="s">
+        <v>251</v>
       </c>
       <c r="G90" s="18"/>
-      <c r="I90" s="33"/>
-      <c r="J90" s="33"/>
-      <c r="K90" s="33"/>
       <c r="L90" s="18"/>
-      <c r="M90" s="33"/>
-      <c r="N90" s="33"/>
-      <c r="O90" s="33"/>
-      <c r="P90" s="33"/>
+      <c r="M90" s="15"/>
+      <c r="N90" s="15"/>
+      <c r="O90" s="15"/>
+      <c r="P90" s="15"/>
       <c r="Q90" s="25"/>
       <c r="R90" s="36"/>
       <c r="S90" s="36"/>
       <c r="T90" s="36"/>
       <c r="U90" s="36"/>
     </row>
-    <row r="91" spans="1:21" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A91" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D91" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E91" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F91" s="1" t="s">
-        <v>16</v>
+    <row r="91" spans="1:21" s="12" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A91" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="B91" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="C91" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="D91" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="E91" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="F91" s="4" t="s">
+        <v>250</v>
       </c>
       <c r="G91" s="18"/>
       <c r="L91" s="18"/>
@@ -4536,38 +4545,45 @@
       <c r="T91" s="36"/>
       <c r="U91" s="36"/>
     </row>
-    <row r="92" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A92" t="s">
-        <v>291</v>
-      </c>
-      <c r="B92" t="s">
-        <v>10</v>
-      </c>
-      <c r="C92" t="s">
-        <v>292</v>
-      </c>
-      <c r="D92" t="b">
-        <v>1</v>
-      </c>
-      <c r="E92" t="b">
-        <v>1</v>
-      </c>
-      <c r="F92" t="s">
+    <row r="92" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A92" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B92" s="6"/>
+      <c r="C92" s="6"/>
+      <c r="D92" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E92" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F92" s="15" t="s">
         <v>305</v>
       </c>
-      <c r="G92" s="25"/>
-      <c r="L92" s="25"/>
+      <c r="G92" s="18"/>
+      <c r="I92" s="33"/>
+      <c r="J92" s="33"/>
+      <c r="K92" s="33"/>
+      <c r="L92" s="18"/>
+      <c r="M92" s="33"/>
+      <c r="N92" s="33"/>
+      <c r="O92" s="33"/>
+      <c r="P92" s="33"/>
       <c r="Q92" s="25"/>
-    </row>
-    <row r="93" spans="1:21" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="R92" s="36"/>
+      <c r="S92" s="36"/>
+      <c r="T92" s="36"/>
+      <c r="U92" s="36"/>
+    </row>
+    <row r="93" spans="1:21" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A93" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>55</v>
+        <v>5</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D93" s="1" t="b">
         <v>0</v>
@@ -4575,8 +4591,8 @@
       <c r="E93" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F93" s="4" t="s">
-        <v>212</v>
+      <c r="F93" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="G93" s="18"/>
       <c r="L93" s="18"/>
@@ -4590,52 +4606,47 @@
       <c r="T93" s="36"/>
       <c r="U93" s="36"/>
     </row>
-    <row r="94" spans="1:21" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A94" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D94" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E94" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F94" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G94" s="18"/>
-      <c r="L94" s="18"/>
-      <c r="M94" s="15"/>
-      <c r="N94" s="15"/>
-      <c r="O94" s="15"/>
-      <c r="P94" s="15"/>
+    <row r="94" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A94" t="s">
+        <v>291</v>
+      </c>
+      <c r="B94" t="s">
+        <v>10</v>
+      </c>
+      <c r="C94" t="s">
+        <v>292</v>
+      </c>
+      <c r="D94" t="b">
+        <v>1</v>
+      </c>
+      <c r="E94" t="b">
+        <v>1</v>
+      </c>
+      <c r="F94" t="s">
+        <v>305</v>
+      </c>
+      <c r="G94" s="25"/>
+      <c r="L94" s="25"/>
       <c r="Q94" s="25"/>
-      <c r="R94" s="36"/>
-      <c r="S94" s="36"/>
-      <c r="T94" s="36"/>
-      <c r="U94" s="36"/>
-    </row>
-    <row r="95" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="95" spans="1:21" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A95" s="1" t="s">
-        <v>203</v>
+        <v>102</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>204</v>
+        <v>103</v>
       </c>
       <c r="D95" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E95" s="1" t="b">
         <v>1</v>
+      </c>
+      <c r="F95" s="4" t="s">
+        <v>212</v>
       </c>
       <c r="G95" s="18"/>
       <c r="L95" s="18"/>
@@ -4649,24 +4660,24 @@
       <c r="T95" s="36"/>
       <c r="U95" s="36"/>
     </row>
-    <row r="96" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:21" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A96" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>108</v>
+        <v>5</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D96" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E96" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>107</v>
+        <v>16</v>
       </c>
       <c r="G96" s="18"/>
       <c r="L96" s="18"/>
@@ -4680,252 +4691,199 @@
       <c r="T96" s="36"/>
       <c r="U96" s="36"/>
     </row>
-    <row r="97" spans="1:21" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A97" s="1" t="s">
-        <v>110</v>
+        <v>203</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>111</v>
+        <v>204</v>
       </c>
       <c r="D97" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E97" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G97" s="18"/>
-      <c r="H97" s="39" t="s">
-        <v>308</v>
-      </c>
-      <c r="I97" s="39" t="s">
-        <v>308</v>
-      </c>
-      <c r="J97" s="39" t="s">
-        <v>308</v>
-      </c>
-      <c r="K97" s="39" t="s">
-        <v>308</v>
-      </c>
-      <c r="L97" s="25"/>
-      <c r="M97" s="39" t="s">
-        <v>309</v>
-      </c>
-      <c r="N97" s="39" t="s">
-        <v>309</v>
-      </c>
-      <c r="O97" s="39" t="s">
-        <v>309</v>
-      </c>
-      <c r="P97" s="39" t="s">
-        <v>309</v>
-      </c>
+      <c r="L97" s="18"/>
+      <c r="M97" s="15"/>
+      <c r="N97" s="15"/>
+      <c r="O97" s="15"/>
+      <c r="P97" s="15"/>
       <c r="Q97" s="25"/>
-      <c r="R97" s="39" t="s">
-        <v>310</v>
-      </c>
-      <c r="S97" s="39" t="s">
-        <v>310</v>
-      </c>
-      <c r="T97" s="39" t="s">
-        <v>310</v>
-      </c>
-      <c r="U97" s="39" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="98" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A98" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="B98" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C98" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="D98" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E98" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="F98" s="5" t="s">
-        <v>218</v>
+      <c r="R97" s="36"/>
+      <c r="S97" s="36"/>
+      <c r="T97" s="36"/>
+      <c r="U97" s="36"/>
+    </row>
+    <row r="98" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A98" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D98" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E98" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>107</v>
       </c>
       <c r="G98" s="18"/>
       <c r="L98" s="18"/>
+      <c r="M98" s="15"/>
+      <c r="N98" s="15"/>
+      <c r="O98" s="15"/>
+      <c r="P98" s="15"/>
       <c r="Q98" s="25"/>
-    </row>
-    <row r="99" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A99" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="B99" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C99" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="D99" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E99" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="F99" s="5" t="s">
-        <v>218</v>
+      <c r="R98" s="36"/>
+      <c r="S98" s="36"/>
+      <c r="T98" s="36"/>
+      <c r="U98" s="36"/>
+    </row>
+    <row r="99" spans="1:21" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A99" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D99" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E99" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="G99" s="18"/>
-      <c r="L99" s="18"/>
+      <c r="H99" s="39" t="s">
+        <v>308</v>
+      </c>
+      <c r="I99" s="39" t="s">
+        <v>308</v>
+      </c>
+      <c r="J99" s="39" t="s">
+        <v>308</v>
+      </c>
+      <c r="K99" s="39" t="s">
+        <v>308</v>
+      </c>
+      <c r="L99" s="25"/>
+      <c r="M99" s="39" t="s">
+        <v>309</v>
+      </c>
+      <c r="N99" s="39" t="s">
+        <v>309</v>
+      </c>
+      <c r="O99" s="39" t="s">
+        <v>309</v>
+      </c>
+      <c r="P99" s="39" t="s">
+        <v>309</v>
+      </c>
       <c r="Q99" s="25"/>
+      <c r="R99" s="39" t="s">
+        <v>310</v>
+      </c>
+      <c r="S99" s="39" t="s">
+        <v>310</v>
+      </c>
+      <c r="T99" s="39" t="s">
+        <v>310</v>
+      </c>
+      <c r="U99" s="39" t="s">
+        <v>310</v>
+      </c>
     </row>
     <row r="100" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A100" s="5" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D100" s="5" t="b">
         <v>1</v>
       </c>
       <c r="E100" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F100" s="5" t="s">
-        <v>16</v>
+        <v>218</v>
       </c>
       <c r="G100" s="18"/>
       <c r="L100" s="18"/>
       <c r="Q100" s="25"/>
     </row>
-    <row r="101" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A101" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B101" s="1" t="s">
+    <row r="101" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A101" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C101" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D101" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E101" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F101" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="G101" s="18"/>
+      <c r="L101" s="18"/>
+      <c r="Q101" s="25"/>
+    </row>
+    <row r="102" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A102" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B102" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C101" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D101" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E101" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G101" s="18"/>
-      <c r="H101" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I101" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J101" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K101" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="L101" s="18"/>
-      <c r="M101" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="N101" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="O101" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="P101" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q101" s="25"/>
-      <c r="R101" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="S101" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="T101" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="U101" s="36" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="102" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A102" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D102" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E102" s="1" t="b">
-        <v>1</v>
+      <c r="C102" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D102" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E102" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F102" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="G102" s="18"/>
-      <c r="H102" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I102" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J102" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K102" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="L102" s="18"/>
-      <c r="M102" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="N102" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="O102" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="P102" s="15" t="s">
-        <v>4</v>
-      </c>
       <c r="Q102" s="25"/>
-      <c r="R102" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="S102" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="T102" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="U102" s="36" t="s">
-        <v>4</v>
-      </c>
     </row>
     <row r="103" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A103" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D103" s="1" t="b">
         <v>0</v>
@@ -4935,7 +4893,7 @@
       </c>
       <c r="G103" s="18"/>
       <c r="H103" s="1" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="I103" s="1" t="s">
         <v>4</v>
@@ -4948,7 +4906,7 @@
       </c>
       <c r="L103" s="18"/>
       <c r="M103" s="15" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="N103" s="15" t="s">
         <v>4</v>
@@ -4961,7 +4919,7 @@
       </c>
       <c r="Q103" s="25"/>
       <c r="R103" s="36" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="S103" s="36" t="s">
         <v>4</v>
@@ -4973,360 +4931,472 @@
         <v>4</v>
       </c>
     </row>
-    <row r="104" spans="1:21" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A104" s="1" t="s">
-        <v>152</v>
+        <v>120</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C104" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D104" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E104" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G104" s="18"/>
+      <c r="H104" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I104" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J104" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K104" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L104" s="18"/>
+      <c r="M104" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="N104" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="O104" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="P104" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q104" s="25"/>
+      <c r="R104" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="S104" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="T104" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="U104" s="36" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A105" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D105" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E105" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G105" s="18"/>
+      <c r="H105" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I105" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J105" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K105" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L105" s="18"/>
+      <c r="M105" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="N105" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="O105" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="P105" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q105" s="25"/>
+      <c r="R105" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="S105" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="T105" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="U105" s="36" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106" spans="1:21" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A106" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C106" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="D104" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E104" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F104" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G104" s="18"/>
-      <c r="H104"/>
-      <c r="I104"/>
-      <c r="J104"/>
-      <c r="K104"/>
-      <c r="L104" s="18"/>
-      <c r="M104" s="15"/>
-      <c r="N104" s="15"/>
-      <c r="O104" s="15"/>
-      <c r="P104" s="15"/>
-      <c r="Q104" s="25"/>
-      <c r="R104" s="36"/>
-      <c r="S104" s="36"/>
-      <c r="T104" s="36"/>
-      <c r="U104" s="36"/>
-    </row>
-    <row r="105" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A105" t="s">
+      <c r="D106" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E106" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G106" s="18"/>
+      <c r="H106"/>
+      <c r="I106"/>
+      <c r="J106"/>
+      <c r="K106"/>
+      <c r="L106" s="18"/>
+      <c r="M106" s="15"/>
+      <c r="N106" s="15"/>
+      <c r="O106" s="15"/>
+      <c r="P106" s="15"/>
+      <c r="Q106" s="25"/>
+      <c r="R106" s="36"/>
+      <c r="S106" s="36"/>
+      <c r="T106" s="36"/>
+      <c r="U106" s="36"/>
+    </row>
+    <row r="107" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A107" t="s">
         <v>293</v>
       </c>
-      <c r="B105" t="s">
+      <c r="B107" t="s">
         <v>5</v>
       </c>
-      <c r="C105" t="s">
+      <c r="C107" t="s">
         <v>294</v>
       </c>
-      <c r="D105" t="b">
-        <v>0</v>
-      </c>
-      <c r="E105" t="b">
-        <v>1</v>
-      </c>
-      <c r="F105" t="s">
-        <v>4</v>
-      </c>
-      <c r="G105" s="25"/>
-      <c r="H105"/>
-      <c r="I105"/>
-      <c r="J105"/>
-      <c r="K105"/>
-      <c r="L105" s="25"/>
-      <c r="M105"/>
-      <c r="N105"/>
-      <c r="O105"/>
-      <c r="P105"/>
-      <c r="Q105" s="25"/>
-      <c r="R105"/>
-      <c r="S105"/>
-      <c r="T105"/>
-      <c r="U105"/>
-    </row>
-    <row r="106" spans="1:21" s="5" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A106" s="5" t="s">
+      <c r="D107" t="b">
+        <v>0</v>
+      </c>
+      <c r="E107" t="b">
+        <v>1</v>
+      </c>
+      <c r="F107" t="s">
+        <v>4</v>
+      </c>
+      <c r="G107" s="25"/>
+      <c r="H107"/>
+      <c r="I107"/>
+      <c r="J107"/>
+      <c r="K107"/>
+      <c r="L107" s="25"/>
+      <c r="M107"/>
+      <c r="N107"/>
+      <c r="O107"/>
+      <c r="P107"/>
+      <c r="Q107" s="25"/>
+      <c r="R107"/>
+      <c r="S107"/>
+      <c r="T107"/>
+      <c r="U107"/>
+    </row>
+    <row r="108" spans="1:21" s="5" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A108" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="B106" s="5" t="s">
+      <c r="B108" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="C106" s="5" t="s">
+      <c r="C108" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="D106" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E106" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="F106" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G106" s="18"/>
-      <c r="L106" s="18"/>
-      <c r="Q106" s="25"/>
-    </row>
-    <row r="107" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A107" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="D107" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E107" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G107" s="18"/>
-      <c r="H107" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I107" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J107" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K107" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="L107" s="18"/>
-      <c r="M107" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="N107" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="O107" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="P107" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q107" s="25"/>
-      <c r="R107" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="S107" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="T107" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="U107" s="36" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="108" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A108" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C108" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="D108" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E108" s="1" t="b">
-        <v>1</v>
+      <c r="D108" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E108" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F108" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="G108" s="18"/>
-      <c r="H108" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I108" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J108" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K108" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="L108" s="18"/>
-      <c r="M108" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="N108" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="O108" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="P108" s="15" t="s">
-        <v>4</v>
-      </c>
       <c r="Q108" s="25"/>
-      <c r="R108" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="S108" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="T108" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="U108" s="36" t="s">
-        <v>4</v>
-      </c>
     </row>
     <row r="109" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A109" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D109" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E109" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G109" s="18"/>
+      <c r="H109" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I109" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J109" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K109" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L109" s="18"/>
+      <c r="M109" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="N109" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="O109" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="P109" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q109" s="25"/>
+      <c r="R109" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="S109" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="T109" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="U109" s="36" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="110" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A110" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D110" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E110" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G110" s="18"/>
+      <c r="H110" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I110" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J110" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K110" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L110" s="18"/>
+      <c r="M110" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="N110" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="O110" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="P110" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q110" s="25"/>
+      <c r="R110" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="S110" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="T110" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="U110" s="36" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A111" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B109" s="1" t="s">
+      <c r="B111" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C109" s="1" t="s">
+      <c r="C111" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="D109" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E109" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F109" s="1" t="s">
+      <c r="D111" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E111" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F111" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="G109" s="18"/>
-      <c r="L109" s="18"/>
-      <c r="M109" s="15"/>
-      <c r="N109" s="15"/>
-      <c r="O109" s="15"/>
-      <c r="P109" s="15"/>
-      <c r="Q109" s="25"/>
-      <c r="R109" s="36"/>
-      <c r="S109" s="36"/>
-      <c r="T109" s="36"/>
-      <c r="U109" s="36"/>
-    </row>
-    <row r="110" spans="1:21" s="43" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A110" s="43" t="s">
-        <v>313</v>
-      </c>
-      <c r="B110" s="43" t="s">
-        <v>10</v>
-      </c>
-      <c r="C110" s="43" t="s">
-        <v>314</v>
-      </c>
-      <c r="D110" s="43" t="b">
-        <v>1</v>
-      </c>
-      <c r="E110" s="43" t="b">
-        <v>1</v>
-      </c>
-      <c r="G110" s="25"/>
-      <c r="H110" s="43" t="s">
-        <v>308</v>
-      </c>
-      <c r="I110" s="43" t="s">
-        <v>308</v>
-      </c>
-      <c r="J110" s="43" t="s">
-        <v>308</v>
-      </c>
-      <c r="K110" s="43" t="s">
-        <v>308</v>
-      </c>
-      <c r="L110" s="25"/>
-      <c r="M110" s="43" t="s">
-        <v>309</v>
-      </c>
-      <c r="N110" s="43" t="s">
-        <v>309</v>
-      </c>
-      <c r="O110" s="43" t="s">
-        <v>309</v>
-      </c>
-      <c r="P110" s="43" t="s">
-        <v>309</v>
-      </c>
-      <c r="Q110" s="25"/>
-      <c r="R110" s="43" t="s">
-        <v>310</v>
-      </c>
-      <c r="S110" s="43" t="s">
-        <v>310</v>
-      </c>
-      <c r="T110" s="43" t="s">
-        <v>310</v>
-      </c>
-      <c r="U110" s="43" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="111" spans="1:21" s="23" customFormat="1" ht="58.3" x14ac:dyDescent="0.4">
-      <c r="A111" s="24" t="s">
-        <v>256</v>
-      </c>
-      <c r="B111" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="C111" s="24" t="s">
-        <v>257</v>
-      </c>
-      <c r="D111" s="24" t="b">
-        <v>1</v>
-      </c>
-      <c r="E111" s="24" t="b">
-        <v>1</v>
-      </c>
-      <c r="F111" s="24" t="s">
-        <v>258</v>
-      </c>
-      <c r="G111" s="25"/>
-      <c r="H111" s="24"/>
-      <c r="I111" s="24"/>
-      <c r="J111" s="24"/>
-      <c r="K111" s="24"/>
-      <c r="L111" s="25"/>
-      <c r="M111" s="24"/>
+      <c r="G111" s="18"/>
+      <c r="L111" s="18"/>
+      <c r="M111" s="15"/>
+      <c r="N111" s="15"/>
+      <c r="O111" s="15"/>
+      <c r="P111" s="15"/>
       <c r="Q111" s="25"/>
       <c r="R111" s="36"/>
       <c r="S111" s="36"/>
       <c r="T111" s="36"/>
       <c r="U111" s="36"/>
     </row>
-    <row r="112" spans="1:21" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A112" s="1" t="s">
+    <row r="112" spans="1:21" s="43" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A112" s="43" t="s">
+        <v>313</v>
+      </c>
+      <c r="B112" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="C112" s="43" t="s">
+        <v>314</v>
+      </c>
+      <c r="D112" s="43" t="b">
+        <v>1</v>
+      </c>
+      <c r="E112" s="43" t="b">
+        <v>1</v>
+      </c>
+      <c r="G112" s="25"/>
+      <c r="H112" s="43" t="s">
+        <v>308</v>
+      </c>
+      <c r="I112" s="43" t="s">
+        <v>308</v>
+      </c>
+      <c r="J112" s="43" t="s">
+        <v>308</v>
+      </c>
+      <c r="K112" s="43" t="s">
+        <v>308</v>
+      </c>
+      <c r="L112" s="25"/>
+      <c r="M112" s="43" t="s">
+        <v>309</v>
+      </c>
+      <c r="N112" s="43" t="s">
+        <v>309</v>
+      </c>
+      <c r="O112" s="43" t="s">
+        <v>309</v>
+      </c>
+      <c r="P112" s="43" t="s">
+        <v>309</v>
+      </c>
+      <c r="Q112" s="25"/>
+      <c r="R112" s="43" t="s">
+        <v>310</v>
+      </c>
+      <c r="S112" s="43" t="s">
+        <v>310</v>
+      </c>
+      <c r="T112" s="43" t="s">
+        <v>310</v>
+      </c>
+      <c r="U112" s="43" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="113" spans="1:21" s="23" customFormat="1" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A113" s="24" t="s">
+        <v>256</v>
+      </c>
+      <c r="B113" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="C113" s="24" t="s">
+        <v>257</v>
+      </c>
+      <c r="D113" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="E113" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="F113" s="24" t="s">
+        <v>258</v>
+      </c>
+      <c r="G113" s="25"/>
+      <c r="H113" s="24"/>
+      <c r="I113" s="24"/>
+      <c r="J113" s="24"/>
+      <c r="K113" s="24"/>
+      <c r="L113" s="25"/>
+      <c r="M113" s="24"/>
+      <c r="Q113" s="25"/>
+      <c r="R113" s="36"/>
+      <c r="S113" s="36"/>
+      <c r="T113" s="36"/>
+      <c r="U113" s="36"/>
+    </row>
+    <row r="114" spans="1:21" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A114" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B112" s="1" t="s">
+      <c r="B114" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C112" s="1" t="s">
+      <c r="C114" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D112" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E112" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F112" s="1" t="s">
+      <c r="D114" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E114" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F114" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="G112" s="18"/>
-      <c r="L112" s="18"/>
-      <c r="M112" s="15"/>
-      <c r="N112" s="15"/>
-      <c r="O112" s="15"/>
-      <c r="P112" s="15"/>
-      <c r="Q112" s="25"/>
-      <c r="R112" s="36"/>
-      <c r="S112" s="36"/>
-      <c r="T112" s="36"/>
-      <c r="U112" s="36"/>
+      <c r="G114" s="18"/>
+      <c r="L114" s="18"/>
+      <c r="M114" s="15"/>
+      <c r="N114" s="15"/>
+      <c r="O114" s="15"/>
+      <c r="P114" s="15"/>
+      <c r="Q114" s="25"/>
+      <c r="R114" s="36"/>
+      <c r="S114" s="36"/>
+      <c r="T114" s="36"/>
+      <c r="U114" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -5334,15 +5404,15 @@
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="D7:D8"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="D45:D46"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F20" r:id="rId1"/>
     <hyperlink ref="F21" r:id="rId2"/>
-    <hyperlink ref="F58" r:id="rId3"/>
+    <hyperlink ref="F59" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="37" fitToHeight="0" orientation="landscape" r:id="rId4"/>

--- a/src/main/resources/input/Kennisnet/props/Kennisnet.xlsx
+++ b/src/main/resources/input/Kennisnet/props/Kennisnet.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="778" uniqueCount="326">
   <si>
     <t>Name</t>
   </si>
@@ -988,6 +988,21 @@
   </si>
   <si>
     <t>Yes if MIM format must be generated</t>
+  </si>
+  <si>
+    <t>SIM: regtest</t>
+  </si>
+  <si>
+    <t>UGM: regtest</t>
+  </si>
+  <si>
+    <t>BSM: regtest</t>
+  </si>
+  <si>
+    <t>regression</t>
+  </si>
+  <si>
+    <t>Should a regression test be performed on the results of this run?</t>
   </si>
 </sst>
 </file>
@@ -1119,7 +1134,7 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1221,6 +1236,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1535,13 +1553,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:V114"/>
+  <dimension ref="A1:Y115"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B19" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="G75" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A31" sqref="A31"/>
+      <selection pane="bottomRight" activeCell="H86" sqref="H86:Y86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1556,20 +1574,23 @@
     <col min="8" max="9" width="14.765625" customWidth="1"/>
     <col min="10" max="10" width="14.3046875" customWidth="1"/>
     <col min="11" max="11" width="15.765625" customWidth="1"/>
-    <col min="12" max="12" width="5.4609375" style="21" customWidth="1"/>
-    <col min="13" max="13" width="16.15234375" customWidth="1"/>
-    <col min="14" max="14" width="16.07421875" customWidth="1"/>
-    <col min="15" max="15" width="15.69140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.765625" customWidth="1"/>
-    <col min="17" max="17" width="5.4609375" style="21" customWidth="1"/>
-    <col min="18" max="18" width="16.15234375" customWidth="1"/>
-    <col min="19" max="19" width="16.07421875" customWidth="1"/>
-    <col min="20" max="20" width="15.69140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.765625" customWidth="1"/>
-    <col min="22" max="22" width="63.61328125" customWidth="1"/>
+    <col min="12" max="12" width="10.765625" customWidth="1"/>
+    <col min="13" max="13" width="5.4609375" style="21" customWidth="1"/>
+    <col min="14" max="14" width="16.15234375" customWidth="1"/>
+    <col min="15" max="15" width="16.07421875" customWidth="1"/>
+    <col min="16" max="16" width="15.69140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.765625" customWidth="1"/>
+    <col min="18" max="18" width="13.69140625" customWidth="1"/>
+    <col min="19" max="19" width="5.4609375" style="21" customWidth="1"/>
+    <col min="20" max="20" width="16.15234375" customWidth="1"/>
+    <col min="21" max="21" width="16.07421875" customWidth="1"/>
+    <col min="22" max="22" width="15.69140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.765625" customWidth="1"/>
+    <col min="24" max="24" width="13.69140625" customWidth="1"/>
+    <col min="25" max="25" width="63.61328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="3" customFormat="1" ht="37.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:25" s="3" customFormat="1" ht="37.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1601,10 +1622,10 @@
       <c r="K1" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="L1" s="16"/>
-      <c r="M1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>252</v>
       </c>
+      <c r="M1" s="16"/>
       <c r="N1" s="3" t="s">
         <v>252</v>
       </c>
@@ -1614,13 +1635,13 @@
       <c r="P1" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="Q1" s="16"/>
+      <c r="Q1" s="3" t="s">
+        <v>252</v>
+      </c>
       <c r="R1" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="S1" s="3" t="s">
-        <v>252</v>
-      </c>
+      <c r="S1" s="16"/>
       <c r="T1" s="3" t="s">
         <v>252</v>
       </c>
@@ -1628,10 +1649,19 @@
         <v>252</v>
       </c>
       <c r="V1" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="Y1" s="3" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="3" customFormat="1" ht="56.15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:25" s="3" customFormat="1" ht="56.15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F2" s="2"/>
       <c r="G2" s="17"/>
       <c r="H2" s="2" t="s">
@@ -1646,34 +1676,43 @@
       <c r="K2" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="L2" s="17"/>
-      <c r="M2" s="2" t="s">
+      <c r="L2" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="M2" s="17"/>
+      <c r="N2" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="Q2" s="17"/>
       <c r="R2" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="S2" s="17"/>
+      <c r="T2" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="U2" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="V2" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="W2" s="2" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="3" spans="1:22" s="1" customFormat="1" ht="44.15" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="X2" s="2" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" s="1" customFormat="1" ht="44.15" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>154</v>
       </c>
@@ -1690,18 +1729,21 @@
         <v>1</v>
       </c>
       <c r="G3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="15"/>
+      <c r="L3" s="46"/>
+      <c r="M3" s="18"/>
       <c r="N3" s="15"/>
       <c r="O3" s="15"/>
       <c r="P3" s="15"/>
-      <c r="Q3" s="25"/>
-      <c r="R3" s="36"/>
-      <c r="S3" s="36"/>
+      <c r="Q3" s="15"/>
+      <c r="R3" s="46"/>
+      <c r="S3" s="25"/>
       <c r="T3" s="36"/>
       <c r="U3" s="36"/>
-    </row>
-    <row r="4" spans="1:22" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="V3" s="36"/>
+      <c r="W3" s="36"/>
+      <c r="X3" s="46"/>
+    </row>
+    <row r="4" spans="1:25" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1721,18 +1763,21 @@
         <v>4</v>
       </c>
       <c r="G4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="15"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="18"/>
       <c r="N4" s="15"/>
       <c r="O4" s="15"/>
       <c r="P4" s="15"/>
-      <c r="Q4" s="25"/>
-      <c r="R4" s="36"/>
-      <c r="S4" s="36"/>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="46"/>
+      <c r="S4" s="25"/>
       <c r="T4" s="36"/>
       <c r="U4" s="36"/>
-    </row>
-    <row r="5" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="V4" s="36"/>
+      <c r="W4" s="36"/>
+      <c r="X4" s="46"/>
+    </row>
+    <row r="5" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -1752,18 +1797,21 @@
         <v>4</v>
       </c>
       <c r="G5" s="18"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="15"/>
+      <c r="L5" s="46"/>
+      <c r="M5" s="18"/>
       <c r="N5" s="15"/>
       <c r="O5" s="15"/>
       <c r="P5" s="15"/>
-      <c r="Q5" s="25"/>
-      <c r="R5" s="36"/>
-      <c r="S5" s="36"/>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="46"/>
+      <c r="S5" s="25"/>
       <c r="T5" s="36"/>
       <c r="U5" s="36"/>
-    </row>
-    <row r="6" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="V5" s="36"/>
+      <c r="W5" s="36"/>
+      <c r="X5" s="46"/>
+    </row>
+    <row r="6" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A6" s="5" t="s">
         <v>157</v>
       </c>
@@ -1780,55 +1828,61 @@
         <v>1</v>
       </c>
       <c r="G6" s="18"/>
-      <c r="L6" s="18"/>
-      <c r="Q6" s="25"/>
-    </row>
-    <row r="7" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="46" t="s">
+      <c r="M6" s="18"/>
+      <c r="S6" s="25"/>
+    </row>
+    <row r="7" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="46" t="s">
+      <c r="B7" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="46" t="s">
+      <c r="C7" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="46" t="b">
+      <c r="D7" s="47" t="b">
         <v>1</v>
       </c>
       <c r="E7" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G7" s="18"/>
-      <c r="L7" s="18"/>
-      <c r="M7" s="15"/>
+      <c r="L7" s="46"/>
+      <c r="M7" s="18"/>
       <c r="N7" s="15"/>
       <c r="O7" s="15"/>
       <c r="P7" s="15"/>
-      <c r="Q7" s="25"/>
-      <c r="R7" s="36"/>
-      <c r="S7" s="36"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="46"/>
+      <c r="S7" s="25"/>
       <c r="T7" s="36"/>
       <c r="U7" s="36"/>
-    </row>
-    <row r="8" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="46"/>
-      <c r="B8" s="46"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="46"/>
+      <c r="V7" s="36"/>
+      <c r="W7" s="36"/>
+      <c r="X7" s="46"/>
+    </row>
+    <row r="8" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="47"/>
+      <c r="B8" s="47"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
       <c r="G8" s="18"/>
-      <c r="L8" s="18"/>
-      <c r="M8" s="15"/>
+      <c r="L8" s="46"/>
+      <c r="M8" s="18"/>
       <c r="N8" s="15"/>
       <c r="O8" s="15"/>
       <c r="P8" s="15"/>
-      <c r="Q8" s="25"/>
-      <c r="R8" s="36"/>
-      <c r="S8" s="36"/>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="46"/>
+      <c r="S8" s="25"/>
       <c r="T8" s="36"/>
       <c r="U8" s="36"/>
-    </row>
-    <row r="9" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="V8" s="36"/>
+      <c r="W8" s="36"/>
+      <c r="X8" s="46"/>
+    </row>
+    <row r="9" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A9" s="5" t="s">
         <v>160</v>
       </c>
@@ -1848,10 +1902,10 @@
         <v>16</v>
       </c>
       <c r="G9" s="18"/>
-      <c r="L9" s="18"/>
-      <c r="Q9" s="25"/>
-    </row>
-    <row r="10" spans="1:22" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="M9" s="18"/>
+      <c r="S9" s="25"/>
+    </row>
+    <row r="10" spans="1:25" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
@@ -1871,18 +1925,21 @@
         <v>4</v>
       </c>
       <c r="G10" s="18"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="15"/>
+      <c r="L10" s="46"/>
+      <c r="M10" s="18"/>
       <c r="N10" s="15"/>
       <c r="O10" s="15"/>
       <c r="P10" s="15"/>
-      <c r="Q10" s="25"/>
-      <c r="R10" s="36"/>
-      <c r="S10" s="36"/>
+      <c r="Q10" s="15"/>
+      <c r="R10" s="46"/>
+      <c r="S10" s="25"/>
       <c r="T10" s="36"/>
       <c r="U10" s="36"/>
-    </row>
-    <row r="11" spans="1:22" s="5" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="V10" s="36"/>
+      <c r="W10" s="36"/>
+      <c r="X10" s="46"/>
+    </row>
+    <row r="11" spans="1:25" s="5" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A11" s="5" t="s">
         <v>162</v>
       </c>
@@ -1899,10 +1956,10 @@
         <v>1</v>
       </c>
       <c r="G11" s="18"/>
-      <c r="L11" s="18"/>
-      <c r="Q11" s="25"/>
-    </row>
-    <row r="12" spans="1:22" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="M11" s="18"/>
+      <c r="S11" s="25"/>
+    </row>
+    <row r="12" spans="1:25" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
         <v>135</v>
       </c>
@@ -1922,18 +1979,21 @@
         <v>4</v>
       </c>
       <c r="G12" s="18"/>
-      <c r="L12" s="18"/>
-      <c r="M12" s="15"/>
+      <c r="L12" s="46"/>
+      <c r="M12" s="18"/>
       <c r="N12" s="15"/>
       <c r="O12" s="15"/>
       <c r="P12" s="15"/>
-      <c r="Q12" s="25"/>
-      <c r="R12" s="36"/>
-      <c r="S12" s="36"/>
+      <c r="Q12" s="15"/>
+      <c r="R12" s="46"/>
+      <c r="S12" s="25"/>
       <c r="T12" s="36"/>
       <c r="U12" s="36"/>
-    </row>
-    <row r="13" spans="1:22" s="11" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="V12" s="36"/>
+      <c r="W12" s="36"/>
+      <c r="X12" s="46"/>
+    </row>
+    <row r="13" spans="1:25" s="11" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A13" s="11" t="s">
         <v>243</v>
       </c>
@@ -1953,18 +2013,21 @@
         <v>246</v>
       </c>
       <c r="G13" s="18"/>
-      <c r="L13" s="18"/>
-      <c r="M13" s="15"/>
+      <c r="L13" s="46"/>
+      <c r="M13" s="18"/>
       <c r="N13" s="15"/>
       <c r="O13" s="15"/>
       <c r="P13" s="15"/>
-      <c r="Q13" s="25"/>
-      <c r="R13" s="36"/>
-      <c r="S13" s="36"/>
+      <c r="Q13" s="15"/>
+      <c r="R13" s="46"/>
+      <c r="S13" s="25"/>
       <c r="T13" s="36"/>
       <c r="U13" s="36"/>
-    </row>
-    <row r="14" spans="1:22" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="V13" s="36"/>
+      <c r="W13" s="36"/>
+      <c r="X13" s="46"/>
+    </row>
+    <row r="14" spans="1:25" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
@@ -1984,18 +2047,21 @@
         <v>16</v>
       </c>
       <c r="G14" s="18"/>
-      <c r="L14" s="18"/>
-      <c r="M14" s="15"/>
+      <c r="L14" s="46"/>
+      <c r="M14" s="18"/>
       <c r="N14" s="15"/>
       <c r="O14" s="15"/>
       <c r="P14" s="15"/>
-      <c r="Q14" s="25"/>
-      <c r="R14" s="36"/>
-      <c r="S14" s="36"/>
+      <c r="Q14" s="15"/>
+      <c r="R14" s="46"/>
+      <c r="S14" s="25"/>
       <c r="T14" s="36"/>
       <c r="U14" s="36"/>
-    </row>
-    <row r="15" spans="1:22" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="V14" s="36"/>
+      <c r="W14" s="36"/>
+      <c r="X14" s="46"/>
+    </row>
+    <row r="15" spans="1:25" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
         <v>18</v>
       </c>
@@ -2024,34 +2090,43 @@
       <c r="K15" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="L15" s="18"/>
-      <c r="M15" s="15" t="s">
+      <c r="L15" s="46" t="s">
         <v>19</v>
       </c>
+      <c r="M15" s="18"/>
       <c r="N15" s="15" t="s">
         <v>19</v>
       </c>
       <c r="O15" s="15" t="s">
-        <v>205</v>
+        <v>19</v>
       </c>
       <c r="P15" s="15" t="s">
         <v>205</v>
       </c>
-      <c r="Q15" s="25"/>
-      <c r="R15" s="36" t="s">
+      <c r="Q15" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="R15" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="S15" s="36" t="s">
+      <c r="S15" s="25"/>
+      <c r="T15" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="T15" s="36" t="s">
+      <c r="U15" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="V15" s="36" t="s">
         <v>205</v>
       </c>
-      <c r="U15" s="36" t="s">
+      <c r="W15" s="36" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="X15" s="46" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
         <v>22</v>
       </c>
@@ -2071,18 +2146,21 @@
         <v>10</v>
       </c>
       <c r="G16" s="18"/>
-      <c r="L16" s="18"/>
-      <c r="M16" s="15"/>
+      <c r="L16" s="46"/>
+      <c r="M16" s="18"/>
       <c r="N16" s="15"/>
       <c r="O16" s="15"/>
       <c r="P16" s="15"/>
-      <c r="Q16" s="25"/>
-      <c r="R16" s="36"/>
-      <c r="S16" s="36"/>
+      <c r="Q16" s="15"/>
+      <c r="R16" s="46"/>
+      <c r="S16" s="25"/>
       <c r="T16" s="36"/>
       <c r="U16" s="36"/>
-    </row>
-    <row r="17" spans="1:21" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="V16" s="36"/>
+      <c r="W16" s="36"/>
+      <c r="X16" s="46"/>
+    </row>
+    <row r="17" spans="1:24" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
         <v>221</v>
       </c>
@@ -2102,18 +2180,21 @@
         <v>222</v>
       </c>
       <c r="G17" s="18"/>
-      <c r="L17" s="18"/>
-      <c r="M17" s="15"/>
+      <c r="L17" s="46"/>
+      <c r="M17" s="18"/>
       <c r="N17" s="15"/>
       <c r="O17" s="15"/>
       <c r="P17" s="15"/>
-      <c r="Q17" s="25"/>
-      <c r="R17" s="36"/>
-      <c r="S17" s="36"/>
+      <c r="Q17" s="15"/>
+      <c r="R17" s="46"/>
+      <c r="S17" s="25"/>
       <c r="T17" s="36"/>
       <c r="U17" s="36"/>
-    </row>
-    <row r="18" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="V17" s="36"/>
+      <c r="W17" s="36"/>
+      <c r="X17" s="46"/>
+    </row>
+    <row r="18" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
         <v>223</v>
       </c>
@@ -2129,18 +2210,21 @@
         <v>305</v>
       </c>
       <c r="G18" s="18"/>
-      <c r="L18" s="18"/>
-      <c r="M18" s="15"/>
+      <c r="L18" s="46"/>
+      <c r="M18" s="18"/>
       <c r="N18" s="15"/>
       <c r="O18" s="15"/>
       <c r="P18" s="15"/>
-      <c r="Q18" s="25"/>
-      <c r="R18" s="36"/>
-      <c r="S18" s="36"/>
+      <c r="Q18" s="15"/>
+      <c r="R18" s="46"/>
+      <c r="S18" s="25"/>
       <c r="T18" s="36"/>
       <c r="U18" s="36"/>
-    </row>
-    <row r="19" spans="1:21" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="V18" s="36"/>
+      <c r="W18" s="36"/>
+      <c r="X18" s="46"/>
+    </row>
+    <row r="19" spans="1:24" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
         <v>164</v>
       </c>
@@ -2157,18 +2241,21 @@
         <v>1</v>
       </c>
       <c r="G19" s="18"/>
-      <c r="L19" s="18"/>
-      <c r="M19" s="15"/>
+      <c r="L19" s="46"/>
+      <c r="M19" s="18"/>
       <c r="N19" s="15"/>
       <c r="O19" s="15"/>
       <c r="P19" s="15"/>
-      <c r="Q19" s="25"/>
-      <c r="R19" s="36"/>
-      <c r="S19" s="36"/>
+      <c r="Q19" s="15"/>
+      <c r="R19" s="46"/>
+      <c r="S19" s="25"/>
       <c r="T19" s="36"/>
       <c r="U19" s="36"/>
-    </row>
-    <row r="20" spans="1:21" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="V19" s="36"/>
+      <c r="W19" s="36"/>
+      <c r="X19" s="46"/>
+    </row>
+    <row r="20" spans="1:24" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
         <v>137</v>
       </c>
@@ -2188,18 +2275,21 @@
         <v>303</v>
       </c>
       <c r="G20" s="18"/>
-      <c r="L20" s="18"/>
-      <c r="M20" s="15"/>
+      <c r="L20" s="46"/>
+      <c r="M20" s="18"/>
       <c r="N20" s="15"/>
       <c r="O20" s="15"/>
       <c r="P20" s="15"/>
-      <c r="Q20" s="25"/>
-      <c r="R20" s="36"/>
-      <c r="S20" s="36"/>
+      <c r="Q20" s="15"/>
+      <c r="R20" s="46"/>
+      <c r="S20" s="25"/>
       <c r="T20" s="36"/>
       <c r="U20" s="36"/>
-    </row>
-    <row r="21" spans="1:21" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="V20" s="36"/>
+      <c r="W20" s="36"/>
+      <c r="X20" s="46"/>
+    </row>
+    <row r="21" spans="1:24" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
         <v>140</v>
       </c>
@@ -2219,18 +2309,21 @@
         <v>304</v>
       </c>
       <c r="G21" s="18"/>
-      <c r="L21" s="18"/>
-      <c r="M21" s="15"/>
+      <c r="L21" s="46"/>
+      <c r="M21" s="18"/>
       <c r="N21" s="15"/>
       <c r="O21" s="15"/>
       <c r="P21" s="15"/>
-      <c r="Q21" s="25"/>
-      <c r="R21" s="36"/>
-      <c r="S21" s="36"/>
+      <c r="Q21" s="15"/>
+      <c r="R21" s="46"/>
+      <c r="S21" s="25"/>
       <c r="T21" s="36"/>
       <c r="U21" s="36"/>
-    </row>
-    <row r="22" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="V21" s="36"/>
+      <c r="W21" s="36"/>
+      <c r="X21" s="46"/>
+    </row>
+    <row r="22" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
         <v>143</v>
       </c>
@@ -2259,12 +2352,12 @@
       <c r="K22" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="L22" s="18"/>
-      <c r="M22" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="L22" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="M22" s="18"/>
       <c r="N22" s="15" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="O22" s="15" t="s">
         <v>4</v>
@@ -2272,21 +2365,30 @@
       <c r="P22" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="Q22" s="25"/>
-      <c r="R22" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="S22" s="36" t="s">
-        <v>4</v>
-      </c>
+      <c r="Q22" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="R22" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="S22" s="25"/>
       <c r="T22" s="36" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="U22" s="36" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="1:21" s="5" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="V22" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="W22" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="X22" s="46" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" s="5" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A23" s="5" t="s">
         <v>25</v>
       </c>
@@ -2306,10 +2408,10 @@
         <v>16</v>
       </c>
       <c r="G23" s="18"/>
-      <c r="L23" s="18"/>
-      <c r="Q23" s="25"/>
-    </row>
-    <row r="24" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="M23" s="18"/>
+      <c r="S23" s="25"/>
+    </row>
+    <row r="24" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A24" s="1" t="s">
         <v>166</v>
       </c>
@@ -2326,18 +2428,21 @@
         <v>1</v>
       </c>
       <c r="G24" s="18"/>
-      <c r="L24" s="18"/>
-      <c r="M24" s="15"/>
+      <c r="L24" s="46"/>
+      <c r="M24" s="18"/>
       <c r="N24" s="15"/>
       <c r="O24" s="15"/>
       <c r="P24" s="15"/>
-      <c r="Q24" s="25"/>
-      <c r="R24" s="36"/>
-      <c r="S24" s="36"/>
+      <c r="Q24" s="15"/>
+      <c r="R24" s="46"/>
+      <c r="S24" s="25"/>
       <c r="T24" s="36"/>
       <c r="U24" s="36"/>
-    </row>
-    <row r="25" spans="1:21" s="1" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="V24" s="36"/>
+      <c r="W24" s="36"/>
+      <c r="X24" s="46"/>
+    </row>
+    <row r="25" spans="1:24" s="1" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
         <v>27</v>
       </c>
@@ -2366,34 +2471,43 @@
       <c r="K25" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="L25" s="18"/>
-      <c r="M25" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="L25" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="M25" s="18"/>
       <c r="N25" s="15" t="s">
         <v>16</v>
       </c>
       <c r="O25" s="15" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="P25" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="Q25" s="25"/>
-      <c r="R25" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="S25" s="36" t="s">
-        <v>16</v>
-      </c>
+      <c r="Q25" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="R25" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="S25" s="25"/>
       <c r="T25" s="36" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="U25" s="36" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.4">
+        <v>16</v>
+      </c>
+      <c r="V25" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="W25" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="X25" s="46" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
         <v>29</v>
       </c>
@@ -2422,12 +2536,12 @@
       <c r="K26" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="L26" s="18"/>
-      <c r="M26" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="L26" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="M26" s="18"/>
       <c r="N26" s="15" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="O26" s="15" t="s">
         <v>4</v>
@@ -2435,21 +2549,30 @@
       <c r="P26" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="Q26" s="25"/>
-      <c r="R26" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="S26" s="36" t="s">
-        <v>4</v>
-      </c>
+      <c r="Q26" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="R26" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="S26" s="25"/>
       <c r="T26" s="36" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="U26" s="36" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="27" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="V26" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="W26" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="X26" s="46" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A27" s="1" t="s">
         <v>31</v>
       </c>
@@ -2478,34 +2601,43 @@
       <c r="K27" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="L27" s="18"/>
-      <c r="M27" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="L27" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="M27" s="18"/>
       <c r="N27" s="15" t="s">
         <v>16</v>
       </c>
       <c r="O27" s="15" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="P27" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="Q27" s="25"/>
-      <c r="R27" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="S27" s="36" t="s">
-        <v>16</v>
-      </c>
+      <c r="Q27" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="R27" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="S27" s="25"/>
       <c r="T27" s="36" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="U27" s="36" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.4">
+        <v>16</v>
+      </c>
+      <c r="V27" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="W27" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="X27" s="46" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A28" s="1" t="s">
         <v>145</v>
       </c>
@@ -2534,12 +2666,12 @@
       <c r="K28" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="L28" s="18"/>
-      <c r="M28" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="L28" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="M28" s="18"/>
       <c r="N28" s="15" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="O28" s="15" t="s">
         <v>4</v>
@@ -2547,21 +2679,30 @@
       <c r="P28" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="Q28" s="25"/>
-      <c r="R28" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="S28" s="36" t="s">
-        <v>4</v>
-      </c>
+      <c r="Q28" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="R28" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="S28" s="25"/>
       <c r="T28" s="36" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="U28" s="36" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="29" spans="1:21" s="26" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="V28" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="W28" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="X28" s="46" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" s="26" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A29" s="26" t="s">
         <v>259</v>
       </c>
@@ -2590,34 +2731,43 @@
       <c r="K29" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="L29" s="25"/>
-      <c r="M29" s="26" t="s">
-        <v>16</v>
-      </c>
+      <c r="L29" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="M29" s="25"/>
       <c r="N29" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="O29" s="42" t="s">
+      <c r="O29" s="26" t="s">
         <v>16</v>
       </c>
       <c r="P29" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="Q29" s="25"/>
-      <c r="R29" s="42" t="s">
-        <v>16</v>
-      </c>
-      <c r="S29" s="42" t="s">
-        <v>16</v>
-      </c>
+      <c r="Q29" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="R29" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="S29" s="25"/>
       <c r="T29" s="42" t="s">
         <v>16</v>
       </c>
       <c r="U29" s="42" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="30" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="V29" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="W29" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="X29" s="46" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" s="28" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A30" s="28" t="s">
         <v>264</v>
       </c>
@@ -2641,18 +2791,21 @@
       <c r="I30" s="30"/>
       <c r="J30" s="30"/>
       <c r="K30" s="30"/>
-      <c r="L30" s="25"/>
-      <c r="M30" s="30"/>
+      <c r="L30" s="46"/>
+      <c r="M30" s="25"/>
       <c r="N30" s="30"/>
       <c r="O30" s="30"/>
       <c r="P30" s="30"/>
-      <c r="Q30" s="25"/>
-      <c r="R30" s="36"/>
-      <c r="S30" s="36"/>
+      <c r="Q30" s="30"/>
+      <c r="R30" s="46"/>
+      <c r="S30" s="25"/>
       <c r="T30" s="36"/>
       <c r="U30" s="36"/>
-    </row>
-    <row r="31" spans="1:21" s="45" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="V30" s="36"/>
+      <c r="W30" s="36"/>
+      <c r="X30" s="46"/>
+    </row>
+    <row r="31" spans="1:24" s="45" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A31" s="45" t="s">
         <v>319</v>
       </c>
@@ -2681,10 +2834,15 @@
       <c r="K31" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="L31" s="25"/>
-      <c r="Q31" s="25"/>
-    </row>
-    <row r="32" spans="1:21" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="L31" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="M31" s="25"/>
+      <c r="R31" s="46"/>
+      <c r="S31" s="25"/>
+      <c r="X31" s="46"/>
+    </row>
+    <row r="32" spans="1:24" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A32" s="1" t="s">
         <v>33</v>
       </c>
@@ -2713,18 +2871,23 @@
       <c r="K32" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="L32" s="18"/>
-      <c r="M32" s="15"/>
+      <c r="L32" s="46" t="s">
+        <v>34</v>
+      </c>
+      <c r="M32" s="18"/>
       <c r="N32" s="15"/>
       <c r="O32" s="15"/>
       <c r="P32" s="15"/>
-      <c r="Q32" s="25"/>
-      <c r="R32" s="36"/>
-      <c r="S32" s="36"/>
+      <c r="Q32" s="15"/>
+      <c r="R32" s="46"/>
+      <c r="S32" s="25"/>
       <c r="T32" s="36"/>
       <c r="U32" s="36"/>
-    </row>
-    <row r="33" spans="1:21" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="V32" s="36"/>
+      <c r="W32" s="36"/>
+      <c r="X32" s="46"/>
+    </row>
+    <row r="33" spans="1:24" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A33" s="1" t="s">
         <v>168</v>
       </c>
@@ -2744,18 +2907,21 @@
         <v>10</v>
       </c>
       <c r="G33" s="18"/>
-      <c r="L33" s="18"/>
-      <c r="M33" s="15"/>
+      <c r="L33" s="46"/>
+      <c r="M33" s="18"/>
       <c r="N33" s="15"/>
       <c r="O33" s="15"/>
       <c r="P33" s="15"/>
-      <c r="Q33" s="25"/>
-      <c r="R33" s="36"/>
-      <c r="S33" s="36"/>
+      <c r="Q33" s="15"/>
+      <c r="R33" s="46"/>
+      <c r="S33" s="25"/>
       <c r="T33" s="36"/>
       <c r="U33" s="36"/>
-    </row>
-    <row r="34" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="V33" s="36"/>
+      <c r="W33" s="36"/>
+      <c r="X33" s="46"/>
+    </row>
+    <row r="34" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A34" s="1" t="s">
         <v>171</v>
       </c>
@@ -2775,18 +2941,21 @@
         <v>268</v>
       </c>
       <c r="G34" s="18"/>
-      <c r="L34" s="18"/>
-      <c r="M34" s="15"/>
+      <c r="L34" s="46"/>
+      <c r="M34" s="18"/>
       <c r="N34" s="15"/>
       <c r="O34" s="15"/>
       <c r="P34" s="15"/>
-      <c r="Q34" s="25"/>
-      <c r="R34" s="36"/>
-      <c r="S34" s="36"/>
+      <c r="Q34" s="15"/>
+      <c r="R34" s="46"/>
+      <c r="S34" s="25"/>
       <c r="T34" s="36"/>
       <c r="U34" s="36"/>
-    </row>
-    <row r="35" spans="1:21" s="35" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="V34" s="36"/>
+      <c r="W34" s="36"/>
+      <c r="X34" s="46"/>
+    </row>
+    <row r="35" spans="1:24" s="35" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A35" s="35" t="s">
         <v>270</v>
       </c>
@@ -2806,14 +2975,17 @@
         <v>273</v>
       </c>
       <c r="G35" s="25"/>
-      <c r="L35" s="25"/>
-      <c r="Q35" s="25"/>
-      <c r="R35" s="36"/>
-      <c r="S35" s="36"/>
+      <c r="L35" s="46"/>
+      <c r="M35" s="25"/>
+      <c r="R35" s="46"/>
+      <c r="S35" s="25"/>
       <c r="T35" s="36"/>
       <c r="U35" s="36"/>
-    </row>
-    <row r="36" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="V35" s="36"/>
+      <c r="W35" s="36"/>
+      <c r="X35" s="46"/>
+    </row>
+    <row r="36" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A36" s="1" t="s">
         <v>37</v>
       </c>
@@ -2833,18 +3005,21 @@
         <v>16</v>
       </c>
       <c r="G36" s="18"/>
-      <c r="L36" s="18"/>
-      <c r="M36" s="15"/>
+      <c r="L36" s="46"/>
+      <c r="M36" s="18"/>
       <c r="N36" s="15"/>
       <c r="O36" s="15"/>
       <c r="P36" s="15"/>
-      <c r="Q36" s="25"/>
-      <c r="R36" s="36"/>
-      <c r="S36" s="36"/>
+      <c r="Q36" s="15"/>
+      <c r="R36" s="46"/>
+      <c r="S36" s="25"/>
       <c r="T36" s="36"/>
       <c r="U36" s="36"/>
-    </row>
-    <row r="37" spans="1:21" s="37" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="V36" s="36"/>
+      <c r="W36" s="36"/>
+      <c r="X36" s="46"/>
+    </row>
+    <row r="37" spans="1:24" s="37" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A37" s="37" t="s">
         <v>289</v>
       </c>
@@ -2864,10 +3039,10 @@
         <v>16</v>
       </c>
       <c r="G37" s="38"/>
-      <c r="L37" s="38"/>
-      <c r="Q37" s="38"/>
-    </row>
-    <row r="38" spans="1:21" s="1" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="M37" s="38"/>
+      <c r="S37" s="38"/>
+    </row>
+    <row r="38" spans="1:24" s="1" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A38" s="1" t="s">
         <v>39</v>
       </c>
@@ -2887,18 +3062,21 @@
         <v>16</v>
       </c>
       <c r="G38" s="18"/>
-      <c r="L38" s="18"/>
-      <c r="M38" s="15"/>
+      <c r="L38" s="46"/>
+      <c r="M38" s="18"/>
       <c r="N38" s="15"/>
       <c r="O38" s="15"/>
       <c r="P38" s="15"/>
-      <c r="Q38" s="25"/>
-      <c r="R38" s="36"/>
-      <c r="S38" s="36"/>
+      <c r="Q38" s="15"/>
+      <c r="R38" s="46"/>
+      <c r="S38" s="25"/>
       <c r="T38" s="36"/>
       <c r="U38" s="36"/>
-    </row>
-    <row r="39" spans="1:21" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="V38" s="36"/>
+      <c r="W38" s="36"/>
+      <c r="X38" s="46"/>
+    </row>
+    <row r="39" spans="1:24" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A39" s="1" t="s">
         <v>41</v>
       </c>
@@ -2918,18 +3096,21 @@
         <v>16</v>
       </c>
       <c r="G39" s="18"/>
-      <c r="L39" s="18"/>
-      <c r="M39" s="15"/>
+      <c r="L39" s="46"/>
+      <c r="M39" s="18"/>
       <c r="N39" s="15"/>
       <c r="O39" s="15"/>
       <c r="P39" s="15"/>
-      <c r="Q39" s="25"/>
-      <c r="R39" s="36"/>
-      <c r="S39" s="36"/>
+      <c r="Q39" s="15"/>
+      <c r="R39" s="46"/>
+      <c r="S39" s="25"/>
       <c r="T39" s="36"/>
       <c r="U39" s="36"/>
-    </row>
-    <row r="40" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="V39" s="36"/>
+      <c r="W39" s="36"/>
+      <c r="X39" s="46"/>
+    </row>
+    <row r="40" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A40" s="1" t="s">
         <v>43</v>
       </c>
@@ -2958,10 +3139,10 @@
       <c r="K40" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L40" s="18"/>
-      <c r="M40" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="L40" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="M40" s="18"/>
       <c r="N40" s="15" t="s">
         <v>16</v>
       </c>
@@ -2971,21 +3152,30 @@
       <c r="P40" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="Q40" s="25"/>
-      <c r="R40" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="S40" s="36" t="s">
-        <v>4</v>
-      </c>
+      <c r="Q40" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="R40" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="S40" s="25"/>
       <c r="T40" s="36" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="U40" s="36" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="41" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="V40" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="W40" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="X40" s="46" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24" s="28" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A41" s="28" t="s">
         <v>263</v>
       </c>
@@ -3014,11 +3204,11 @@
       <c r="K41" s="39" t="s">
         <v>308</v>
       </c>
-      <c r="L41" s="25"/>
-      <c r="M41" s="28" t="s">
-        <v>309</v>
-      </c>
-      <c r="N41" s="39" t="s">
+      <c r="L41" s="46" t="s">
+        <v>308</v>
+      </c>
+      <c r="M41" s="25"/>
+      <c r="N41" s="28" t="s">
         <v>309</v>
       </c>
       <c r="O41" s="39" t="s">
@@ -3027,21 +3217,30 @@
       <c r="P41" s="39" t="s">
         <v>309</v>
       </c>
-      <c r="Q41" s="25"/>
-      <c r="R41" s="36" t="s">
-        <v>310</v>
-      </c>
-      <c r="S41" s="39" t="s">
-        <v>310</v>
-      </c>
-      <c r="T41" s="39" t="s">
+      <c r="Q41" s="39" t="s">
+        <v>309</v>
+      </c>
+      <c r="R41" s="46" t="s">
+        <v>309</v>
+      </c>
+      <c r="S41" s="25"/>
+      <c r="T41" s="36" t="s">
         <v>310</v>
       </c>
       <c r="U41" s="39" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="42" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="V41" s="39" t="s">
+        <v>310</v>
+      </c>
+      <c r="W41" s="39" t="s">
+        <v>310</v>
+      </c>
+      <c r="X41" s="46" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A42" s="1" t="s">
         <v>174</v>
       </c>
@@ -3061,18 +3260,21 @@
         <v>16</v>
       </c>
       <c r="G42" s="18"/>
-      <c r="L42" s="18"/>
-      <c r="M42" s="15"/>
+      <c r="L42" s="46"/>
+      <c r="M42" s="18"/>
       <c r="N42" s="15"/>
       <c r="O42" s="15"/>
       <c r="P42" s="15"/>
-      <c r="Q42" s="25"/>
-      <c r="R42" s="36"/>
-      <c r="S42" s="36"/>
+      <c r="Q42" s="15"/>
+      <c r="R42" s="46"/>
+      <c r="S42" s="25"/>
       <c r="T42" s="36"/>
       <c r="U42" s="36"/>
-    </row>
-    <row r="43" spans="1:21" s="5" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="V42" s="36"/>
+      <c r="W42" s="36"/>
+      <c r="X42" s="46"/>
+    </row>
+    <row r="43" spans="1:24" s="5" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A43" s="5" t="s">
         <v>45</v>
       </c>
@@ -3092,10 +3294,10 @@
         <v>16</v>
       </c>
       <c r="G43" s="18"/>
-      <c r="L43" s="18"/>
-      <c r="Q43" s="25"/>
-    </row>
-    <row r="44" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="M43" s="18"/>
+      <c r="S43" s="25"/>
+    </row>
+    <row r="44" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A44" s="5" t="s">
         <v>47</v>
       </c>
@@ -3115,20 +3317,20 @@
         <v>218</v>
       </c>
       <c r="G44" s="18"/>
-      <c r="L44" s="18"/>
-      <c r="Q44" s="25"/>
-    </row>
-    <row r="45" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="46" t="s">
+      <c r="M44" s="18"/>
+      <c r="S44" s="25"/>
+    </row>
+    <row r="45" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A45" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="B45" s="46" t="s">
+      <c r="B45" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="C45" s="46" t="s">
+      <c r="C45" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="D45" s="46" t="b">
+      <c r="D45" s="47" t="b">
         <v>0</v>
       </c>
       <c r="E45" s="1" t="b">
@@ -3138,35 +3340,41 @@
         <v>16</v>
       </c>
       <c r="G45" s="18"/>
-      <c r="L45" s="18"/>
-      <c r="M45" s="15"/>
+      <c r="L45" s="46"/>
+      <c r="M45" s="18"/>
       <c r="N45" s="15"/>
       <c r="O45" s="15"/>
       <c r="P45" s="15"/>
-      <c r="Q45" s="25"/>
-      <c r="R45" s="36"/>
-      <c r="S45" s="36"/>
+      <c r="Q45" s="15"/>
+      <c r="R45" s="46"/>
+      <c r="S45" s="25"/>
       <c r="T45" s="36"/>
       <c r="U45" s="36"/>
-    </row>
-    <row r="46" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="46"/>
-      <c r="B46" s="46"/>
-      <c r="C46" s="46"/>
-      <c r="D46" s="46"/>
+      <c r="V45" s="36"/>
+      <c r="W45" s="36"/>
+      <c r="X45" s="46"/>
+    </row>
+    <row r="46" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A46" s="47"/>
+      <c r="B46" s="47"/>
+      <c r="C46" s="47"/>
+      <c r="D46" s="47"/>
       <c r="G46" s="18"/>
-      <c r="L46" s="18"/>
-      <c r="M46" s="15"/>
+      <c r="L46" s="46"/>
+      <c r="M46" s="18"/>
       <c r="N46" s="15"/>
       <c r="O46" s="15"/>
       <c r="P46" s="15"/>
-      <c r="Q46" s="25"/>
-      <c r="R46" s="36"/>
-      <c r="S46" s="36"/>
+      <c r="Q46" s="15"/>
+      <c r="R46" s="46"/>
+      <c r="S46" s="25"/>
       <c r="T46" s="36"/>
       <c r="U46" s="36"/>
-    </row>
-    <row r="47" spans="1:21" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="V46" s="36"/>
+      <c r="W46" s="36"/>
+      <c r="X46" s="46"/>
+    </row>
+    <row r="47" spans="1:24" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A47" s="1" t="s">
         <v>176</v>
       </c>
@@ -3183,18 +3391,21 @@
         <v>0</v>
       </c>
       <c r="G47" s="18"/>
-      <c r="L47" s="18"/>
-      <c r="M47" s="15"/>
+      <c r="L47" s="46"/>
+      <c r="M47" s="18"/>
       <c r="N47" s="15"/>
       <c r="O47" s="15"/>
       <c r="P47" s="15"/>
-      <c r="Q47" s="25"/>
-      <c r="R47" s="36"/>
-      <c r="S47" s="36"/>
+      <c r="Q47" s="15"/>
+      <c r="R47" s="46"/>
+      <c r="S47" s="25"/>
       <c r="T47" s="36"/>
       <c r="U47" s="36"/>
-    </row>
-    <row r="48" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="V47" s="36"/>
+      <c r="W47" s="36"/>
+      <c r="X47" s="46"/>
+    </row>
+    <row r="48" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A48" s="1" t="s">
         <v>52</v>
       </c>
@@ -3211,18 +3422,21 @@
         <v>1</v>
       </c>
       <c r="G48" s="18"/>
-      <c r="L48" s="18"/>
-      <c r="M48" s="15"/>
+      <c r="L48" s="46"/>
+      <c r="M48" s="18"/>
       <c r="N48" s="15"/>
       <c r="O48" s="15"/>
       <c r="P48" s="15"/>
-      <c r="Q48" s="25"/>
-      <c r="R48" s="36"/>
-      <c r="S48" s="36"/>
+      <c r="Q48" s="15"/>
+      <c r="R48" s="46"/>
+      <c r="S48" s="25"/>
       <c r="T48" s="36"/>
       <c r="U48" s="36"/>
-    </row>
-    <row r="49" spans="1:21" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="V48" s="36"/>
+      <c r="W48" s="36"/>
+      <c r="X48" s="46"/>
+    </row>
+    <row r="49" spans="1:24" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A49" s="1" t="s">
         <v>54</v>
       </c>
@@ -3242,18 +3456,21 @@
         <v>206</v>
       </c>
       <c r="G49" s="19"/>
-      <c r="L49" s="19"/>
-      <c r="M49" s="15"/>
+      <c r="L49" s="46"/>
+      <c r="M49" s="19"/>
       <c r="N49" s="15"/>
       <c r="O49" s="15"/>
       <c r="P49" s="15"/>
-      <c r="Q49" s="19"/>
-      <c r="R49" s="36"/>
-      <c r="S49" s="36"/>
+      <c r="Q49" s="15"/>
+      <c r="R49" s="46"/>
+      <c r="S49" s="19"/>
       <c r="T49" s="36"/>
       <c r="U49" s="36"/>
-    </row>
-    <row r="50" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="V49" s="36"/>
+      <c r="W49" s="36"/>
+      <c r="X49" s="46"/>
+    </row>
+    <row r="50" spans="1:24" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A50" s="1" t="s">
         <v>219</v>
       </c>
@@ -3278,10 +3495,10 @@
       <c r="K50" s="39" t="s">
         <v>308</v>
       </c>
-      <c r="L50" s="25"/>
-      <c r="M50" s="39" t="s">
-        <v>309</v>
-      </c>
+      <c r="L50" s="46" t="s">
+        <v>308</v>
+      </c>
+      <c r="M50" s="25"/>
       <c r="N50" s="39" t="s">
         <v>309</v>
       </c>
@@ -3291,21 +3508,30 @@
       <c r="P50" s="39" t="s">
         <v>309</v>
       </c>
-      <c r="Q50" s="25"/>
-      <c r="R50" s="39" t="s">
-        <v>310</v>
-      </c>
-      <c r="S50" s="39" t="s">
-        <v>310</v>
-      </c>
+      <c r="Q50" s="39" t="s">
+        <v>309</v>
+      </c>
+      <c r="R50" s="46" t="s">
+        <v>309</v>
+      </c>
+      <c r="S50" s="25"/>
       <c r="T50" s="39" t="s">
         <v>310</v>
       </c>
       <c r="U50" s="39" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="51" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="V50" s="39" t="s">
+        <v>310</v>
+      </c>
+      <c r="W50" s="39" t="s">
+        <v>310</v>
+      </c>
+      <c r="X50" s="46" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="51" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A51" s="5" t="s">
         <v>179</v>
       </c>
@@ -3325,10 +3551,10 @@
         <v>4</v>
       </c>
       <c r="G51" s="18"/>
-      <c r="L51" s="18"/>
-      <c r="Q51" s="25"/>
-    </row>
-    <row r="52" spans="1:21" s="5" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="M51" s="18"/>
+      <c r="S51" s="25"/>
+    </row>
+    <row r="52" spans="1:24" s="5" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A52" s="5" t="s">
         <v>181</v>
       </c>
@@ -3348,10 +3574,10 @@
         <v>209</v>
       </c>
       <c r="G52" s="18"/>
-      <c r="L52" s="18"/>
-      <c r="Q52" s="25"/>
-    </row>
-    <row r="53" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="M52" s="18"/>
+      <c r="S52" s="25"/>
+    </row>
+    <row r="53" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A53" s="1" t="s">
         <v>57</v>
       </c>
@@ -3371,18 +3597,21 @@
         <v>16</v>
       </c>
       <c r="G53" s="18"/>
-      <c r="L53" s="18"/>
-      <c r="M53" s="15"/>
+      <c r="L53" s="46"/>
+      <c r="M53" s="18"/>
       <c r="N53" s="15"/>
       <c r="O53" s="15"/>
       <c r="P53" s="15"/>
-      <c r="Q53" s="25"/>
-      <c r="R53" s="36"/>
-      <c r="S53" s="36"/>
+      <c r="Q53" s="15"/>
+      <c r="R53" s="46"/>
+      <c r="S53" s="25"/>
       <c r="T53" s="36"/>
       <c r="U53" s="36"/>
-    </row>
-    <row r="54" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="V53" s="36"/>
+      <c r="W53" s="36"/>
+      <c r="X53" s="46"/>
+    </row>
+    <row r="54" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A54" s="1" t="s">
         <v>59</v>
       </c>
@@ -3402,18 +3631,21 @@
         <v>16</v>
       </c>
       <c r="G54" s="18"/>
-      <c r="L54" s="18"/>
-      <c r="M54" s="15"/>
+      <c r="L54" s="46"/>
+      <c r="M54" s="18"/>
       <c r="N54" s="15"/>
       <c r="O54" s="15"/>
       <c r="P54" s="15"/>
-      <c r="Q54" s="25"/>
-      <c r="R54" s="36"/>
-      <c r="S54" s="36"/>
+      <c r="Q54" s="15"/>
+      <c r="R54" s="46"/>
+      <c r="S54" s="25"/>
       <c r="T54" s="36"/>
       <c r="U54" s="36"/>
-    </row>
-    <row r="55" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="V54" s="36"/>
+      <c r="W54" s="36"/>
+      <c r="X54" s="46"/>
+    </row>
+    <row r="55" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A55" s="5" t="s">
         <v>61</v>
       </c>
@@ -3433,10 +3665,10 @@
         <v>16</v>
       </c>
       <c r="G55" s="18"/>
-      <c r="L55" s="18"/>
-      <c r="Q55" s="25"/>
-    </row>
-    <row r="56" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="M55" s="18"/>
+      <c r="S55" s="25"/>
+    </row>
+    <row r="56" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A56" s="1" t="s">
         <v>184</v>
       </c>
@@ -3456,18 +3688,21 @@
         <v>16</v>
       </c>
       <c r="G56" s="18"/>
-      <c r="L56" s="18"/>
-      <c r="M56" s="15"/>
+      <c r="L56" s="46"/>
+      <c r="M56" s="18"/>
       <c r="N56" s="15"/>
       <c r="O56" s="15"/>
       <c r="P56" s="15"/>
-      <c r="Q56" s="25"/>
-      <c r="R56" s="36"/>
-      <c r="S56" s="36"/>
+      <c r="Q56" s="15"/>
+      <c r="R56" s="46"/>
+      <c r="S56" s="25"/>
       <c r="T56" s="36"/>
       <c r="U56" s="36"/>
-    </row>
-    <row r="57" spans="1:21" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="V56" s="36"/>
+      <c r="W56" s="36"/>
+      <c r="X56" s="46"/>
+    </row>
+    <row r="57" spans="1:24" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A57" s="14" t="s">
         <v>295</v>
       </c>
@@ -3491,15 +3726,17 @@
       <c r="I57" s="14"/>
       <c r="J57" s="14"/>
       <c r="K57" s="14"/>
-      <c r="L57" s="20"/>
-      <c r="M57" s="14"/>
+      <c r="L57" s="14"/>
+      <c r="M57" s="20"/>
       <c r="N57" s="14"/>
       <c r="O57" s="14"/>
       <c r="P57" s="14"/>
-      <c r="Q57" s="20"/>
+      <c r="Q57" s="14"/>
       <c r="R57" s="14"/>
-    </row>
-    <row r="58" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="S57" s="20"/>
+      <c r="T57" s="14"/>
+    </row>
+    <row r="58" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A58" s="5" t="s">
         <v>297</v>
       </c>
@@ -3519,10 +3756,10 @@
         <v>300</v>
       </c>
       <c r="G58" s="25"/>
-      <c r="L58" s="25"/>
-      <c r="Q58" s="25"/>
-    </row>
-    <row r="59" spans="1:21" s="5" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="M58" s="25"/>
+      <c r="S58" s="25"/>
+    </row>
+    <row r="59" spans="1:24" s="5" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A59" s="5" t="s">
         <v>301</v>
       </c>
@@ -3546,14 +3783,16 @@
       <c r="I59" s="32"/>
       <c r="J59" s="32"/>
       <c r="K59" s="32"/>
-      <c r="L59" s="25"/>
-      <c r="M59" s="32"/>
+      <c r="L59" s="32"/>
+      <c r="M59" s="25"/>
       <c r="N59" s="32"/>
       <c r="O59" s="32"/>
       <c r="P59" s="32"/>
-      <c r="Q59" s="25"/>
-    </row>
-    <row r="60" spans="1:21" s="5" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="Q59" s="32"/>
+      <c r="R59" s="32"/>
+      <c r="S59" s="25"/>
+    </row>
+    <row r="60" spans="1:24" s="5" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A60" s="5" t="s">
         <v>186</v>
       </c>
@@ -3570,10 +3809,10 @@
         <v>1</v>
       </c>
       <c r="G60" s="18"/>
-      <c r="L60" s="18"/>
-      <c r="Q60" s="25"/>
-    </row>
-    <row r="61" spans="1:21" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="M60" s="18"/>
+      <c r="S60" s="25"/>
+    </row>
+    <row r="61" spans="1:24" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A61" s="14" t="s">
         <v>239</v>
       </c>
@@ -3597,18 +3836,21 @@
       <c r="I61" s="14"/>
       <c r="J61" s="14"/>
       <c r="K61" s="14"/>
-      <c r="L61" s="20"/>
-      <c r="M61" s="14"/>
+      <c r="L61" s="14"/>
+      <c r="M61" s="20"/>
       <c r="N61" s="14"/>
       <c r="O61" s="14"/>
       <c r="P61" s="14"/>
-      <c r="Q61" s="20"/>
+      <c r="Q61" s="14"/>
       <c r="R61" s="14"/>
-      <c r="S61" s="14"/>
+      <c r="S61" s="20"/>
       <c r="T61" s="14"/>
       <c r="U61" s="14"/>
-    </row>
-    <row r="62" spans="1:21" s="5" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="V61" s="14"/>
+      <c r="W61" s="14"/>
+      <c r="X61" s="14"/>
+    </row>
+    <row r="62" spans="1:24" s="5" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A62" s="5" t="s">
         <v>188</v>
       </c>
@@ -3628,10 +3870,10 @@
         <v>19</v>
       </c>
       <c r="G62" s="18"/>
-      <c r="L62" s="18"/>
-      <c r="Q62" s="25"/>
-    </row>
-    <row r="63" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="M62" s="18"/>
+      <c r="S62" s="25"/>
+    </row>
+    <row r="63" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A63" s="1" t="s">
         <v>63</v>
       </c>
@@ -3651,18 +3893,21 @@
         <v>207</v>
       </c>
       <c r="G63" s="18"/>
-      <c r="L63" s="18"/>
-      <c r="M63" s="15"/>
+      <c r="L63" s="46"/>
+      <c r="M63" s="18"/>
       <c r="N63" s="15"/>
       <c r="O63" s="15"/>
       <c r="P63" s="15"/>
-      <c r="Q63" s="25"/>
-      <c r="R63" s="36"/>
-      <c r="S63" s="36"/>
+      <c r="Q63" s="15"/>
+      <c r="R63" s="46"/>
+      <c r="S63" s="25"/>
       <c r="T63" s="36"/>
       <c r="U63" s="36"/>
-    </row>
-    <row r="64" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="V63" s="36"/>
+      <c r="W63" s="36"/>
+      <c r="X63" s="46"/>
+    </row>
+    <row r="64" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A64" s="5" t="s">
         <v>65</v>
       </c>
@@ -3682,10 +3927,10 @@
         <v>218</v>
       </c>
       <c r="G64" s="18"/>
-      <c r="L64" s="18"/>
-      <c r="Q64" s="25"/>
-    </row>
-    <row r="65" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="M64" s="18"/>
+      <c r="S64" s="25"/>
+    </row>
+    <row r="65" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
         <v>261</v>
       </c>
@@ -3705,10 +3950,10 @@
         <v>226</v>
       </c>
       <c r="G65" s="25"/>
-      <c r="L65" s="25"/>
-      <c r="Q65" s="25"/>
-    </row>
-    <row r="66" spans="1:21" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="M65" s="25"/>
+      <c r="S65" s="25"/>
+    </row>
+    <row r="66" spans="1:24" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A66" s="1" t="s">
         <v>68</v>
       </c>
@@ -3728,18 +3973,21 @@
         <v>210</v>
       </c>
       <c r="G66" s="18"/>
-      <c r="L66" s="18"/>
-      <c r="M66" s="15"/>
+      <c r="L66" s="46"/>
+      <c r="M66" s="18"/>
       <c r="N66" s="15"/>
       <c r="O66" s="15"/>
       <c r="P66" s="15"/>
-      <c r="Q66" s="25"/>
-      <c r="R66" s="36"/>
-      <c r="S66" s="36"/>
+      <c r="Q66" s="15"/>
+      <c r="R66" s="46"/>
+      <c r="S66" s="25"/>
       <c r="T66" s="36"/>
       <c r="U66" s="36"/>
-    </row>
-    <row r="67" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="V66" s="36"/>
+      <c r="W66" s="36"/>
+      <c r="X66" s="46"/>
+    </row>
+    <row r="67" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A67" s="1" t="s">
         <v>70</v>
       </c>
@@ -3759,18 +4007,21 @@
         <v>306</v>
       </c>
       <c r="G67" s="18"/>
-      <c r="L67" s="18"/>
-      <c r="M67" s="15"/>
+      <c r="L67" s="46"/>
+      <c r="M67" s="18"/>
       <c r="N67" s="15"/>
       <c r="O67" s="15"/>
       <c r="P67" s="15"/>
-      <c r="Q67" s="25"/>
-      <c r="R67" s="36"/>
-      <c r="S67" s="36"/>
+      <c r="Q67" s="15"/>
+      <c r="R67" s="46"/>
+      <c r="S67" s="25"/>
       <c r="T67" s="36"/>
       <c r="U67" s="36"/>
-    </row>
-    <row r="68" spans="1:21" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="V67" s="36"/>
+      <c r="W67" s="36"/>
+      <c r="X67" s="46"/>
+    </row>
+    <row r="68" spans="1:24" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A68" s="1" t="s">
         <v>191</v>
       </c>
@@ -3790,18 +4041,21 @@
         <v>208</v>
       </c>
       <c r="G68" s="18"/>
-      <c r="L68" s="18"/>
-      <c r="M68" s="15"/>
+      <c r="L68" s="46"/>
+      <c r="M68" s="18"/>
       <c r="N68" s="15"/>
       <c r="O68" s="15"/>
       <c r="P68" s="15"/>
-      <c r="Q68" s="25"/>
-      <c r="R68" s="36"/>
-      <c r="S68" s="36"/>
+      <c r="Q68" s="15"/>
+      <c r="R68" s="46"/>
+      <c r="S68" s="25"/>
       <c r="T68" s="36"/>
       <c r="U68" s="36"/>
-    </row>
-    <row r="69" spans="1:21" s="22" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="V68" s="36"/>
+      <c r="W68" s="36"/>
+      <c r="X68" s="46"/>
+    </row>
+    <row r="69" spans="1:24" s="22" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A69" s="22" t="s">
         <v>253</v>
       </c>
@@ -3821,14 +4075,17 @@
         <v>254</v>
       </c>
       <c r="G69" s="18"/>
-      <c r="L69" s="18"/>
-      <c r="Q69" s="25"/>
-      <c r="R69" s="36"/>
-      <c r="S69" s="36"/>
+      <c r="L69" s="46"/>
+      <c r="M69" s="18"/>
+      <c r="R69" s="46"/>
+      <c r="S69" s="25"/>
       <c r="T69" s="36"/>
       <c r="U69" s="36"/>
-    </row>
-    <row r="70" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="V69" s="36"/>
+      <c r="W69" s="36"/>
+      <c r="X69" s="46"/>
+    </row>
+    <row r="70" spans="1:24" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A70" s="1" t="s">
         <v>72</v>
       </c>
@@ -3857,10 +4114,10 @@
       <c r="K70" s="39" t="s">
         <v>308</v>
       </c>
-      <c r="L70" s="25"/>
-      <c r="M70" s="39" t="s">
-        <v>309</v>
-      </c>
+      <c r="L70" s="46" t="s">
+        <v>308</v>
+      </c>
+      <c r="M70" s="25"/>
       <c r="N70" s="39" t="s">
         <v>309</v>
       </c>
@@ -3870,21 +4127,30 @@
       <c r="P70" s="39" t="s">
         <v>309</v>
       </c>
-      <c r="Q70" s="25"/>
-      <c r="R70" s="39" t="s">
-        <v>310</v>
-      </c>
-      <c r="S70" s="39" t="s">
-        <v>310</v>
-      </c>
+      <c r="Q70" s="39" t="s">
+        <v>309</v>
+      </c>
+      <c r="R70" s="46" t="s">
+        <v>309</v>
+      </c>
+      <c r="S70" s="25"/>
       <c r="T70" s="39" t="s">
         <v>310</v>
       </c>
       <c r="U70" s="39" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="71" spans="1:21" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="V70" s="39" t="s">
+        <v>310</v>
+      </c>
+      <c r="W70" s="39" t="s">
+        <v>310</v>
+      </c>
+      <c r="X70" s="46" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="71" spans="1:24" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A71" s="40" t="s">
         <v>194</v>
       </c>
@@ -3902,18 +4168,21 @@
       </c>
       <c r="F71" s="40"/>
       <c r="G71" s="18"/>
-      <c r="L71" s="18"/>
-      <c r="M71" s="15"/>
+      <c r="L71" s="46"/>
+      <c r="M71" s="18"/>
       <c r="N71" s="15"/>
       <c r="O71" s="15"/>
       <c r="P71" s="15"/>
-      <c r="Q71" s="25"/>
-      <c r="R71" s="36"/>
-      <c r="S71" s="36"/>
+      <c r="Q71" s="15"/>
+      <c r="R71" s="46"/>
+      <c r="S71" s="25"/>
       <c r="T71" s="36"/>
       <c r="U71" s="36"/>
-    </row>
-    <row r="72" spans="1:21" s="45" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="V71" s="36"/>
+      <c r="W71" s="36"/>
+      <c r="X71" s="46"/>
+    </row>
+    <row r="72" spans="1:24" s="45" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A72" s="45" t="s">
         <v>317</v>
       </c>
@@ -3933,10 +4202,13 @@
         <v>226</v>
       </c>
       <c r="G72" s="25"/>
-      <c r="L72" s="25"/>
-      <c r="Q72" s="25"/>
-    </row>
-    <row r="73" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="L72" s="46"/>
+      <c r="M72" s="25"/>
+      <c r="R72" s="46"/>
+      <c r="S72" s="25"/>
+      <c r="X72" s="46"/>
+    </row>
+    <row r="73" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A73" s="5" t="s">
         <v>74</v>
       </c>
@@ -3956,10 +4228,10 @@
         <v>4</v>
       </c>
       <c r="G73" s="18"/>
-      <c r="L73" s="18"/>
-      <c r="Q73" s="25"/>
-    </row>
-    <row r="74" spans="1:21" s="5" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="M73" s="18"/>
+      <c r="S73" s="25"/>
+    </row>
+    <row r="74" spans="1:24" s="5" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A74" s="37" t="s">
         <v>315</v>
       </c>
@@ -3979,10 +4251,10 @@
         <v>4</v>
       </c>
       <c r="G74" s="25"/>
-      <c r="L74" s="25"/>
-      <c r="Q74" s="25"/>
-    </row>
-    <row r="75" spans="1:21" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="M74" s="25"/>
+      <c r="S74" s="25"/>
+    </row>
+    <row r="75" spans="1:24" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A75" s="1" t="s">
         <v>217</v>
       </c>
@@ -4002,18 +4274,21 @@
         <v>16</v>
       </c>
       <c r="G75" s="18"/>
-      <c r="L75" s="18"/>
-      <c r="M75" s="15"/>
+      <c r="L75" s="46"/>
+      <c r="M75" s="18"/>
       <c r="N75" s="15"/>
       <c r="O75" s="15"/>
       <c r="P75" s="15"/>
-      <c r="Q75" s="25"/>
-      <c r="R75" s="36"/>
-      <c r="S75" s="36"/>
+      <c r="Q75" s="15"/>
+      <c r="R75" s="46"/>
+      <c r="S75" s="25"/>
       <c r="T75" s="36"/>
       <c r="U75" s="36"/>
-    </row>
-    <row r="76" spans="1:21" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="V75" s="36"/>
+      <c r="W75" s="36"/>
+      <c r="X75" s="46"/>
+    </row>
+    <row r="76" spans="1:24" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A76" s="1" t="s">
         <v>76</v>
       </c>
@@ -4033,18 +4308,21 @@
         <v>4</v>
       </c>
       <c r="G76" s="18"/>
-      <c r="L76" s="18"/>
-      <c r="M76" s="15"/>
+      <c r="L76" s="46"/>
+      <c r="M76" s="18"/>
       <c r="N76" s="15"/>
       <c r="O76" s="15"/>
       <c r="P76" s="15"/>
-      <c r="Q76" s="25"/>
-      <c r="R76" s="36"/>
-      <c r="S76" s="36"/>
+      <c r="Q76" s="15"/>
+      <c r="R76" s="46"/>
+      <c r="S76" s="25"/>
       <c r="T76" s="36"/>
       <c r="U76" s="36"/>
-    </row>
-    <row r="77" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="V76" s="36"/>
+      <c r="W76" s="36"/>
+      <c r="X76" s="46"/>
+    </row>
+    <row r="77" spans="1:24" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A77" s="1" t="s">
         <v>78</v>
       </c>
@@ -4074,10 +4352,10 @@
       <c r="K77" s="39" t="s">
         <v>308</v>
       </c>
-      <c r="L77" s="25"/>
-      <c r="M77" s="39" t="s">
-        <v>309</v>
-      </c>
+      <c r="L77" s="46" t="s">
+        <v>308</v>
+      </c>
+      <c r="M77" s="25"/>
       <c r="N77" s="39" t="s">
         <v>309</v>
       </c>
@@ -4087,21 +4365,30 @@
       <c r="P77" s="39" t="s">
         <v>309</v>
       </c>
-      <c r="Q77" s="25"/>
-      <c r="R77" s="39" t="s">
-        <v>310</v>
-      </c>
-      <c r="S77" s="39" t="s">
-        <v>310</v>
-      </c>
+      <c r="Q77" s="39" t="s">
+        <v>309</v>
+      </c>
+      <c r="R77" s="46" t="s">
+        <v>309</v>
+      </c>
+      <c r="S77" s="25"/>
       <c r="T77" s="39" t="s">
         <v>310</v>
       </c>
       <c r="U77" s="39" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="78" spans="1:21" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="V77" s="39" t="s">
+        <v>310</v>
+      </c>
+      <c r="W77" s="39" t="s">
+        <v>310</v>
+      </c>
+      <c r="X77" s="46" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="78" spans="1:24" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A78" s="1" t="s">
         <v>80</v>
       </c>
@@ -4121,18 +4408,21 @@
         <v>269</v>
       </c>
       <c r="G78" s="18"/>
-      <c r="L78" s="18"/>
-      <c r="M78" s="15"/>
+      <c r="L78" s="46"/>
+      <c r="M78" s="18"/>
       <c r="N78" s="15"/>
       <c r="O78" s="15"/>
       <c r="P78" s="15"/>
-      <c r="Q78" s="25"/>
-      <c r="R78" s="36"/>
-      <c r="S78" s="36"/>
+      <c r="Q78" s="15"/>
+      <c r="R78" s="46"/>
+      <c r="S78" s="25"/>
       <c r="T78" s="36"/>
       <c r="U78" s="36"/>
-    </row>
-    <row r="79" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="V78" s="36"/>
+      <c r="W78" s="36"/>
+      <c r="X78" s="46"/>
+    </row>
+    <row r="79" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A79" s="5" t="s">
         <v>83</v>
       </c>
@@ -4152,10 +4442,10 @@
         <v>305</v>
       </c>
       <c r="G79" s="18"/>
-      <c r="L79" s="18"/>
-      <c r="Q79" s="25"/>
-    </row>
-    <row r="80" spans="1:21" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="M79" s="18"/>
+      <c r="S79" s="25"/>
+    </row>
+    <row r="80" spans="1:24" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A80" s="1" t="s">
         <v>195</v>
       </c>
@@ -4175,18 +4465,21 @@
         <v>19</v>
       </c>
       <c r="G80" s="18"/>
-      <c r="L80" s="18"/>
-      <c r="M80" s="15"/>
+      <c r="L80" s="46"/>
+      <c r="M80" s="18"/>
       <c r="N80" s="15"/>
       <c r="O80" s="15"/>
       <c r="P80" s="15"/>
-      <c r="Q80" s="25"/>
-      <c r="R80" s="36"/>
-      <c r="S80" s="36"/>
+      <c r="Q80" s="15"/>
+      <c r="R80" s="46"/>
+      <c r="S80" s="25"/>
       <c r="T80" s="36"/>
       <c r="U80" s="36"/>
-    </row>
-    <row r="81" spans="1:21" s="5" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="V80" s="36"/>
+      <c r="W80" s="36"/>
+      <c r="X80" s="46"/>
+    </row>
+    <row r="81" spans="1:25" s="5" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A81" s="5" t="s">
         <v>198</v>
       </c>
@@ -4206,10 +4499,10 @@
         <v>211</v>
       </c>
       <c r="G81" s="18"/>
-      <c r="L81" s="18"/>
-      <c r="Q81" s="25"/>
-    </row>
-    <row r="82" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="M81" s="18"/>
+      <c r="S81" s="25"/>
+    </row>
+    <row r="82" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A82" s="1" t="s">
         <v>85</v>
       </c>
@@ -4238,10 +4531,10 @@
       <c r="K82" s="15" t="s">
         <v>284</v>
       </c>
-      <c r="L82" s="18"/>
-      <c r="M82" s="15" t="s">
-        <v>285</v>
-      </c>
+      <c r="L82" s="46" t="s">
+        <v>284</v>
+      </c>
+      <c r="M82" s="18"/>
       <c r="N82" s="15" t="s">
         <v>285</v>
       </c>
@@ -4251,21 +4544,30 @@
       <c r="P82" s="15" t="s">
         <v>285</v>
       </c>
-      <c r="Q82" s="25"/>
-      <c r="R82" s="36" t="s">
-        <v>286</v>
-      </c>
-      <c r="S82" s="36" t="s">
-        <v>286</v>
-      </c>
+      <c r="Q82" s="15" t="s">
+        <v>285</v>
+      </c>
+      <c r="R82" s="46" t="s">
+        <v>285</v>
+      </c>
+      <c r="S82" s="25"/>
       <c r="T82" s="36" t="s">
         <v>286</v>
       </c>
       <c r="U82" s="36" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="83" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="V82" s="36" t="s">
+        <v>286</v>
+      </c>
+      <c r="W82" s="36" t="s">
+        <v>286</v>
+      </c>
+      <c r="X82" s="46" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="83" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A83" s="1" t="s">
         <v>87</v>
       </c>
@@ -4285,18 +4587,21 @@
         <v>88</v>
       </c>
       <c r="G83" s="18"/>
-      <c r="L83" s="18"/>
-      <c r="M83" s="15"/>
+      <c r="L83" s="46"/>
+      <c r="M83" s="18"/>
       <c r="N83" s="15"/>
       <c r="O83" s="15"/>
       <c r="P83" s="15"/>
-      <c r="Q83" s="25"/>
-      <c r="R83" s="36"/>
-      <c r="S83" s="36"/>
+      <c r="Q83" s="15"/>
+      <c r="R83" s="46"/>
+      <c r="S83" s="25"/>
       <c r="T83" s="36"/>
       <c r="U83" s="36"/>
-    </row>
-    <row r="84" spans="1:21" s="5" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="V83" s="36"/>
+      <c r="W83" s="36"/>
+      <c r="X83" s="46"/>
+    </row>
+    <row r="84" spans="1:25" s="5" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A84" s="5" t="s">
         <v>91</v>
       </c>
@@ -4316,10 +4621,10 @@
         <v>92</v>
       </c>
       <c r="G84" s="18"/>
-      <c r="L84" s="18"/>
-      <c r="Q84" s="25"/>
-    </row>
-    <row r="85" spans="1:21" s="5" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="M84" s="18"/>
+      <c r="S84" s="25"/>
+    </row>
+    <row r="85" spans="1:25" s="5" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A85" s="5" t="s">
         <v>148</v>
       </c>
@@ -4339,367 +4644,414 @@
         <v>16</v>
       </c>
       <c r="G85" s="18"/>
-      <c r="L85" s="18"/>
-      <c r="Q85" s="25"/>
-    </row>
-    <row r="86" spans="1:21" s="1" customFormat="1" ht="58.3" x14ac:dyDescent="0.4">
-      <c r="A86" s="1" t="s">
+      <c r="M85" s="18"/>
+      <c r="S85" s="25"/>
+    </row>
+    <row r="86" spans="1:25" s="5" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A86" s="37" t="s">
+        <v>324</v>
+      </c>
+      <c r="B86" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="C86" s="37" t="s">
+        <v>325</v>
+      </c>
+      <c r="D86" s="37" t="b">
+        <v>0</v>
+      </c>
+      <c r="E86" s="37" t="b">
+        <v>1</v>
+      </c>
+      <c r="F86" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="G86" s="25"/>
+      <c r="H86" s="37"/>
+      <c r="I86" s="37"/>
+      <c r="J86" s="37"/>
+      <c r="K86" s="37"/>
+      <c r="L86" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="M86" s="38"/>
+      <c r="N86" s="37"/>
+      <c r="O86" s="37"/>
+      <c r="P86" s="37"/>
+      <c r="Q86" s="37"/>
+      <c r="R86" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="S86" s="38"/>
+      <c r="T86" s="37"/>
+      <c r="U86" s="37"/>
+      <c r="V86" s="37"/>
+      <c r="W86" s="37"/>
+      <c r="X86" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y86" s="37"/>
+    </row>
+    <row r="87" spans="1:25" s="1" customFormat="1" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A87" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B86" s="1" t="s">
+      <c r="B87" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C86" s="1" t="s">
+      <c r="C87" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D86" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E86" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F86" s="1" t="s">
+      <c r="D87" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E87" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F87" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="G86" s="18"/>
-      <c r="L86" s="18"/>
-      <c r="M86" s="15"/>
-      <c r="N86" s="15"/>
-      <c r="O86" s="15"/>
-      <c r="P86" s="15"/>
-      <c r="Q86" s="25"/>
-      <c r="R86" s="36"/>
-      <c r="S86" s="36"/>
-      <c r="T86" s="36"/>
-      <c r="U86" s="36"/>
-    </row>
-    <row r="87" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A87" s="1" t="s">
+      <c r="G87" s="18"/>
+      <c r="L87" s="46"/>
+      <c r="M87" s="18"/>
+      <c r="N87" s="15"/>
+      <c r="O87" s="15"/>
+      <c r="P87" s="15"/>
+      <c r="Q87" s="15"/>
+      <c r="R87" s="46"/>
+      <c r="S87" s="25"/>
+      <c r="T87" s="36"/>
+      <c r="U87" s="36"/>
+      <c r="V87" s="36"/>
+      <c r="W87" s="36"/>
+      <c r="X87" s="46"/>
+    </row>
+    <row r="88" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A88" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="B87" s="6"/>
-      <c r="C87" s="6"/>
-      <c r="D87" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E87" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G87" s="18"/>
-      <c r="H87" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I87" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J87" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K87" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="L87" s="18"/>
-      <c r="M87" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="N87" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="O87" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="P87" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q87" s="25"/>
-      <c r="R87" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="S87" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="T87" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="U87" s="36" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="88" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A88" s="1" t="s">
+      <c r="B88" s="6"/>
+      <c r="C88" s="6"/>
+      <c r="D88" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E88" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G88" s="18"/>
+      <c r="H88" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I88" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J88" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K88" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L88" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="M88" s="18"/>
+      <c r="N88" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="O88" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="P88" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q88" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="R88" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="S88" s="25"/>
+      <c r="T88" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="U88" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="V88" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="W88" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="X88" s="46" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="89" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A89" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B88" s="1" t="s">
+      <c r="B89" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C88" s="1" t="s">
+      <c r="C89" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="D88" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E88" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F88" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G88" s="18"/>
-      <c r="L88" s="18"/>
-      <c r="M88" s="15"/>
-      <c r="N88" s="15"/>
-      <c r="O88" s="15"/>
-      <c r="P88" s="15"/>
-      <c r="Q88" s="25"/>
-      <c r="R88" s="36"/>
-      <c r="S88" s="36"/>
-      <c r="T88" s="36"/>
-      <c r="U88" s="36"/>
-    </row>
-    <row r="89" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A89" s="29" t="s">
-        <v>98</v>
-      </c>
-      <c r="B89" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="C89" s="29" t="s">
-        <v>99</v>
-      </c>
-      <c r="D89" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="E89" s="29" t="b">
-        <v>0</v>
-      </c>
-      <c r="F89" s="29" t="s">
-        <v>267</v>
-      </c>
-      <c r="G89" s="25"/>
-      <c r="L89" s="25"/>
-      <c r="Q89" s="25"/>
-      <c r="R89" s="36"/>
-      <c r="S89" s="36"/>
+      <c r="D89" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E89" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G89" s="18"/>
+      <c r="L89" s="46"/>
+      <c r="M89" s="18"/>
+      <c r="N89" s="15"/>
+      <c r="O89" s="15"/>
+      <c r="P89" s="15"/>
+      <c r="Q89" s="15"/>
+      <c r="R89" s="46"/>
+      <c r="S89" s="25"/>
       <c r="T89" s="36"/>
       <c r="U89" s="36"/>
-    </row>
-    <row r="90" spans="1:21" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A90" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="D90" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E90" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F90" s="10" t="s">
-        <v>251</v>
-      </c>
-      <c r="G90" s="18"/>
-      <c r="L90" s="18"/>
-      <c r="M90" s="15"/>
-      <c r="N90" s="15"/>
-      <c r="O90" s="15"/>
-      <c r="P90" s="15"/>
-      <c r="Q90" s="25"/>
-      <c r="R90" s="36"/>
-      <c r="S90" s="36"/>
+      <c r="V89" s="36"/>
+      <c r="W89" s="36"/>
+      <c r="X89" s="46"/>
+    </row>
+    <row r="90" spans="1:25" s="29" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A90" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="B90" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="C90" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="D90" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="E90" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="F90" s="29" t="s">
+        <v>267</v>
+      </c>
+      <c r="G90" s="25"/>
+      <c r="L90" s="46"/>
+      <c r="M90" s="25"/>
+      <c r="R90" s="46"/>
+      <c r="S90" s="25"/>
       <c r="T90" s="36"/>
       <c r="U90" s="36"/>
-    </row>
-    <row r="91" spans="1:21" s="12" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A91" s="12" t="s">
-        <v>247</v>
-      </c>
-      <c r="B91" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="C91" s="12" t="s">
-        <v>249</v>
-      </c>
-      <c r="D91" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="E91" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="F91" s="4" t="s">
-        <v>250</v>
+      <c r="V90" s="36"/>
+      <c r="W90" s="36"/>
+      <c r="X90" s="46"/>
+    </row>
+    <row r="91" spans="1:25" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A91" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D91" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E91" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F91" s="10" t="s">
+        <v>251</v>
       </c>
       <c r="G91" s="18"/>
-      <c r="L91" s="18"/>
-      <c r="M91" s="15"/>
+      <c r="L91" s="46"/>
+      <c r="M91" s="18"/>
       <c r="N91" s="15"/>
       <c r="O91" s="15"/>
       <c r="P91" s="15"/>
-      <c r="Q91" s="25"/>
-      <c r="R91" s="36"/>
-      <c r="S91" s="36"/>
+      <c r="Q91" s="15"/>
+      <c r="R91" s="46"/>
+      <c r="S91" s="25"/>
       <c r="T91" s="36"/>
       <c r="U91" s="36"/>
-    </row>
-    <row r="92" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A92" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="B92" s="6"/>
-      <c r="C92" s="6"/>
-      <c r="D92" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E92" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F92" s="15" t="s">
-        <v>305</v>
+      <c r="V91" s="36"/>
+      <c r="W91" s="36"/>
+      <c r="X91" s="46"/>
+    </row>
+    <row r="92" spans="1:25" s="12" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A92" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="B92" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="C92" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="D92" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="E92" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="F92" s="4" t="s">
+        <v>250</v>
       </c>
       <c r="G92" s="18"/>
-      <c r="I92" s="33"/>
-      <c r="J92" s="33"/>
-      <c r="K92" s="33"/>
-      <c r="L92" s="18"/>
-      <c r="M92" s="33"/>
-      <c r="N92" s="33"/>
-      <c r="O92" s="33"/>
-      <c r="P92" s="33"/>
-      <c r="Q92" s="25"/>
-      <c r="R92" s="36"/>
-      <c r="S92" s="36"/>
+      <c r="L92" s="46"/>
+      <c r="M92" s="18"/>
+      <c r="N92" s="15"/>
+      <c r="O92" s="15"/>
+      <c r="P92" s="15"/>
+      <c r="Q92" s="15"/>
+      <c r="R92" s="46"/>
+      <c r="S92" s="25"/>
       <c r="T92" s="36"/>
       <c r="U92" s="36"/>
-    </row>
-    <row r="93" spans="1:21" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="V92" s="36"/>
+      <c r="W92" s="36"/>
+      <c r="X92" s="46"/>
+    </row>
+    <row r="93" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A93" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>101</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="B93" s="6"/>
+      <c r="C93" s="6"/>
       <c r="D93" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E93" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F93" s="1" t="s">
-        <v>16</v>
+      <c r="F93" s="15" t="s">
+        <v>305</v>
       </c>
       <c r="G93" s="18"/>
-      <c r="L93" s="18"/>
-      <c r="M93" s="15"/>
-      <c r="N93" s="15"/>
-      <c r="O93" s="15"/>
-      <c r="P93" s="15"/>
-      <c r="Q93" s="25"/>
-      <c r="R93" s="36"/>
-      <c r="S93" s="36"/>
+      <c r="I93" s="33"/>
+      <c r="J93" s="33"/>
+      <c r="K93" s="33"/>
+      <c r="L93" s="46"/>
+      <c r="M93" s="18"/>
+      <c r="N93" s="33"/>
+      <c r="O93" s="33"/>
+      <c r="P93" s="33"/>
+      <c r="Q93" s="33"/>
+      <c r="R93" s="46"/>
+      <c r="S93" s="25"/>
       <c r="T93" s="36"/>
       <c r="U93" s="36"/>
-    </row>
-    <row r="94" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A94" t="s">
+      <c r="V93" s="36"/>
+      <c r="W93" s="36"/>
+      <c r="X93" s="46"/>
+    </row>
+    <row r="94" spans="1:25" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A94" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D94" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E94" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G94" s="18"/>
+      <c r="L94" s="46"/>
+      <c r="M94" s="18"/>
+      <c r="N94" s="15"/>
+      <c r="O94" s="15"/>
+      <c r="P94" s="15"/>
+      <c r="Q94" s="15"/>
+      <c r="R94" s="46"/>
+      <c r="S94" s="25"/>
+      <c r="T94" s="36"/>
+      <c r="U94" s="36"/>
+      <c r="V94" s="36"/>
+      <c r="W94" s="36"/>
+      <c r="X94" s="46"/>
+    </row>
+    <row r="95" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A95" t="s">
         <v>291</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B95" t="s">
         <v>10</v>
       </c>
-      <c r="C94" t="s">
+      <c r="C95" t="s">
         <v>292</v>
       </c>
-      <c r="D94" t="b">
-        <v>1</v>
-      </c>
-      <c r="E94" t="b">
-        <v>1</v>
-      </c>
-      <c r="F94" t="s">
+      <c r="D95" t="b">
+        <v>1</v>
+      </c>
+      <c r="E95" t="b">
+        <v>1</v>
+      </c>
+      <c r="F95" t="s">
         <v>305</v>
       </c>
-      <c r="G94" s="25"/>
-      <c r="L94" s="25"/>
-      <c r="Q94" s="25"/>
-    </row>
-    <row r="95" spans="1:21" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A95" s="1" t="s">
+      <c r="G95" s="25"/>
+      <c r="M95" s="25"/>
+      <c r="S95" s="25"/>
+    </row>
+    <row r="96" spans="1:25" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A96" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B95" s="1" t="s">
+      <c r="B96" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C95" s="1" t="s">
+      <c r="C96" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D95" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E95" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F95" s="4" t="s">
+      <c r="D96" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E96" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F96" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="G95" s="18"/>
-      <c r="L95" s="18"/>
-      <c r="M95" s="15"/>
-      <c r="N95" s="15"/>
-      <c r="O95" s="15"/>
-      <c r="P95" s="15"/>
-      <c r="Q95" s="25"/>
-      <c r="R95" s="36"/>
-      <c r="S95" s="36"/>
-      <c r="T95" s="36"/>
-      <c r="U95" s="36"/>
-    </row>
-    <row r="96" spans="1:21" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A96" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D96" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E96" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F96" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="G96" s="18"/>
-      <c r="L96" s="18"/>
-      <c r="M96" s="15"/>
+      <c r="L96" s="46"/>
+      <c r="M96" s="18"/>
       <c r="N96" s="15"/>
       <c r="O96" s="15"/>
       <c r="P96" s="15"/>
-      <c r="Q96" s="25"/>
-      <c r="R96" s="36"/>
-      <c r="S96" s="36"/>
+      <c r="Q96" s="15"/>
+      <c r="R96" s="46"/>
+      <c r="S96" s="25"/>
       <c r="T96" s="36"/>
       <c r="U96" s="36"/>
-    </row>
-    <row r="97" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="V96" s="36"/>
+      <c r="W96" s="36"/>
+      <c r="X96" s="46"/>
+    </row>
+    <row r="97" spans="1:24" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A97" s="1" t="s">
-        <v>203</v>
+        <v>104</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>204</v>
+        <v>105</v>
       </c>
       <c r="D97" s="1" t="b">
         <v>0</v>
@@ -4707,137 +5059,163 @@
       <c r="E97" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="F97" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="G97" s="18"/>
-      <c r="L97" s="18"/>
-      <c r="M97" s="15"/>
+      <c r="L97" s="46"/>
+      <c r="M97" s="18"/>
       <c r="N97" s="15"/>
       <c r="O97" s="15"/>
       <c r="P97" s="15"/>
-      <c r="Q97" s="25"/>
-      <c r="R97" s="36"/>
-      <c r="S97" s="36"/>
+      <c r="Q97" s="15"/>
+      <c r="R97" s="46"/>
+      <c r="S97" s="25"/>
       <c r="T97" s="36"/>
       <c r="U97" s="36"/>
-    </row>
-    <row r="98" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="V97" s="36"/>
+      <c r="W97" s="36"/>
+      <c r="X97" s="46"/>
+    </row>
+    <row r="98" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A98" s="1" t="s">
-        <v>106</v>
+        <v>203</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>108</v>
+        <v>5</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>109</v>
+        <v>204</v>
       </c>
       <c r="D98" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E98" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F98" s="1" t="s">
-        <v>107</v>
+        <v>1</v>
       </c>
       <c r="G98" s="18"/>
-      <c r="L98" s="18"/>
-      <c r="M98" s="15"/>
+      <c r="L98" s="46"/>
+      <c r="M98" s="18"/>
       <c r="N98" s="15"/>
       <c r="O98" s="15"/>
       <c r="P98" s="15"/>
-      <c r="Q98" s="25"/>
-      <c r="R98" s="36"/>
-      <c r="S98" s="36"/>
+      <c r="Q98" s="15"/>
+      <c r="R98" s="46"/>
+      <c r="S98" s="25"/>
       <c r="T98" s="36"/>
       <c r="U98" s="36"/>
-    </row>
-    <row r="99" spans="1:21" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="V98" s="36"/>
+      <c r="W98" s="36"/>
+      <c r="X98" s="46"/>
+    </row>
+    <row r="99" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A99" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D99" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E99" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G99" s="18"/>
+      <c r="L99" s="46"/>
+      <c r="M99" s="18"/>
+      <c r="N99" s="15"/>
+      <c r="O99" s="15"/>
+      <c r="P99" s="15"/>
+      <c r="Q99" s="15"/>
+      <c r="R99" s="46"/>
+      <c r="S99" s="25"/>
+      <c r="T99" s="36"/>
+      <c r="U99" s="36"/>
+      <c r="V99" s="36"/>
+      <c r="W99" s="36"/>
+      <c r="X99" s="46"/>
+    </row>
+    <row r="100" spans="1:24" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A100" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B99" s="1" t="s">
+      <c r="B100" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C99" s="1" t="s">
+      <c r="C100" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="D99" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E99" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G99" s="18"/>
-      <c r="H99" s="39" t="s">
+      <c r="D100" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E100" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G100" s="18"/>
+      <c r="H100" s="39" t="s">
         <v>308</v>
       </c>
-      <c r="I99" s="39" t="s">
+      <c r="I100" s="39" t="s">
         <v>308</v>
       </c>
-      <c r="J99" s="39" t="s">
+      <c r="J100" s="39" t="s">
         <v>308</v>
       </c>
-      <c r="K99" s="39" t="s">
+      <c r="K100" s="39" t="s">
         <v>308</v>
       </c>
-      <c r="L99" s="25"/>
-      <c r="M99" s="39" t="s">
+      <c r="L100" s="46" t="s">
+        <v>308</v>
+      </c>
+      <c r="M100" s="25"/>
+      <c r="N100" s="39" t="s">
         <v>309</v>
       </c>
-      <c r="N99" s="39" t="s">
+      <c r="O100" s="39" t="s">
         <v>309</v>
       </c>
-      <c r="O99" s="39" t="s">
+      <c r="P100" s="39" t="s">
         <v>309</v>
       </c>
-      <c r="P99" s="39" t="s">
+      <c r="Q100" s="39" t="s">
         <v>309</v>
       </c>
-      <c r="Q99" s="25"/>
-      <c r="R99" s="39" t="s">
+      <c r="R100" s="46" t="s">
+        <v>309</v>
+      </c>
+      <c r="S100" s="25"/>
+      <c r="T100" s="39" t="s">
         <v>310</v>
       </c>
-      <c r="S99" s="39" t="s">
+      <c r="U100" s="39" t="s">
         <v>310</v>
       </c>
-      <c r="T99" s="39" t="s">
+      <c r="V100" s="39" t="s">
         <v>310</v>
       </c>
-      <c r="U99" s="39" t="s">
+      <c r="W100" s="39" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="100" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A100" s="5" t="s">
+      <c r="X100" s="46" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="101" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A101" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="B100" s="5" t="s">
+      <c r="B101" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C100" s="5" t="s">
+      <c r="C101" s="5" t="s">
         <v>113</v>
-      </c>
-      <c r="D100" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E100" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="F100" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="G100" s="18"/>
-      <c r="L100" s="18"/>
-      <c r="Q100" s="25"/>
-    </row>
-    <row r="101" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A101" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="B101" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C101" s="5" t="s">
-        <v>115</v>
       </c>
       <c r="D101" s="5" t="b">
         <v>1</v>
@@ -4849,100 +5227,67 @@
         <v>218</v>
       </c>
       <c r="G101" s="18"/>
-      <c r="L101" s="18"/>
-      <c r="Q101" s="25"/>
-    </row>
-    <row r="102" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="M101" s="18"/>
+      <c r="S101" s="25"/>
+    </row>
+    <row r="102" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A102" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C102" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D102" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E102" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F102" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="G102" s="18"/>
+      <c r="M102" s="18"/>
+      <c r="S102" s="25"/>
+    </row>
+    <row r="103" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A103" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="B102" s="5" t="s">
+      <c r="B103" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C102" s="5" t="s">
+      <c r="C103" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="D102" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E102" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="F102" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G102" s="18"/>
-      <c r="L102" s="18"/>
-      <c r="Q102" s="25"/>
-    </row>
-    <row r="103" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A103" s="1" t="s">
+      <c r="D103" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E103" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F103" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G103" s="18"/>
+      <c r="M103" s="18"/>
+      <c r="S103" s="25"/>
+    </row>
+    <row r="104" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A104" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D103" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E103" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G103" s="18"/>
-      <c r="H103" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I103" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J103" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K103" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="L103" s="18"/>
-      <c r="M103" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="N103" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="O103" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="P103" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q103" s="25"/>
-      <c r="R103" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="S103" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="T103" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="U103" s="36" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="104" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A104" s="1" t="s">
-        <v>120</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D104" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E104" s="1" t="b">
         <v>1</v>
@@ -4960,10 +5305,10 @@
       <c r="K104" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="L104" s="18"/>
-      <c r="M104" s="15" t="s">
-        <v>4</v>
-      </c>
+      <c r="L104" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="M104" s="18"/>
       <c r="N104" s="15" t="s">
         <v>4</v>
       </c>
@@ -4973,39 +5318,48 @@
       <c r="P104" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="Q104" s="25"/>
-      <c r="R104" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="S104" s="36" t="s">
-        <v>4</v>
-      </c>
+      <c r="Q104" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="R104" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="S104" s="25"/>
       <c r="T104" s="36" t="s">
         <v>4</v>
       </c>
       <c r="U104" s="36" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="105" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="V104" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="W104" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="X104" s="46" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A105" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D105" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E105" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G105" s="18"/>
       <c r="H105" s="1" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="I105" s="1" t="s">
         <v>4</v>
@@ -5016,10 +5370,10 @@
       <c r="K105" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="L105" s="18"/>
-      <c r="M105" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="L105" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="M105" s="18"/>
       <c r="N105" s="15" t="s">
         <v>4</v>
       </c>
@@ -5029,178 +5383,202 @@
       <c r="P105" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="Q105" s="25"/>
-      <c r="R105" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="S105" s="36" t="s">
-        <v>4</v>
-      </c>
+      <c r="Q105" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="R105" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="S105" s="25"/>
       <c r="T105" s="36" t="s">
         <v>4</v>
       </c>
       <c r="U105" s="36" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="106" spans="1:21" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="V105" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="W105" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="X105" s="46" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A106" s="1" t="s">
-        <v>152</v>
+        <v>122</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C106" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D106" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E106" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G106" s="18"/>
+      <c r="H106" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I106" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J106" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K106" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L106" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="M106" s="18"/>
+      <c r="N106" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="O106" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="P106" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q106" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="R106" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="S106" s="25"/>
+      <c r="T106" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="U106" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="V106" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="W106" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="X106" s="46" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="107" spans="1:24" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A107" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C107" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="D106" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E106" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F106" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G106" s="18"/>
-      <c r="H106"/>
-      <c r="I106"/>
-      <c r="J106"/>
-      <c r="K106"/>
-      <c r="L106" s="18"/>
-      <c r="M106" s="15"/>
-      <c r="N106" s="15"/>
-      <c r="O106" s="15"/>
-      <c r="P106" s="15"/>
-      <c r="Q106" s="25"/>
-      <c r="R106" s="36"/>
-      <c r="S106" s="36"/>
-      <c r="T106" s="36"/>
-      <c r="U106" s="36"/>
-    </row>
-    <row r="107" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A107" t="s">
-        <v>293</v>
-      </c>
-      <c r="B107" t="s">
-        <v>5</v>
-      </c>
-      <c r="C107" t="s">
-        <v>294</v>
-      </c>
-      <c r="D107" t="b">
-        <v>0</v>
-      </c>
-      <c r="E107" t="b">
-        <v>1</v>
-      </c>
-      <c r="F107" t="s">
-        <v>4</v>
-      </c>
-      <c r="G107" s="25"/>
+      <c r="D107" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E107" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G107" s="18"/>
       <c r="H107"/>
       <c r="I107"/>
       <c r="J107"/>
       <c r="K107"/>
-      <c r="L107" s="25"/>
-      <c r="M107"/>
-      <c r="N107"/>
-      <c r="O107"/>
-      <c r="P107"/>
-      <c r="Q107" s="25"/>
-      <c r="R107"/>
-      <c r="S107"/>
-      <c r="T107"/>
-      <c r="U107"/>
-    </row>
-    <row r="108" spans="1:21" s="5" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A108" s="5" t="s">
+      <c r="L107"/>
+      <c r="M107" s="18"/>
+      <c r="N107" s="15"/>
+      <c r="O107" s="15"/>
+      <c r="P107" s="15"/>
+      <c r="Q107" s="15"/>
+      <c r="R107" s="46"/>
+      <c r="S107" s="25"/>
+      <c r="T107" s="36"/>
+      <c r="U107" s="36"/>
+      <c r="V107" s="36"/>
+      <c r="W107" s="36"/>
+      <c r="X107" s="46"/>
+    </row>
+    <row r="108" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A108" t="s">
+        <v>293</v>
+      </c>
+      <c r="B108" t="s">
+        <v>5</v>
+      </c>
+      <c r="C108" t="s">
+        <v>294</v>
+      </c>
+      <c r="D108" t="b">
+        <v>0</v>
+      </c>
+      <c r="E108" t="b">
+        <v>1</v>
+      </c>
+      <c r="F108" t="s">
+        <v>4</v>
+      </c>
+      <c r="G108" s="25"/>
+      <c r="H108"/>
+      <c r="I108"/>
+      <c r="J108"/>
+      <c r="K108"/>
+      <c r="L108"/>
+      <c r="M108" s="25"/>
+      <c r="N108"/>
+      <c r="O108"/>
+      <c r="P108"/>
+      <c r="Q108"/>
+      <c r="R108"/>
+      <c r="S108" s="25"/>
+      <c r="T108"/>
+      <c r="U108"/>
+      <c r="V108"/>
+      <c r="W108"/>
+      <c r="X108"/>
+    </row>
+    <row r="109" spans="1:24" s="5" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A109" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="B108" s="5" t="s">
+      <c r="B109" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="C108" s="5" t="s">
+      <c r="C109" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="D108" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E108" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="F108" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G108" s="18"/>
-      <c r="L108" s="18"/>
-      <c r="Q108" s="25"/>
-    </row>
-    <row r="109" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A109" s="1" t="s">
+      <c r="D109" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E109" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F109" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G109" s="18"/>
+      <c r="M109" s="18"/>
+      <c r="S109" s="25"/>
+    </row>
+    <row r="110" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A110" s="1" t="s">
         <v>127</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="D109" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E109" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G109" s="18"/>
-      <c r="H109" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I109" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J109" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K109" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="L109" s="18"/>
-      <c r="M109" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="N109" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="O109" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="P109" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q109" s="25"/>
-      <c r="R109" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="S109" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="T109" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="U109" s="36" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="110" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A110" s="1" t="s">
-        <v>238</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D110" s="1" t="b">
         <v>1</v>
@@ -5221,12 +5599,12 @@
       <c r="K110" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="L110" s="18"/>
-      <c r="M110" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="L110" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="M110" s="18"/>
       <c r="N110" s="15" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="O110" s="15" t="s">
         <v>4</v>
@@ -5234,169 +5612,261 @@
       <c r="P110" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="Q110" s="25"/>
-      <c r="R110" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="S110" s="36" t="s">
-        <v>4</v>
-      </c>
+      <c r="Q110" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="R110" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="S110" s="25"/>
       <c r="T110" s="36" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="U110" s="36" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="111" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="V110" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="W110" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="X110" s="46" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A111" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D111" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E111" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G111" s="18"/>
+      <c r="H111" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I111" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J111" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K111" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L111" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="M111" s="18"/>
+      <c r="N111" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="O111" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="P111" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q111" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="R111" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="S111" s="25"/>
+      <c r="T111" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="U111" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="V111" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="W111" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="X111" s="46" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="112" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A112" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B111" s="1" t="s">
+      <c r="B112" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C111" s="1" t="s">
+      <c r="C112" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="D111" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E111" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F111" s="1" t="s">
+      <c r="D112" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E112" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F112" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="G111" s="18"/>
-      <c r="L111" s="18"/>
-      <c r="M111" s="15"/>
-      <c r="N111" s="15"/>
-      <c r="O111" s="15"/>
-      <c r="P111" s="15"/>
-      <c r="Q111" s="25"/>
-      <c r="R111" s="36"/>
-      <c r="S111" s="36"/>
-      <c r="T111" s="36"/>
-      <c r="U111" s="36"/>
-    </row>
-    <row r="112" spans="1:21" s="43" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A112" s="43" t="s">
+      <c r="G112" s="18"/>
+      <c r="L112" s="46"/>
+      <c r="M112" s="18"/>
+      <c r="N112" s="15"/>
+      <c r="O112" s="15"/>
+      <c r="P112" s="15"/>
+      <c r="Q112" s="15"/>
+      <c r="R112" s="46"/>
+      <c r="S112" s="25"/>
+      <c r="T112" s="36"/>
+      <c r="U112" s="36"/>
+      <c r="V112" s="36"/>
+      <c r="W112" s="36"/>
+      <c r="X112" s="46"/>
+    </row>
+    <row r="113" spans="1:24" s="43" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A113" s="43" t="s">
         <v>313</v>
       </c>
-      <c r="B112" s="43" t="s">
+      <c r="B113" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="C112" s="43" t="s">
+      <c r="C113" s="43" t="s">
         <v>314</v>
       </c>
-      <c r="D112" s="43" t="b">
-        <v>1</v>
-      </c>
-      <c r="E112" s="43" t="b">
-        <v>1</v>
-      </c>
-      <c r="G112" s="25"/>
-      <c r="H112" s="43" t="s">
+      <c r="D113" s="43" t="b">
+        <v>1</v>
+      </c>
+      <c r="E113" s="43" t="b">
+        <v>1</v>
+      </c>
+      <c r="G113" s="25"/>
+      <c r="H113" s="43" t="s">
         <v>308</v>
       </c>
-      <c r="I112" s="43" t="s">
+      <c r="I113" s="43" t="s">
         <v>308</v>
       </c>
-      <c r="J112" s="43" t="s">
+      <c r="J113" s="43" t="s">
         <v>308</v>
       </c>
-      <c r="K112" s="43" t="s">
+      <c r="K113" s="43" t="s">
         <v>308</v>
       </c>
-      <c r="L112" s="25"/>
-      <c r="M112" s="43" t="s">
+      <c r="L113" s="46" t="s">
+        <v>308</v>
+      </c>
+      <c r="M113" s="25"/>
+      <c r="N113" s="43" t="s">
         <v>309</v>
       </c>
-      <c r="N112" s="43" t="s">
+      <c r="O113" s="43" t="s">
         <v>309</v>
       </c>
-      <c r="O112" s="43" t="s">
+      <c r="P113" s="43" t="s">
         <v>309</v>
       </c>
-      <c r="P112" s="43" t="s">
+      <c r="Q113" s="43" t="s">
         <v>309</v>
       </c>
-      <c r="Q112" s="25"/>
-      <c r="R112" s="43" t="s">
+      <c r="R113" s="46" t="s">
+        <v>309</v>
+      </c>
+      <c r="S113" s="25"/>
+      <c r="T113" s="43" t="s">
         <v>310</v>
       </c>
-      <c r="S112" s="43" t="s">
+      <c r="U113" s="43" t="s">
         <v>310</v>
       </c>
-      <c r="T112" s="43" t="s">
+      <c r="V113" s="43" t="s">
         <v>310</v>
       </c>
-      <c r="U112" s="43" t="s">
+      <c r="W113" s="43" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="113" spans="1:21" s="23" customFormat="1" ht="58.3" x14ac:dyDescent="0.4">
-      <c r="A113" s="24" t="s">
+      <c r="X113" s="46" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="114" spans="1:24" s="23" customFormat="1" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A114" s="24" t="s">
         <v>256</v>
       </c>
-      <c r="B113" s="24" t="s">
+      <c r="B114" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="C113" s="24" t="s">
+      <c r="C114" s="24" t="s">
         <v>257</v>
       </c>
-      <c r="D113" s="24" t="b">
-        <v>1</v>
-      </c>
-      <c r="E113" s="24" t="b">
-        <v>1</v>
-      </c>
-      <c r="F113" s="24" t="s">
+      <c r="D114" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="E114" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="F114" s="24" t="s">
         <v>258</v>
       </c>
-      <c r="G113" s="25"/>
-      <c r="H113" s="24"/>
-      <c r="I113" s="24"/>
-      <c r="J113" s="24"/>
-      <c r="K113" s="24"/>
-      <c r="L113" s="25"/>
-      <c r="M113" s="24"/>
-      <c r="Q113" s="25"/>
-      <c r="R113" s="36"/>
-      <c r="S113" s="36"/>
-      <c r="T113" s="36"/>
-      <c r="U113" s="36"/>
-    </row>
-    <row r="114" spans="1:21" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A114" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C114" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="D114" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E114" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F114" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="G114" s="18"/>
-      <c r="L114" s="18"/>
-      <c r="M114" s="15"/>
-      <c r="N114" s="15"/>
-      <c r="O114" s="15"/>
-      <c r="P114" s="15"/>
-      <c r="Q114" s="25"/>
-      <c r="R114" s="36"/>
-      <c r="S114" s="36"/>
+      <c r="G114" s="25"/>
+      <c r="H114" s="24"/>
+      <c r="I114" s="24"/>
+      <c r="J114" s="24"/>
+      <c r="K114" s="24"/>
+      <c r="L114" s="46"/>
+      <c r="M114" s="25"/>
+      <c r="N114" s="24"/>
+      <c r="R114" s="46"/>
+      <c r="S114" s="25"/>
       <c r="T114" s="36"/>
       <c r="U114" s="36"/>
+      <c r="V114" s="36"/>
+      <c r="W114" s="36"/>
+      <c r="X114" s="46"/>
+    </row>
+    <row r="115" spans="1:24" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A115" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D115" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E115" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="G115" s="18"/>
+      <c r="L115" s="46"/>
+      <c r="M115" s="18"/>
+      <c r="N115" s="15"/>
+      <c r="O115" s="15"/>
+      <c r="P115" s="15"/>
+      <c r="Q115" s="15"/>
+      <c r="R115" s="46"/>
+      <c r="S115" s="25"/>
+      <c r="T115" s="36"/>
+      <c r="U115" s="36"/>
+      <c r="V115" s="36"/>
+      <c r="W115" s="36"/>
+      <c r="X115" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/src/main/resources/input/Kennisnet/props/Kennisnet.xlsx
+++ b/src/main/resources/input/Kennisnet/props/Kennisnet.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\gitprojects\Imvertor-Maven\src\main\resources\input\Kennisnet\props\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C6157F6-71B9-4771-AF2A-DAB011FD6B44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28740" windowHeight="12060"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="20057" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Kennisnet" sheetId="3" r:id="rId1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="778" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="339">
   <si>
     <t>Name</t>
   </si>
@@ -1003,12 +1004,51 @@
   </si>
   <si>
     <t>Should a regression test be performed on the results of this run?</t>
+  </si>
+  <si>
+    <t>metamodelname</t>
+  </si>
+  <si>
+    <t>Name of the metamodel. When this is a MIM model, specify MIM</t>
+  </si>
+  <si>
+    <t>MIM</t>
+  </si>
+  <si>
+    <t>metamodelversion</t>
+  </si>
+  <si>
+    <t>Version of the metamodel. When this is a MIM model, specify the MIM version</t>
+  </si>
+  <si>
+    <t>metamodelextension</t>
+  </si>
+  <si>
+    <t>Name of the extension. When this is a MIM model, specify the MIM extension name</t>
+  </si>
+  <si>
+    <t>metamodelextensionversion</t>
+  </si>
+  <si>
+    <t>Vetsion of the extension. When this is a MIM model, specify the MIM extension version</t>
+  </si>
+  <si>
+    <t>1.1</t>
+  </si>
+  <si>
+    <t>MUG</t>
+  </si>
+  <si>
+    <t>MBG</t>
+  </si>
+  <si>
+    <t>1.0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1134,7 +1174,7 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1156,22 +1196,10 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="4" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
@@ -1187,49 +1215,7 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="4"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="4" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
@@ -1241,38 +1227,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Bad" xfId="2" builtinId="27"/>
-    <cellStyle name="Check Cell" xfId="1" builtinId="23"/>
-    <cellStyle name="Explanatory Text" xfId="3" builtinId="53"/>
-    <cellStyle name="Good" xfId="4" builtinId="26"/>
+    <cellStyle name="Controlecel" xfId="1" builtinId="23"/>
+    <cellStyle name="Goed" xfId="4" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Ongeldig" xfId="2" builtinId="27"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Verklarende tekst" xfId="3" builtinId="53"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1549,17 +1511,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Y115"/>
+  <dimension ref="A1:Y119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="G75" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B56" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H86" sqref="H86:Y86"/>
+      <selection pane="bottomRight" activeCell="A72" sqref="A72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1570,18 +1532,18 @@
     <col min="4" max="4" width="13.23046875" customWidth="1"/>
     <col min="5" max="5" width="16" customWidth="1"/>
     <col min="6" max="6" width="28" customWidth="1"/>
-    <col min="7" max="7" width="5.4609375" style="21" customWidth="1"/>
+    <col min="7" max="7" width="5.4609375" style="17" customWidth="1"/>
     <col min="8" max="9" width="14.765625" customWidth="1"/>
     <col min="10" max="10" width="14.3046875" customWidth="1"/>
     <col min="11" max="11" width="15.765625" customWidth="1"/>
     <col min="12" max="12" width="10.765625" customWidth="1"/>
-    <col min="13" max="13" width="5.4609375" style="21" customWidth="1"/>
+    <col min="13" max="13" width="5.4609375" style="17" customWidth="1"/>
     <col min="14" max="14" width="16.15234375" customWidth="1"/>
     <col min="15" max="15" width="16.07421875" customWidth="1"/>
     <col min="16" max="16" width="15.69140625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="15.765625" customWidth="1"/>
     <col min="18" max="18" width="13.69140625" customWidth="1"/>
-    <col min="19" max="19" width="5.4609375" style="21" customWidth="1"/>
+    <col min="19" max="19" width="5.4609375" style="17" customWidth="1"/>
     <col min="20" max="20" width="16.15234375" customWidth="1"/>
     <col min="21" max="21" width="16.07421875" customWidth="1"/>
     <col min="22" max="22" width="15.69140625" bestFit="1" customWidth="1"/>
@@ -1609,7 +1571,7 @@
       <c r="F1" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="G1" s="16"/>
+      <c r="G1" s="12"/>
       <c r="H1" s="3" t="s">
         <v>252</v>
       </c>
@@ -1625,7 +1587,7 @@
       <c r="L1" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="M1" s="16"/>
+      <c r="M1" s="12"/>
       <c r="N1" s="3" t="s">
         <v>252</v>
       </c>
@@ -1641,7 +1603,7 @@
       <c r="R1" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="S1" s="16"/>
+      <c r="S1" s="12"/>
       <c r="T1" s="3" t="s">
         <v>252</v>
       </c>
@@ -1663,7 +1625,7 @@
     </row>
     <row r="2" spans="1:25" s="3" customFormat="1" ht="56.15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F2" s="2"/>
-      <c r="G2" s="17"/>
+      <c r="G2" s="13"/>
       <c r="H2" s="2" t="s">
         <v>287</v>
       </c>
@@ -1679,7 +1641,7 @@
       <c r="L2" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="M2" s="17"/>
+      <c r="M2" s="13"/>
       <c r="N2" s="2" t="s">
         <v>276</v>
       </c>
@@ -1695,7 +1657,7 @@
       <c r="R2" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="S2" s="17"/>
+      <c r="S2" s="13"/>
       <c r="T2" s="2" t="s">
         <v>279</v>
       </c>
@@ -1728,20 +1690,9 @@
       <c r="E3" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="G3" s="18"/>
-      <c r="L3" s="46"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="15"/>
-      <c r="R3" s="46"/>
-      <c r="S3" s="25"/>
-      <c r="T3" s="36"/>
-      <c r="U3" s="36"/>
-      <c r="V3" s="36"/>
-      <c r="W3" s="36"/>
-      <c r="X3" s="46"/>
+      <c r="G3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="S3" s="14"/>
     </row>
     <row r="4" spans="1:25" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
@@ -1762,20 +1713,9 @@
       <c r="F4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="18"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="18"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="15"/>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="15"/>
-      <c r="R4" s="46"/>
-      <c r="S4" s="25"/>
-      <c r="T4" s="36"/>
-      <c r="U4" s="36"/>
-      <c r="V4" s="36"/>
-      <c r="W4" s="36"/>
-      <c r="X4" s="46"/>
+      <c r="G4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="S4" s="14"/>
     </row>
     <row r="5" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
@@ -1796,20 +1736,9 @@
       <c r="F5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="18"/>
-      <c r="L5" s="46"/>
-      <c r="M5" s="18"/>
-      <c r="N5" s="15"/>
-      <c r="O5" s="15"/>
-      <c r="P5" s="15"/>
-      <c r="Q5" s="15"/>
-      <c r="R5" s="46"/>
-      <c r="S5" s="25"/>
-      <c r="T5" s="36"/>
-      <c r="U5" s="36"/>
-      <c r="V5" s="36"/>
-      <c r="W5" s="36"/>
-      <c r="X5" s="46"/>
+      <c r="G5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="S5" s="14"/>
     </row>
     <row r="6" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A6" s="5" t="s">
@@ -1827,60 +1756,38 @@
       <c r="E6" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="G6" s="18"/>
-      <c r="M6" s="18"/>
-      <c r="S6" s="25"/>
+      <c r="G6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="S6" s="14"/>
     </row>
     <row r="7" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="47" t="s">
+      <c r="A7" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="47" t="s">
+      <c r="B7" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="47" t="s">
+      <c r="C7" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="47" t="b">
+      <c r="D7" s="21" t="b">
         <v>1</v>
       </c>
       <c r="E7" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="G7" s="18"/>
-      <c r="L7" s="46"/>
-      <c r="M7" s="18"/>
-      <c r="N7" s="15"/>
-      <c r="O7" s="15"/>
-      <c r="P7" s="15"/>
-      <c r="Q7" s="15"/>
-      <c r="R7" s="46"/>
-      <c r="S7" s="25"/>
-      <c r="T7" s="36"/>
-      <c r="U7" s="36"/>
-      <c r="V7" s="36"/>
-      <c r="W7" s="36"/>
-      <c r="X7" s="46"/>
+      <c r="G7" s="14"/>
+      <c r="M7" s="14"/>
+      <c r="S7" s="14"/>
     </row>
     <row r="8" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="47"/>
-      <c r="B8" s="47"/>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
-      <c r="G8" s="18"/>
-      <c r="L8" s="46"/>
-      <c r="M8" s="18"/>
-      <c r="N8" s="15"/>
-      <c r="O8" s="15"/>
-      <c r="P8" s="15"/>
-      <c r="Q8" s="15"/>
-      <c r="R8" s="46"/>
-      <c r="S8" s="25"/>
-      <c r="T8" s="36"/>
-      <c r="U8" s="36"/>
-      <c r="V8" s="36"/>
-      <c r="W8" s="36"/>
-      <c r="X8" s="46"/>
+      <c r="A8" s="21"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="G8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="S8" s="14"/>
     </row>
     <row r="9" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A9" s="5" t="s">
@@ -1901,9 +1808,9 @@
       <c r="F9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="18"/>
-      <c r="M9" s="18"/>
-      <c r="S9" s="25"/>
+      <c r="G9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="S9" s="14"/>
     </row>
     <row r="10" spans="1:25" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
@@ -1924,20 +1831,9 @@
       <c r="F10" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G10" s="18"/>
-      <c r="L10" s="46"/>
-      <c r="M10" s="18"/>
-      <c r="N10" s="15"/>
-      <c r="O10" s="15"/>
-      <c r="P10" s="15"/>
-      <c r="Q10" s="15"/>
-      <c r="R10" s="46"/>
-      <c r="S10" s="25"/>
-      <c r="T10" s="36"/>
-      <c r="U10" s="36"/>
-      <c r="V10" s="36"/>
-      <c r="W10" s="36"/>
-      <c r="X10" s="46"/>
+      <c r="G10" s="14"/>
+      <c r="M10" s="14"/>
+      <c r="S10" s="14"/>
     </row>
     <row r="11" spans="1:25" s="5" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A11" s="5" t="s">
@@ -1955,9 +1851,9 @@
       <c r="E11" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="G11" s="18"/>
-      <c r="M11" s="18"/>
-      <c r="S11" s="25"/>
+      <c r="G11" s="14"/>
+      <c r="M11" s="14"/>
+      <c r="S11" s="14"/>
     </row>
     <row r="12" spans="1:25" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
@@ -1978,54 +1874,32 @@
       <c r="F12" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G12" s="18"/>
-      <c r="L12" s="46"/>
-      <c r="M12" s="18"/>
-      <c r="N12" s="15"/>
-      <c r="O12" s="15"/>
-      <c r="P12" s="15"/>
-      <c r="Q12" s="15"/>
-      <c r="R12" s="46"/>
-      <c r="S12" s="25"/>
-      <c r="T12" s="36"/>
-      <c r="U12" s="36"/>
-      <c r="V12" s="36"/>
-      <c r="W12" s="36"/>
-      <c r="X12" s="46"/>
-    </row>
-    <row r="13" spans="1:25" s="11" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="11" t="s">
+      <c r="G12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="S12" s="14"/>
+    </row>
+    <row r="13" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="D13" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="E13" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="F13" s="11" t="s">
+      <c r="D13" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E13" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="G13" s="18"/>
-      <c r="L13" s="46"/>
-      <c r="M13" s="18"/>
-      <c r="N13" s="15"/>
-      <c r="O13" s="15"/>
-      <c r="P13" s="15"/>
-      <c r="Q13" s="15"/>
-      <c r="R13" s="46"/>
-      <c r="S13" s="25"/>
-      <c r="T13" s="36"/>
-      <c r="U13" s="36"/>
-      <c r="V13" s="36"/>
-      <c r="W13" s="36"/>
-      <c r="X13" s="46"/>
+      <c r="G13" s="14"/>
+      <c r="M13" s="14"/>
+      <c r="S13" s="14"/>
     </row>
     <row r="14" spans="1:25" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
@@ -2046,20 +1920,9 @@
       <c r="F14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G14" s="18"/>
-      <c r="L14" s="46"/>
-      <c r="M14" s="18"/>
-      <c r="N14" s="15"/>
-      <c r="O14" s="15"/>
-      <c r="P14" s="15"/>
-      <c r="Q14" s="15"/>
-      <c r="R14" s="46"/>
-      <c r="S14" s="25"/>
-      <c r="T14" s="36"/>
-      <c r="U14" s="36"/>
-      <c r="V14" s="36"/>
-      <c r="W14" s="36"/>
-      <c r="X14" s="46"/>
+      <c r="G14" s="14"/>
+      <c r="M14" s="14"/>
+      <c r="S14" s="14"/>
     </row>
     <row r="15" spans="1:25" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
@@ -2077,7 +1940,7 @@
       <c r="E15" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="G15" s="18"/>
+      <c r="G15" s="14"/>
       <c r="H15" s="1" t="s">
         <v>19</v>
       </c>
@@ -2090,39 +1953,39 @@
       <c r="K15" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="L15" s="46" t="s">
+      <c r="L15" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="M15" s="18"/>
-      <c r="N15" s="15" t="s">
+      <c r="M15" s="14"/>
+      <c r="N15" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="O15" s="15" t="s">
+      <c r="O15" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="P15" s="15" t="s">
+      <c r="P15" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="Q15" s="15" t="s">
+      <c r="Q15" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="R15" s="46" t="s">
+      <c r="R15" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="S15" s="25"/>
-      <c r="T15" s="36" t="s">
+      <c r="S15" s="14"/>
+      <c r="T15" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U15" s="36" t="s">
+      <c r="U15" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="V15" s="36" t="s">
+      <c r="V15" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="W15" s="36" t="s">
+      <c r="W15" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="X15" s="46" t="s">
+      <c r="X15" s="1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2145,20 +2008,9 @@
       <c r="F16" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G16" s="18"/>
-      <c r="L16" s="46"/>
-      <c r="M16" s="18"/>
-      <c r="N16" s="15"/>
-      <c r="O16" s="15"/>
-      <c r="P16" s="15"/>
-      <c r="Q16" s="15"/>
-      <c r="R16" s="46"/>
-      <c r="S16" s="25"/>
-      <c r="T16" s="36"/>
-      <c r="U16" s="36"/>
-      <c r="V16" s="36"/>
-      <c r="W16" s="36"/>
-      <c r="X16" s="46"/>
+      <c r="G16" s="14"/>
+      <c r="M16" s="14"/>
+      <c r="S16" s="14"/>
     </row>
     <row r="17" spans="1:24" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
@@ -2179,20 +2031,9 @@
       <c r="F17" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="G17" s="18"/>
-      <c r="L17" s="46"/>
-      <c r="M17" s="18"/>
-      <c r="N17" s="15"/>
-      <c r="O17" s="15"/>
-      <c r="P17" s="15"/>
-      <c r="Q17" s="15"/>
-      <c r="R17" s="46"/>
-      <c r="S17" s="25"/>
-      <c r="T17" s="36"/>
-      <c r="U17" s="36"/>
-      <c r="V17" s="36"/>
-      <c r="W17" s="36"/>
-      <c r="X17" s="46"/>
+      <c r="G17" s="14"/>
+      <c r="M17" s="14"/>
+      <c r="S17" s="14"/>
     </row>
     <row r="18" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
@@ -2209,20 +2050,9 @@
       <c r="F18" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="G18" s="18"/>
-      <c r="L18" s="46"/>
-      <c r="M18" s="18"/>
-      <c r="N18" s="15"/>
-      <c r="O18" s="15"/>
-      <c r="P18" s="15"/>
-      <c r="Q18" s="15"/>
-      <c r="R18" s="46"/>
-      <c r="S18" s="25"/>
-      <c r="T18" s="36"/>
-      <c r="U18" s="36"/>
-      <c r="V18" s="36"/>
-      <c r="W18" s="36"/>
-      <c r="X18" s="46"/>
+      <c r="G18" s="14"/>
+      <c r="M18" s="14"/>
+      <c r="S18" s="14"/>
     </row>
     <row r="19" spans="1:24" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
@@ -2240,20 +2070,9 @@
       <c r="E19" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="G19" s="18"/>
-      <c r="L19" s="46"/>
-      <c r="M19" s="18"/>
-      <c r="N19" s="15"/>
-      <c r="O19" s="15"/>
-      <c r="P19" s="15"/>
-      <c r="Q19" s="15"/>
-      <c r="R19" s="46"/>
-      <c r="S19" s="25"/>
-      <c r="T19" s="36"/>
-      <c r="U19" s="36"/>
-      <c r="V19" s="36"/>
-      <c r="W19" s="36"/>
-      <c r="X19" s="46"/>
+      <c r="G19" s="14"/>
+      <c r="M19" s="14"/>
+      <c r="S19" s="14"/>
     </row>
     <row r="20" spans="1:24" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
@@ -2271,23 +2090,12 @@
       <c r="E20" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F20" s="32" t="s">
+      <c r="F20" s="18" t="s">
         <v>303</v>
       </c>
-      <c r="G20" s="18"/>
-      <c r="L20" s="46"/>
-      <c r="M20" s="18"/>
-      <c r="N20" s="15"/>
-      <c r="O20" s="15"/>
-      <c r="P20" s="15"/>
-      <c r="Q20" s="15"/>
-      <c r="R20" s="46"/>
-      <c r="S20" s="25"/>
-      <c r="T20" s="36"/>
-      <c r="U20" s="36"/>
-      <c r="V20" s="36"/>
-      <c r="W20" s="36"/>
-      <c r="X20" s="46"/>
+      <c r="G20" s="14"/>
+      <c r="M20" s="14"/>
+      <c r="S20" s="14"/>
     </row>
     <row r="21" spans="1:24" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
@@ -2305,23 +2113,12 @@
       <c r="E21" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F21" s="32" t="s">
+      <c r="F21" s="18" t="s">
         <v>304</v>
       </c>
-      <c r="G21" s="18"/>
-      <c r="L21" s="46"/>
-      <c r="M21" s="18"/>
-      <c r="N21" s="15"/>
-      <c r="O21" s="15"/>
-      <c r="P21" s="15"/>
-      <c r="Q21" s="15"/>
-      <c r="R21" s="46"/>
-      <c r="S21" s="25"/>
-      <c r="T21" s="36"/>
-      <c r="U21" s="36"/>
-      <c r="V21" s="36"/>
-      <c r="W21" s="36"/>
-      <c r="X21" s="46"/>
+      <c r="G21" s="14"/>
+      <c r="M21" s="14"/>
+      <c r="S21" s="14"/>
     </row>
     <row r="22" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
@@ -2339,7 +2136,7 @@
       <c r="E22" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="G22" s="18"/>
+      <c r="G22" s="14"/>
       <c r="H22" s="1" t="s">
         <v>16</v>
       </c>
@@ -2352,39 +2149,39 @@
       <c r="K22" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="L22" s="46" t="s">
-        <v>4</v>
-      </c>
-      <c r="M22" s="18"/>
-      <c r="N22" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="O22" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="P22" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q22" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="R22" s="46" t="s">
-        <v>4</v>
-      </c>
-      <c r="S22" s="25"/>
-      <c r="T22" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="U22" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="V22" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="W22" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="X22" s="46" t="s">
+      <c r="L22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M22" s="14"/>
+      <c r="N22" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="R22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="S22" s="14"/>
+      <c r="T22" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="U22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="V22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="W22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="X22" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2407,9 +2204,9 @@
       <c r="F23" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G23" s="18"/>
-      <c r="M23" s="18"/>
-      <c r="S23" s="25"/>
+      <c r="G23" s="14"/>
+      <c r="M23" s="14"/>
+      <c r="S23" s="14"/>
     </row>
     <row r="24" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A24" s="1" t="s">
@@ -2427,20 +2224,9 @@
       <c r="E24" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="G24" s="18"/>
-      <c r="L24" s="46"/>
-      <c r="M24" s="18"/>
-      <c r="N24" s="15"/>
-      <c r="O24" s="15"/>
-      <c r="P24" s="15"/>
-      <c r="Q24" s="15"/>
-      <c r="R24" s="46"/>
-      <c r="S24" s="25"/>
-      <c r="T24" s="36"/>
-      <c r="U24" s="36"/>
-      <c r="V24" s="36"/>
-      <c r="W24" s="36"/>
-      <c r="X24" s="46"/>
+      <c r="G24" s="14"/>
+      <c r="M24" s="14"/>
+      <c r="S24" s="14"/>
     </row>
     <row r="25" spans="1:24" s="1" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
@@ -2458,7 +2244,7 @@
       <c r="E25" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="G25" s="18"/>
+      <c r="G25" s="14"/>
       <c r="H25" s="1" t="s">
         <v>16</v>
       </c>
@@ -2471,39 +2257,39 @@
       <c r="K25" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="L25" s="46" t="s">
-        <v>16</v>
-      </c>
-      <c r="M25" s="18"/>
-      <c r="N25" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="O25" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="P25" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q25" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="R25" s="46" t="s">
-        <v>16</v>
-      </c>
-      <c r="S25" s="25"/>
-      <c r="T25" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="U25" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="V25" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="W25" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="X25" s="46" t="s">
+      <c r="L25" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M25" s="14"/>
+      <c r="N25" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P25" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q25" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="R25" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S25" s="14"/>
+      <c r="T25" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="U25" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="V25" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="W25" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="X25" s="1" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2523,7 +2309,7 @@
       <c r="E26" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="G26" s="18"/>
+      <c r="G26" s="14"/>
       <c r="H26" s="1" t="s">
         <v>16</v>
       </c>
@@ -2536,39 +2322,39 @@
       <c r="K26" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="L26" s="46" t="s">
-        <v>4</v>
-      </c>
-      <c r="M26" s="18"/>
-      <c r="N26" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="O26" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="P26" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q26" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="R26" s="46" t="s">
-        <v>4</v>
-      </c>
-      <c r="S26" s="25"/>
-      <c r="T26" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="U26" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="V26" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="W26" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="X26" s="46" t="s">
+      <c r="L26" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M26" s="14"/>
+      <c r="N26" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="P26" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q26" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="R26" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="S26" s="14"/>
+      <c r="T26" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="U26" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="V26" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="W26" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="X26" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2588,7 +2374,7 @@
       <c r="E27" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="G27" s="18"/>
+      <c r="G27" s="14"/>
       <c r="H27" s="1" t="s">
         <v>16</v>
       </c>
@@ -2601,39 +2387,39 @@
       <c r="K27" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="L27" s="46" t="s">
-        <v>16</v>
-      </c>
-      <c r="M27" s="18"/>
-      <c r="N27" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="O27" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="P27" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q27" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="R27" s="46" t="s">
-        <v>16</v>
-      </c>
-      <c r="S27" s="25"/>
-      <c r="T27" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="U27" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="V27" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="W27" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="X27" s="46" t="s">
+      <c r="L27" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M27" s="14"/>
+      <c r="N27" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O27" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P27" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q27" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="R27" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S27" s="14"/>
+      <c r="T27" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="U27" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="V27" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="W27" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="X27" s="1" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2653,7 +2439,7 @@
       <c r="E28" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="G28" s="18"/>
+      <c r="G28" s="14"/>
       <c r="H28" s="1" t="s">
         <v>16</v>
       </c>
@@ -2666,181 +2452,164 @@
       <c r="K28" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="L28" s="46" t="s">
-        <v>4</v>
-      </c>
-      <c r="M28" s="18"/>
-      <c r="N28" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="O28" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="P28" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q28" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="R28" s="46" t="s">
-        <v>4</v>
-      </c>
-      <c r="S28" s="25"/>
-      <c r="T28" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="U28" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="V28" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="W28" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="X28" s="46" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:24" s="26" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="26" t="s">
+      <c r="L28" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M28" s="14"/>
+      <c r="N28" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="P28" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q28" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="R28" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="S28" s="14"/>
+      <c r="T28" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="U28" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="V28" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="W28" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="X28" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="B29" s="26" t="s">
+      <c r="B29" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C29" s="26" t="s">
+      <c r="C29" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="D29" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="E29" s="26" t="b">
-        <v>1</v>
-      </c>
-      <c r="G29" s="25"/>
-      <c r="H29" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="I29" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="J29" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="K29" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="L29" s="46" t="s">
-        <v>16</v>
-      </c>
-      <c r="M29" s="25"/>
-      <c r="N29" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="O29" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="P29" s="42" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q29" s="42" t="s">
-        <v>16</v>
-      </c>
-      <c r="R29" s="46" t="s">
-        <v>16</v>
-      </c>
-      <c r="S29" s="25"/>
-      <c r="T29" s="42" t="s">
-        <v>16</v>
-      </c>
-      <c r="U29" s="42" t="s">
-        <v>16</v>
-      </c>
-      <c r="V29" s="42" t="s">
-        <v>16</v>
-      </c>
-      <c r="W29" s="42" t="s">
-        <v>16</v>
-      </c>
-      <c r="X29" s="46" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="30" spans="1:24" s="28" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="28" t="s">
+      <c r="D29" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E29" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G29" s="14"/>
+      <c r="H29" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M29" s="14"/>
+      <c r="N29" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O29" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P29" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q29" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R29" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S29" s="14"/>
+      <c r="T29" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="U29" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="V29" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="W29" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="X29" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="B30" s="28" t="s">
+      <c r="B30" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C30" s="28" t="s">
+      <c r="C30" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="D30" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="E30" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="F30" s="28" t="s">
+      <c r="D30" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E30" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F30" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="G30" s="25"/>
-      <c r="H30" s="29"/>
-      <c r="I30" s="30"/>
-      <c r="J30" s="30"/>
-      <c r="K30" s="30"/>
-      <c r="L30" s="46"/>
-      <c r="M30" s="25"/>
-      <c r="N30" s="30"/>
-      <c r="O30" s="30"/>
-      <c r="P30" s="30"/>
-      <c r="Q30" s="30"/>
-      <c r="R30" s="46"/>
-      <c r="S30" s="25"/>
-      <c r="T30" s="36"/>
-      <c r="U30" s="36"/>
-      <c r="V30" s="36"/>
-      <c r="W30" s="36"/>
-      <c r="X30" s="46"/>
-    </row>
-    <row r="31" spans="1:24" s="45" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="45" t="s">
+      <c r="G30" s="14"/>
+      <c r="M30" s="14"/>
+      <c r="S30" s="14"/>
+    </row>
+    <row r="31" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="B31" s="45" t="s">
+      <c r="B31" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C31" s="45" t="s">
+      <c r="C31" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="D31" s="45" t="b">
-        <v>0</v>
-      </c>
-      <c r="E31" s="45" t="b">
-        <v>1</v>
-      </c>
-      <c r="F31" s="45" t="s">
-        <v>16</v>
-      </c>
-      <c r="G31" s="25"/>
-      <c r="I31" s="45" t="s">
-        <v>4</v>
-      </c>
-      <c r="J31" s="45" t="s">
-        <v>4</v>
-      </c>
-      <c r="K31" s="45" t="s">
-        <v>4</v>
-      </c>
-      <c r="L31" s="46" t="s">
-        <v>4</v>
-      </c>
-      <c r="M31" s="25"/>
-      <c r="R31" s="46"/>
-      <c r="S31" s="25"/>
-      <c r="X31" s="46"/>
+      <c r="D31" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E31" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G31" s="14"/>
+      <c r="I31" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M31" s="14"/>
+      <c r="S31" s="14"/>
     </row>
     <row r="32" spans="1:24" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A32" s="1" t="s">
@@ -2861,31 +2630,21 @@
       <c r="F32" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G32" s="18"/>
+      <c r="G32" s="14"/>
       <c r="I32" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="J32" s="41" t="s">
+      <c r="J32" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="K32" s="41" t="s">
+      <c r="K32" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="L32" s="46" t="s">
+      <c r="L32" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="M32" s="18"/>
-      <c r="N32" s="15"/>
-      <c r="O32" s="15"/>
-      <c r="P32" s="15"/>
-      <c r="Q32" s="15"/>
-      <c r="R32" s="46"/>
-      <c r="S32" s="25"/>
-      <c r="T32" s="36"/>
-      <c r="U32" s="36"/>
-      <c r="V32" s="36"/>
-      <c r="W32" s="36"/>
-      <c r="X32" s="46"/>
+      <c r="M32" s="14"/>
+      <c r="S32" s="14"/>
     </row>
     <row r="33" spans="1:24" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A33" s="1" t="s">
@@ -2906,20 +2665,9 @@
       <c r="F33" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G33" s="18"/>
-      <c r="L33" s="46"/>
-      <c r="M33" s="18"/>
-      <c r="N33" s="15"/>
-      <c r="O33" s="15"/>
-      <c r="P33" s="15"/>
-      <c r="Q33" s="15"/>
-      <c r="R33" s="46"/>
-      <c r="S33" s="25"/>
-      <c r="T33" s="36"/>
-      <c r="U33" s="36"/>
-      <c r="V33" s="36"/>
-      <c r="W33" s="36"/>
-      <c r="X33" s="46"/>
+      <c r="G33" s="14"/>
+      <c r="M33" s="14"/>
+      <c r="S33" s="14"/>
     </row>
     <row r="34" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A34" s="1" t="s">
@@ -2940,50 +2688,32 @@
       <c r="F34" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="G34" s="18"/>
-      <c r="L34" s="46"/>
-      <c r="M34" s="18"/>
-      <c r="N34" s="15"/>
-      <c r="O34" s="15"/>
-      <c r="P34" s="15"/>
-      <c r="Q34" s="15"/>
-      <c r="R34" s="46"/>
-      <c r="S34" s="25"/>
-      <c r="T34" s="36"/>
-      <c r="U34" s="36"/>
-      <c r="V34" s="36"/>
-      <c r="W34" s="36"/>
-      <c r="X34" s="46"/>
-    </row>
-    <row r="35" spans="1:24" s="35" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A35" s="35" t="s">
+      <c r="G34" s="14"/>
+      <c r="M34" s="14"/>
+      <c r="S34" s="14"/>
+    </row>
+    <row r="35" spans="1:24" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A35" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="B35" s="35" t="s">
+      <c r="B35" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="C35" s="35" t="s">
+      <c r="C35" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="D35" s="35" t="b">
-        <v>0</v>
-      </c>
-      <c r="E35" s="35" t="b">
-        <v>1</v>
-      </c>
-      <c r="F35" s="35" t="s">
+      <c r="D35" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E35" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F35" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="G35" s="25"/>
-      <c r="L35" s="46"/>
-      <c r="M35" s="25"/>
-      <c r="R35" s="46"/>
-      <c r="S35" s="25"/>
-      <c r="T35" s="36"/>
-      <c r="U35" s="36"/>
-      <c r="V35" s="36"/>
-      <c r="W35" s="36"/>
-      <c r="X35" s="46"/>
+      <c r="G35" s="14"/>
+      <c r="M35" s="14"/>
+      <c r="S35" s="14"/>
     </row>
     <row r="36" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A36" s="1" t="s">
@@ -3004,43 +2734,32 @@
       <c r="F36" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G36" s="18"/>
-      <c r="L36" s="46"/>
-      <c r="M36" s="18"/>
-      <c r="N36" s="15"/>
-      <c r="O36" s="15"/>
-      <c r="P36" s="15"/>
-      <c r="Q36" s="15"/>
-      <c r="R36" s="46"/>
-      <c r="S36" s="25"/>
-      <c r="T36" s="36"/>
-      <c r="U36" s="36"/>
-      <c r="V36" s="36"/>
-      <c r="W36" s="36"/>
-      <c r="X36" s="46"/>
-    </row>
-    <row r="37" spans="1:24" s="37" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="37" t="s">
+      <c r="G36" s="14"/>
+      <c r="M36" s="14"/>
+      <c r="S36" s="14"/>
+    </row>
+    <row r="37" spans="1:24" s="19" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="19" t="s">
         <v>289</v>
       </c>
-      <c r="B37" s="37" t="s">
+      <c r="B37" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C37" s="37" t="s">
+      <c r="C37" s="19" t="s">
         <v>290</v>
       </c>
-      <c r="D37" s="37" t="b">
-        <v>0</v>
-      </c>
-      <c r="E37" s="37" t="b">
-        <v>1</v>
-      </c>
-      <c r="F37" s="37" t="s">
-        <v>16</v>
-      </c>
-      <c r="G37" s="38"/>
-      <c r="M37" s="38"/>
-      <c r="S37" s="38"/>
+      <c r="D37" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="E37" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="F37" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="G37" s="20"/>
+      <c r="M37" s="20"/>
+      <c r="S37" s="20"/>
     </row>
     <row r="38" spans="1:24" s="1" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A38" s="1" t="s">
@@ -3061,20 +2780,9 @@
       <c r="F38" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G38" s="18"/>
-      <c r="L38" s="46"/>
-      <c r="M38" s="18"/>
-      <c r="N38" s="15"/>
-      <c r="O38" s="15"/>
-      <c r="P38" s="15"/>
-      <c r="Q38" s="15"/>
-      <c r="R38" s="46"/>
-      <c r="S38" s="25"/>
-      <c r="T38" s="36"/>
-      <c r="U38" s="36"/>
-      <c r="V38" s="36"/>
-      <c r="W38" s="36"/>
-      <c r="X38" s="46"/>
+      <c r="G38" s="14"/>
+      <c r="M38" s="14"/>
+      <c r="S38" s="14"/>
     </row>
     <row r="39" spans="1:24" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A39" s="1" t="s">
@@ -3095,20 +2803,9 @@
       <c r="F39" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G39" s="18"/>
-      <c r="L39" s="46"/>
-      <c r="M39" s="18"/>
-      <c r="N39" s="15"/>
-      <c r="O39" s="15"/>
-      <c r="P39" s="15"/>
-      <c r="Q39" s="15"/>
-      <c r="R39" s="46"/>
-      <c r="S39" s="25"/>
-      <c r="T39" s="36"/>
-      <c r="U39" s="36"/>
-      <c r="V39" s="36"/>
-      <c r="W39" s="36"/>
-      <c r="X39" s="46"/>
+      <c r="G39" s="14"/>
+      <c r="M39" s="14"/>
+      <c r="S39" s="14"/>
     </row>
     <row r="40" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A40" s="1" t="s">
@@ -3126,7 +2823,7 @@
       <c r="E40" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="G40" s="18"/>
+      <c r="G40" s="14"/>
       <c r="H40" s="1" t="s">
         <v>16</v>
       </c>
@@ -3139,104 +2836,104 @@
       <c r="K40" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L40" s="46" t="s">
-        <v>16</v>
-      </c>
-      <c r="M40" s="18"/>
-      <c r="N40" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="O40" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="P40" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q40" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="R40" s="46" t="s">
-        <v>16</v>
-      </c>
-      <c r="S40" s="25"/>
-      <c r="T40" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="U40" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="V40" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="W40" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="X40" s="46" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="41" spans="1:24" s="28" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A41" s="28" t="s">
+      <c r="L40" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M40" s="14"/>
+      <c r="N40" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O40" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P40" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q40" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R40" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S40" s="14"/>
+      <c r="T40" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="U40" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="V40" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="W40" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="X40" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A41" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="B41" s="28" t="s">
+      <c r="B41" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C41" s="28" t="s">
+      <c r="C41" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="D41" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="E41" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="G41" s="25"/>
-      <c r="H41" s="34" t="s">
+      <c r="D41" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E41" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G41" s="14"/>
+      <c r="H41" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="I41" s="39" t="s">
+      <c r="I41" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="J41" s="39" t="s">
+      <c r="J41" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="K41" s="39" t="s">
+      <c r="K41" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="L41" s="46" t="s">
+      <c r="L41" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="M41" s="25"/>
-      <c r="N41" s="28" t="s">
+      <c r="M41" s="14"/>
+      <c r="N41" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="O41" s="39" t="s">
+      <c r="O41" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="P41" s="39" t="s">
+      <c r="P41" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="Q41" s="39" t="s">
+      <c r="Q41" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="R41" s="46" t="s">
+      <c r="R41" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="S41" s="25"/>
-      <c r="T41" s="36" t="s">
+      <c r="S41" s="14"/>
+      <c r="T41" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="U41" s="39" t="s">
+      <c r="U41" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="V41" s="39" t="s">
+      <c r="V41" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="W41" s="39" t="s">
+      <c r="W41" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="X41" s="46" t="s">
+      <c r="X41" s="1" t="s">
         <v>310</v>
       </c>
     </row>
@@ -3259,20 +2956,9 @@
       <c r="F42" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G42" s="18"/>
-      <c r="L42" s="46"/>
-      <c r="M42" s="18"/>
-      <c r="N42" s="15"/>
-      <c r="O42" s="15"/>
-      <c r="P42" s="15"/>
-      <c r="Q42" s="15"/>
-      <c r="R42" s="46"/>
-      <c r="S42" s="25"/>
-      <c r="T42" s="36"/>
-      <c r="U42" s="36"/>
-      <c r="V42" s="36"/>
-      <c r="W42" s="36"/>
-      <c r="X42" s="46"/>
+      <c r="G42" s="14"/>
+      <c r="M42" s="14"/>
+      <c r="S42" s="14"/>
     </row>
     <row r="43" spans="1:24" s="5" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A43" s="5" t="s">
@@ -3293,9 +2979,9 @@
       <c r="F43" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G43" s="18"/>
-      <c r="M43" s="18"/>
-      <c r="S43" s="25"/>
+      <c r="G43" s="14"/>
+      <c r="M43" s="14"/>
+      <c r="S43" s="14"/>
     </row>
     <row r="44" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A44" s="5" t="s">
@@ -3316,21 +3002,21 @@
       <c r="F44" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="G44" s="18"/>
-      <c r="M44" s="18"/>
-      <c r="S44" s="25"/>
+      <c r="G44" s="14"/>
+      <c r="M44" s="14"/>
+      <c r="S44" s="14"/>
     </row>
     <row r="45" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="47" t="s">
+      <c r="A45" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="B45" s="47" t="s">
+      <c r="B45" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C45" s="47" t="s">
+      <c r="C45" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="D45" s="47" t="b">
+      <c r="D45" s="21" t="b">
         <v>0</v>
       </c>
       <c r="E45" s="1" t="b">
@@ -3339,40 +3025,18 @@
       <c r="F45" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G45" s="18"/>
-      <c r="L45" s="46"/>
-      <c r="M45" s="18"/>
-      <c r="N45" s="15"/>
-      <c r="O45" s="15"/>
-      <c r="P45" s="15"/>
-      <c r="Q45" s="15"/>
-      <c r="R45" s="46"/>
-      <c r="S45" s="25"/>
-      <c r="T45" s="36"/>
-      <c r="U45" s="36"/>
-      <c r="V45" s="36"/>
-      <c r="W45" s="36"/>
-      <c r="X45" s="46"/>
+      <c r="G45" s="14"/>
+      <c r="M45" s="14"/>
+      <c r="S45" s="14"/>
     </row>
     <row r="46" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="47"/>
-      <c r="B46" s="47"/>
-      <c r="C46" s="47"/>
-      <c r="D46" s="47"/>
-      <c r="G46" s="18"/>
-      <c r="L46" s="46"/>
-      <c r="M46" s="18"/>
-      <c r="N46" s="15"/>
-      <c r="O46" s="15"/>
-      <c r="P46" s="15"/>
-      <c r="Q46" s="15"/>
-      <c r="R46" s="46"/>
-      <c r="S46" s="25"/>
-      <c r="T46" s="36"/>
-      <c r="U46" s="36"/>
-      <c r="V46" s="36"/>
-      <c r="W46" s="36"/>
-      <c r="X46" s="46"/>
+      <c r="A46" s="21"/>
+      <c r="B46" s="21"/>
+      <c r="C46" s="21"/>
+      <c r="D46" s="21"/>
+      <c r="G46" s="14"/>
+      <c r="M46" s="14"/>
+      <c r="S46" s="14"/>
     </row>
     <row r="47" spans="1:24" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A47" s="1" t="s">
@@ -3390,20 +3054,9 @@
       <c r="E47" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="G47" s="18"/>
-      <c r="L47" s="46"/>
-      <c r="M47" s="18"/>
-      <c r="N47" s="15"/>
-      <c r="O47" s="15"/>
-      <c r="P47" s="15"/>
-      <c r="Q47" s="15"/>
-      <c r="R47" s="46"/>
-      <c r="S47" s="25"/>
-      <c r="T47" s="36"/>
-      <c r="U47" s="36"/>
-      <c r="V47" s="36"/>
-      <c r="W47" s="36"/>
-      <c r="X47" s="46"/>
+      <c r="G47" s="14"/>
+      <c r="M47" s="14"/>
+      <c r="S47" s="14"/>
     </row>
     <row r="48" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A48" s="1" t="s">
@@ -3421,20 +3074,9 @@
       <c r="E48" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="G48" s="18"/>
-      <c r="L48" s="46"/>
-      <c r="M48" s="18"/>
-      <c r="N48" s="15"/>
-      <c r="O48" s="15"/>
-      <c r="P48" s="15"/>
-      <c r="Q48" s="15"/>
-      <c r="R48" s="46"/>
-      <c r="S48" s="25"/>
-      <c r="T48" s="36"/>
-      <c r="U48" s="36"/>
-      <c r="V48" s="36"/>
-      <c r="W48" s="36"/>
-      <c r="X48" s="46"/>
+      <c r="G48" s="14"/>
+      <c r="M48" s="14"/>
+      <c r="S48" s="14"/>
     </row>
     <row r="49" spans="1:24" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A49" s="1" t="s">
@@ -3455,22 +3097,11 @@
       <c r="F49" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="G49" s="19"/>
-      <c r="L49" s="46"/>
-      <c r="M49" s="19"/>
-      <c r="N49" s="15"/>
-      <c r="O49" s="15"/>
-      <c r="P49" s="15"/>
-      <c r="Q49" s="15"/>
-      <c r="R49" s="46"/>
-      <c r="S49" s="19"/>
-      <c r="T49" s="36"/>
-      <c r="U49" s="36"/>
-      <c r="V49" s="36"/>
-      <c r="W49" s="36"/>
-      <c r="X49" s="46"/>
-    </row>
-    <row r="50" spans="1:24" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="G49" s="15"/>
+      <c r="M49" s="15"/>
+      <c r="S49" s="15"/>
+    </row>
+    <row r="50" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A50" s="1" t="s">
         <v>219</v>
       </c>
@@ -3482,54 +3113,9 @@
       <c r="E50" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="G50" s="19"/>
-      <c r="H50" s="39" t="s">
-        <v>308</v>
-      </c>
-      <c r="I50" s="39" t="s">
-        <v>308</v>
-      </c>
-      <c r="J50" s="39" t="s">
-        <v>308</v>
-      </c>
-      <c r="K50" s="39" t="s">
-        <v>308</v>
-      </c>
-      <c r="L50" s="46" t="s">
-        <v>308</v>
-      </c>
-      <c r="M50" s="25"/>
-      <c r="N50" s="39" t="s">
-        <v>309</v>
-      </c>
-      <c r="O50" s="39" t="s">
-        <v>309</v>
-      </c>
-      <c r="P50" s="39" t="s">
-        <v>309</v>
-      </c>
-      <c r="Q50" s="39" t="s">
-        <v>309</v>
-      </c>
-      <c r="R50" s="46" t="s">
-        <v>309</v>
-      </c>
-      <c r="S50" s="25"/>
-      <c r="T50" s="39" t="s">
-        <v>310</v>
-      </c>
-      <c r="U50" s="39" t="s">
-        <v>310</v>
-      </c>
-      <c r="V50" s="39" t="s">
-        <v>310</v>
-      </c>
-      <c r="W50" s="39" t="s">
-        <v>310</v>
-      </c>
-      <c r="X50" s="46" t="s">
-        <v>310</v>
-      </c>
+      <c r="G50" s="15"/>
+      <c r="M50" s="14"/>
+      <c r="S50" s="14"/>
     </row>
     <row r="51" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A51" s="5" t="s">
@@ -3550,9 +3136,9 @@
       <c r="F51" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G51" s="18"/>
-      <c r="M51" s="18"/>
-      <c r="S51" s="25"/>
+      <c r="G51" s="14"/>
+      <c r="M51" s="14"/>
+      <c r="S51" s="14"/>
     </row>
     <row r="52" spans="1:24" s="5" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A52" s="5" t="s">
@@ -3573,9 +3159,9 @@
       <c r="F52" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="G52" s="18"/>
-      <c r="M52" s="18"/>
-      <c r="S52" s="25"/>
+      <c r="G52" s="14"/>
+      <c r="M52" s="14"/>
+      <c r="S52" s="14"/>
     </row>
     <row r="53" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A53" s="1" t="s">
@@ -3596,20 +3182,9 @@
       <c r="F53" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G53" s="18"/>
-      <c r="L53" s="46"/>
-      <c r="M53" s="18"/>
-      <c r="N53" s="15"/>
-      <c r="O53" s="15"/>
-      <c r="P53" s="15"/>
-      <c r="Q53" s="15"/>
-      <c r="R53" s="46"/>
-      <c r="S53" s="25"/>
-      <c r="T53" s="36"/>
-      <c r="U53" s="36"/>
-      <c r="V53" s="36"/>
-      <c r="W53" s="36"/>
-      <c r="X53" s="46"/>
+      <c r="G53" s="14"/>
+      <c r="M53" s="14"/>
+      <c r="S53" s="14"/>
     </row>
     <row r="54" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A54" s="1" t="s">
@@ -3630,20 +3205,9 @@
       <c r="F54" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G54" s="18"/>
-      <c r="L54" s="46"/>
-      <c r="M54" s="18"/>
-      <c r="N54" s="15"/>
-      <c r="O54" s="15"/>
-      <c r="P54" s="15"/>
-      <c r="Q54" s="15"/>
-      <c r="R54" s="46"/>
-      <c r="S54" s="25"/>
-      <c r="T54" s="36"/>
-      <c r="U54" s="36"/>
-      <c r="V54" s="36"/>
-      <c r="W54" s="36"/>
-      <c r="X54" s="46"/>
+      <c r="G54" s="14"/>
+      <c r="M54" s="14"/>
+      <c r="S54" s="14"/>
     </row>
     <row r="55" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A55" s="5" t="s">
@@ -3664,9 +3228,9 @@
       <c r="F55" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G55" s="18"/>
-      <c r="M55" s="18"/>
-      <c r="S55" s="25"/>
+      <c r="G55" s="14"/>
+      <c r="M55" s="14"/>
+      <c r="S55" s="14"/>
     </row>
     <row r="56" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A56" s="1" t="s">
@@ -3687,54 +3251,43 @@
       <c r="F56" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G56" s="18"/>
-      <c r="L56" s="46"/>
-      <c r="M56" s="18"/>
-      <c r="N56" s="15"/>
-      <c r="O56" s="15"/>
-      <c r="P56" s="15"/>
-      <c r="Q56" s="15"/>
-      <c r="R56" s="46"/>
-      <c r="S56" s="25"/>
-      <c r="T56" s="36"/>
-      <c r="U56" s="36"/>
-      <c r="V56" s="36"/>
-      <c r="W56" s="36"/>
-      <c r="X56" s="46"/>
+      <c r="G56" s="14"/>
+      <c r="M56" s="14"/>
+      <c r="S56" s="14"/>
     </row>
     <row r="57" spans="1:24" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="A57" s="14" t="s">
+      <c r="A57" s="11" t="s">
         <v>295</v>
       </c>
-      <c r="B57" s="14" t="s">
+      <c r="B57" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C57" s="13" t="s">
+      <c r="C57" s="10" t="s">
         <v>296</v>
       </c>
-      <c r="D57" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="E57" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="F57" s="39" t="s">
+      <c r="D57" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="E57" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="F57" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="G57" s="20"/>
-      <c r="H57" s="14"/>
-      <c r="I57" s="14"/>
-      <c r="J57" s="14"/>
-      <c r="K57" s="14"/>
-      <c r="L57" s="14"/>
-      <c r="M57" s="20"/>
-      <c r="N57" s="14"/>
-      <c r="O57" s="14"/>
-      <c r="P57" s="14"/>
-      <c r="Q57" s="14"/>
-      <c r="R57" s="14"/>
-      <c r="S57" s="20"/>
-      <c r="T57" s="14"/>
+      <c r="G57" s="16"/>
+      <c r="H57" s="11"/>
+      <c r="I57" s="11"/>
+      <c r="J57" s="11"/>
+      <c r="K57" s="11"/>
+      <c r="L57" s="11"/>
+      <c r="M57" s="16"/>
+      <c r="N57" s="11"/>
+      <c r="O57" s="11"/>
+      <c r="P57" s="11"/>
+      <c r="Q57" s="11"/>
+      <c r="R57" s="11"/>
+      <c r="S57" s="16"/>
+      <c r="T57" s="11"/>
     </row>
     <row r="58" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A58" s="5" t="s">
@@ -3755,9 +3308,9 @@
       <c r="F58" s="5" t="s">
         <v>300</v>
       </c>
-      <c r="G58" s="25"/>
-      <c r="M58" s="25"/>
-      <c r="S58" s="25"/>
+      <c r="G58" s="14"/>
+      <c r="M58" s="14"/>
+      <c r="S58" s="14"/>
     </row>
     <row r="59" spans="1:24" s="5" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A59" s="5" t="s">
@@ -3775,22 +3328,22 @@
       <c r="E59" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="F59" s="32" t="s">
+      <c r="F59" s="18" t="s">
         <v>307</v>
       </c>
-      <c r="G59" s="25"/>
-      <c r="H59" s="32"/>
-      <c r="I59" s="32"/>
-      <c r="J59" s="32"/>
-      <c r="K59" s="32"/>
-      <c r="L59" s="32"/>
-      <c r="M59" s="25"/>
-      <c r="N59" s="32"/>
-      <c r="O59" s="32"/>
-      <c r="P59" s="32"/>
-      <c r="Q59" s="32"/>
-      <c r="R59" s="32"/>
-      <c r="S59" s="25"/>
+      <c r="G59" s="14"/>
+      <c r="H59" s="18"/>
+      <c r="I59" s="18"/>
+      <c r="J59" s="18"/>
+      <c r="K59" s="18"/>
+      <c r="L59" s="18"/>
+      <c r="M59" s="14"/>
+      <c r="N59" s="18"/>
+      <c r="O59" s="18"/>
+      <c r="P59" s="18"/>
+      <c r="Q59" s="18"/>
+      <c r="R59" s="18"/>
+      <c r="S59" s="14"/>
     </row>
     <row r="60" spans="1:24" s="5" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A60" s="5" t="s">
@@ -3808,47 +3361,47 @@
       <c r="E60" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="G60" s="18"/>
-      <c r="M60" s="18"/>
-      <c r="S60" s="25"/>
+      <c r="G60" s="14"/>
+      <c r="M60" s="14"/>
+      <c r="S60" s="14"/>
     </row>
     <row r="61" spans="1:24" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A61" s="14" t="s">
+      <c r="A61" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="B61" s="14" t="s">
+      <c r="B61" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="C61" s="13" t="s">
+      <c r="C61" s="10" t="s">
         <v>241</v>
       </c>
-      <c r="D61" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="E61" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="F61" s="14" t="s">
+      <c r="D61" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="E61" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="F61" s="11" t="s">
         <v>242</v>
       </c>
-      <c r="G61" s="20"/>
-      <c r="H61" s="14"/>
-      <c r="I61" s="14"/>
-      <c r="J61" s="14"/>
-      <c r="K61" s="14"/>
-      <c r="L61" s="14"/>
-      <c r="M61" s="20"/>
-      <c r="N61" s="14"/>
-      <c r="O61" s="14"/>
-      <c r="P61" s="14"/>
-      <c r="Q61" s="14"/>
-      <c r="R61" s="14"/>
-      <c r="S61" s="20"/>
-      <c r="T61" s="14"/>
-      <c r="U61" s="14"/>
-      <c r="V61" s="14"/>
-      <c r="W61" s="14"/>
-      <c r="X61" s="14"/>
+      <c r="G61" s="16"/>
+      <c r="H61" s="11"/>
+      <c r="I61" s="11"/>
+      <c r="J61" s="11"/>
+      <c r="K61" s="11"/>
+      <c r="L61" s="11"/>
+      <c r="M61" s="16"/>
+      <c r="N61" s="11"/>
+      <c r="O61" s="11"/>
+      <c r="P61" s="11"/>
+      <c r="Q61" s="11"/>
+      <c r="R61" s="11"/>
+      <c r="S61" s="16"/>
+      <c r="T61" s="11"/>
+      <c r="U61" s="11"/>
+      <c r="V61" s="11"/>
+      <c r="W61" s="11"/>
+      <c r="X61" s="11"/>
     </row>
     <row r="62" spans="1:24" s="5" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A62" s="5" t="s">
@@ -3869,9 +3422,9 @@
       <c r="F62" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G62" s="18"/>
-      <c r="M62" s="18"/>
-      <c r="S62" s="25"/>
+      <c r="G62" s="14"/>
+      <c r="M62" s="14"/>
+      <c r="S62" s="14"/>
     </row>
     <row r="63" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A63" s="1" t="s">
@@ -3892,20 +3445,9 @@
       <c r="F63" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="G63" s="18"/>
-      <c r="L63" s="46"/>
-      <c r="M63" s="18"/>
-      <c r="N63" s="15"/>
-      <c r="O63" s="15"/>
-      <c r="P63" s="15"/>
-      <c r="Q63" s="15"/>
-      <c r="R63" s="46"/>
-      <c r="S63" s="25"/>
-      <c r="T63" s="36"/>
-      <c r="U63" s="36"/>
-      <c r="V63" s="36"/>
-      <c r="W63" s="36"/>
-      <c r="X63" s="46"/>
+      <c r="G63" s="14"/>
+      <c r="M63" s="14"/>
+      <c r="S63" s="14"/>
     </row>
     <row r="64" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A64" s="5" t="s">
@@ -3926,9 +3468,9 @@
       <c r="F64" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="G64" s="18"/>
-      <c r="M64" s="18"/>
-      <c r="S64" s="25"/>
+      <c r="G64" s="14"/>
+      <c r="M64" s="14"/>
+      <c r="S64" s="14"/>
     </row>
     <row r="65" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
@@ -3949,9 +3491,9 @@
       <c r="F65" t="s">
         <v>226</v>
       </c>
-      <c r="G65" s="25"/>
-      <c r="M65" s="25"/>
-      <c r="S65" s="25"/>
+      <c r="G65" s="14"/>
+      <c r="M65" s="14"/>
+      <c r="S65" s="14"/>
     </row>
     <row r="66" spans="1:24" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A66" s="1" t="s">
@@ -3972,20 +3514,9 @@
       <c r="F66" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="G66" s="18"/>
-      <c r="L66" s="46"/>
-      <c r="M66" s="18"/>
-      <c r="N66" s="15"/>
-      <c r="O66" s="15"/>
-      <c r="P66" s="15"/>
-      <c r="Q66" s="15"/>
-      <c r="R66" s="46"/>
-      <c r="S66" s="25"/>
-      <c r="T66" s="36"/>
-      <c r="U66" s="36"/>
-      <c r="V66" s="36"/>
-      <c r="W66" s="36"/>
-      <c r="X66" s="46"/>
+      <c r="G66" s="14"/>
+      <c r="M66" s="14"/>
+      <c r="S66" s="14"/>
     </row>
     <row r="67" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A67" s="1" t="s">
@@ -4006,20 +3537,9 @@
       <c r="F67" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="G67" s="18"/>
-      <c r="L67" s="46"/>
-      <c r="M67" s="18"/>
-      <c r="N67" s="15"/>
-      <c r="O67" s="15"/>
-      <c r="P67" s="15"/>
-      <c r="Q67" s="15"/>
-      <c r="R67" s="46"/>
-      <c r="S67" s="25"/>
-      <c r="T67" s="36"/>
-      <c r="U67" s="36"/>
-      <c r="V67" s="36"/>
-      <c r="W67" s="36"/>
-      <c r="X67" s="46"/>
+      <c r="G67" s="14"/>
+      <c r="M67" s="14"/>
+      <c r="S67" s="14"/>
     </row>
     <row r="68" spans="1:24" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A68" s="1" t="s">
@@ -4040,52 +3560,34 @@
       <c r="F68" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="G68" s="18"/>
-      <c r="L68" s="46"/>
-      <c r="M68" s="18"/>
-      <c r="N68" s="15"/>
-      <c r="O68" s="15"/>
-      <c r="P68" s="15"/>
-      <c r="Q68" s="15"/>
-      <c r="R68" s="46"/>
-      <c r="S68" s="25"/>
-      <c r="T68" s="36"/>
-      <c r="U68" s="36"/>
-      <c r="V68" s="36"/>
-      <c r="W68" s="36"/>
-      <c r="X68" s="46"/>
-    </row>
-    <row r="69" spans="1:24" s="22" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A69" s="22" t="s">
+      <c r="G68" s="14"/>
+      <c r="M68" s="14"/>
+      <c r="S68" s="14"/>
+    </row>
+    <row r="69" spans="1:24" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A69" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="B69" s="22" t="s">
+      <c r="B69" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C69" s="22" t="s">
+      <c r="C69" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="D69" s="22" t="b">
-        <v>0</v>
-      </c>
-      <c r="E69" s="22" t="b">
-        <v>1</v>
-      </c>
-      <c r="F69" s="22" t="s">
+      <c r="D69" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E69" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F69" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="G69" s="18"/>
-      <c r="L69" s="46"/>
-      <c r="M69" s="18"/>
-      <c r="R69" s="46"/>
-      <c r="S69" s="25"/>
-      <c r="T69" s="36"/>
-      <c r="U69" s="36"/>
-      <c r="V69" s="36"/>
-      <c r="W69" s="36"/>
-      <c r="X69" s="46"/>
-    </row>
-    <row r="70" spans="1:24" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="G69" s="14"/>
+      <c r="M69" s="14"/>
+      <c r="S69" s="14"/>
+    </row>
+    <row r="70" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A70" s="1" t="s">
         <v>72</v>
       </c>
@@ -4101,923 +3603,814 @@
       <c r="E70" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="G70" s="18"/>
-      <c r="H70" s="39" t="s">
-        <v>308</v>
-      </c>
-      <c r="I70" s="39" t="s">
-        <v>308</v>
-      </c>
-      <c r="J70" s="39" t="s">
-        <v>308</v>
-      </c>
-      <c r="K70" s="39" t="s">
-        <v>308</v>
-      </c>
-      <c r="L70" s="46" t="s">
-        <v>308</v>
-      </c>
-      <c r="M70" s="25"/>
-      <c r="N70" s="39" t="s">
-        <v>309</v>
-      </c>
-      <c r="O70" s="39" t="s">
-        <v>309</v>
-      </c>
-      <c r="P70" s="39" t="s">
-        <v>309</v>
-      </c>
-      <c r="Q70" s="39" t="s">
-        <v>309</v>
-      </c>
-      <c r="R70" s="46" t="s">
-        <v>309</v>
-      </c>
-      <c r="S70" s="25"/>
-      <c r="T70" s="39" t="s">
-        <v>310</v>
-      </c>
-      <c r="U70" s="39" t="s">
-        <v>310</v>
-      </c>
-      <c r="V70" s="39" t="s">
-        <v>310</v>
-      </c>
-      <c r="W70" s="39" t="s">
-        <v>310</v>
-      </c>
-      <c r="X70" s="46" t="s">
-        <v>310</v>
-      </c>
+      <c r="G70" s="14"/>
+      <c r="M70" s="14"/>
+      <c r="S70" s="14"/>
     </row>
     <row r="71" spans="1:24" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A71" s="40" t="s">
-        <v>194</v>
-      </c>
-      <c r="B71" s="40" t="s">
+      <c r="A71" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B71" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C71" s="40" t="s">
-        <v>312</v>
-      </c>
-      <c r="D71" s="40" t="b">
-        <v>0</v>
-      </c>
-      <c r="E71" s="40" t="b">
-        <v>1</v>
-      </c>
-      <c r="F71" s="40"/>
-      <c r="G71" s="18"/>
-      <c r="L71" s="46"/>
-      <c r="M71" s="18"/>
-      <c r="N71" s="15"/>
-      <c r="O71" s="15"/>
-      <c r="P71" s="15"/>
-      <c r="Q71" s="15"/>
-      <c r="R71" s="46"/>
-      <c r="S71" s="25"/>
-      <c r="T71" s="36"/>
-      <c r="U71" s="36"/>
-      <c r="V71" s="36"/>
-      <c r="W71" s="36"/>
-      <c r="X71" s="46"/>
-    </row>
-    <row r="72" spans="1:24" s="45" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A72" s="45" t="s">
-        <v>317</v>
-      </c>
-      <c r="B72" s="45" t="s">
+      <c r="C71" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="D71" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E71" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G71" s="14"/>
+      <c r="H71" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="J71" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="K71" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="L71" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="M71" s="14"/>
+      <c r="N71" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="O71" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="P71" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q71" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="R71" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="S71" s="14"/>
+      <c r="T71" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="U71" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="V71" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="W71" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="X71" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="72" spans="1:24" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A72" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="D72" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E72" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G72" s="14"/>
+      <c r="H72" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="J72" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="K72" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="L72" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="M72" s="14"/>
+      <c r="N72" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="O72" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="P72" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="Q72" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="R72" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="S72" s="14"/>
+      <c r="T72" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="U72" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="V72" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="W72" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="X72" s="1" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="73" spans="1:24" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A73" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B73" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C72" s="45" t="s">
-        <v>318</v>
-      </c>
-      <c r="D72" s="45" t="b">
-        <v>0</v>
-      </c>
-      <c r="E72" s="45" t="b">
-        <v>1</v>
-      </c>
-      <c r="F72" s="45" t="s">
-        <v>226</v>
-      </c>
-      <c r="G72" s="25"/>
-      <c r="L72" s="46"/>
-      <c r="M72" s="25"/>
-      <c r="R72" s="46"/>
-      <c r="S72" s="25"/>
-      <c r="X72" s="46"/>
-    </row>
-    <row r="73" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A73" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B73" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C73" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D73" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E73" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="F73" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G73" s="18"/>
-      <c r="M73" s="18"/>
-      <c r="S73" s="25"/>
-    </row>
-    <row r="74" spans="1:24" s="5" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A74" s="37" t="s">
-        <v>315</v>
-      </c>
-      <c r="B74" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="C74" s="37" t="s">
-        <v>316</v>
-      </c>
-      <c r="D74" s="44" t="b">
-        <v>0</v>
-      </c>
-      <c r="E74" s="44" t="b">
-        <v>1</v>
-      </c>
-      <c r="F74" s="44" t="s">
-        <v>4</v>
-      </c>
-      <c r="G74" s="25"/>
-      <c r="M74" s="25"/>
-      <c r="S74" s="25"/>
+      <c r="C73" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D73" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E73" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G73" s="14"/>
+      <c r="H73" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="J73" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="K73" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="L73" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="M73" s="14"/>
+      <c r="N73" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="O73" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="P73" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q73" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="R73" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="S73" s="14"/>
+      <c r="T73" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="U73" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="V73" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="W73" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="X73" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="74" spans="1:24" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A74" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="D74" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E74" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G74" s="14"/>
+      <c r="M74" s="14"/>
+      <c r="S74" s="14"/>
+      <c r="T74"/>
     </row>
     <row r="75" spans="1:24" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A75" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="D75" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E75" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G75" s="14"/>
+      <c r="M75" s="14"/>
+      <c r="S75" s="14"/>
+    </row>
+    <row r="76" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A76" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="D76" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E76" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="G76" s="14"/>
+      <c r="M76" s="14"/>
+      <c r="S76" s="14"/>
+    </row>
+    <row r="77" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A77" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D77" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E77" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F77" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G77" s="14"/>
+      <c r="M77" s="14"/>
+      <c r="S77" s="14"/>
+    </row>
+    <row r="78" spans="1:24" s="5" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A78" s="19" t="s">
+        <v>315</v>
+      </c>
+      <c r="B78" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C78" s="19" t="s">
+        <v>316</v>
+      </c>
+      <c r="D78" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E78" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G78" s="14"/>
+      <c r="M78" s="14"/>
+      <c r="S78" s="14"/>
+    </row>
+    <row r="79" spans="1:24" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A79" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="B79" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="C79" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="D75" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E75" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F75" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G75" s="18"/>
-      <c r="L75" s="46"/>
-      <c r="M75" s="18"/>
-      <c r="N75" s="15"/>
-      <c r="O75" s="15"/>
-      <c r="P75" s="15"/>
-      <c r="Q75" s="15"/>
-      <c r="R75" s="46"/>
-      <c r="S75" s="25"/>
-      <c r="T75" s="36"/>
-      <c r="U75" s="36"/>
-      <c r="V75" s="36"/>
-      <c r="W75" s="36"/>
-      <c r="X75" s="46"/>
-    </row>
-    <row r="76" spans="1:24" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A76" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D76" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E76" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F76" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G76" s="18"/>
-      <c r="L76" s="46"/>
-      <c r="M76" s="18"/>
-      <c r="N76" s="15"/>
-      <c r="O76" s="15"/>
-      <c r="P76" s="15"/>
-      <c r="Q76" s="15"/>
-      <c r="R76" s="46"/>
-      <c r="S76" s="25"/>
-      <c r="T76" s="36"/>
-      <c r="U76" s="36"/>
-      <c r="V76" s="36"/>
-      <c r="W76" s="36"/>
-      <c r="X76" s="46"/>
-    </row>
-    <row r="77" spans="1:24" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A77" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D77" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E77" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F77" s="31"/>
-      <c r="G77" s="18"/>
-      <c r="H77" s="39" t="s">
-        <v>308</v>
-      </c>
-      <c r="I77" s="39" t="s">
-        <v>308</v>
-      </c>
-      <c r="J77" s="39" t="s">
-        <v>308</v>
-      </c>
-      <c r="K77" s="39" t="s">
-        <v>308</v>
-      </c>
-      <c r="L77" s="46" t="s">
-        <v>308</v>
-      </c>
-      <c r="M77" s="25"/>
-      <c r="N77" s="39" t="s">
-        <v>309</v>
-      </c>
-      <c r="O77" s="39" t="s">
-        <v>309</v>
-      </c>
-      <c r="P77" s="39" t="s">
-        <v>309</v>
-      </c>
-      <c r="Q77" s="39" t="s">
-        <v>309</v>
-      </c>
-      <c r="R77" s="46" t="s">
-        <v>309</v>
-      </c>
-      <c r="S77" s="25"/>
-      <c r="T77" s="39" t="s">
-        <v>310</v>
-      </c>
-      <c r="U77" s="39" t="s">
-        <v>310</v>
-      </c>
-      <c r="V77" s="39" t="s">
-        <v>310</v>
-      </c>
-      <c r="W77" s="39" t="s">
-        <v>310</v>
-      </c>
-      <c r="X77" s="46" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="78" spans="1:24" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A78" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D78" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E78" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F78" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="G78" s="18"/>
-      <c r="L78" s="46"/>
-      <c r="M78" s="18"/>
-      <c r="N78" s="15"/>
-      <c r="O78" s="15"/>
-      <c r="P78" s="15"/>
-      <c r="Q78" s="15"/>
-      <c r="R78" s="46"/>
-      <c r="S78" s="25"/>
-      <c r="T78" s="36"/>
-      <c r="U78" s="36"/>
-      <c r="V78" s="36"/>
-      <c r="W78" s="36"/>
-      <c r="X78" s="46"/>
-    </row>
-    <row r="79" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A79" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="B79" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C79" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D79" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E79" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="F79" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="G79" s="18"/>
-      <c r="M79" s="18"/>
-      <c r="S79" s="25"/>
+      <c r="D79" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E79" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G79" s="14"/>
+      <c r="M79" s="14"/>
+      <c r="S79" s="14"/>
     </row>
     <row r="80" spans="1:24" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A80" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D80" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E80" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G80" s="14"/>
+      <c r="M80" s="14"/>
+      <c r="S80" s="14"/>
+    </row>
+    <row r="81" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A81" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D81" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E81" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G81" s="14"/>
+      <c r="M81" s="14"/>
+      <c r="S81" s="14"/>
+    </row>
+    <row r="82" spans="1:25" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A82" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D82" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E82" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="G82" s="14"/>
+      <c r="M82" s="14"/>
+      <c r="S82" s="14"/>
+    </row>
+    <row r="83" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A83" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D83" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E83" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F83" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="G83" s="14"/>
+      <c r="M83" s="14"/>
+      <c r="S83" s="14"/>
+    </row>
+    <row r="84" spans="1:25" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A84" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="B84" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="C80" s="1" t="s">
+      <c r="C84" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="D80" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E80" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F80" s="1" t="s">
+      <c r="D84" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E84" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F84" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G80" s="18"/>
-      <c r="L80" s="46"/>
-      <c r="M80" s="18"/>
-      <c r="N80" s="15"/>
-      <c r="O80" s="15"/>
-      <c r="P80" s="15"/>
-      <c r="Q80" s="15"/>
-      <c r="R80" s="46"/>
-      <c r="S80" s="25"/>
-      <c r="T80" s="36"/>
-      <c r="U80" s="36"/>
-      <c r="V80" s="36"/>
-      <c r="W80" s="36"/>
-      <c r="X80" s="46"/>
-    </row>
-    <row r="81" spans="1:25" s="5" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="A81" s="5" t="s">
+      <c r="G84" s="14"/>
+      <c r="M84" s="14"/>
+      <c r="S84" s="14"/>
+    </row>
+    <row r="85" spans="1:25" s="5" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A85" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="B81" s="5" t="s">
+      <c r="B85" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="C81" s="5" t="s">
+      <c r="C85" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="D81" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="E81" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="F81" s="5" t="s">
+      <c r="D85" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E85" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F85" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="G81" s="18"/>
-      <c r="M81" s="18"/>
-      <c r="S81" s="25"/>
-    </row>
-    <row r="82" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A82" s="1" t="s">
+      <c r="G85" s="14"/>
+      <c r="M85" s="14"/>
+      <c r="S85" s="14"/>
+    </row>
+    <row r="86" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A86" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="B86" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C82" s="1" t="s">
+      <c r="C86" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D82" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E82" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G82" s="18"/>
-      <c r="H82" s="1" t="s">
+      <c r="D86" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E86" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G86" s="14"/>
+      <c r="H86" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="I82" s="1" t="s">
+      <c r="I86" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="J82" s="15" t="s">
+      <c r="J86" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="K82" s="15" t="s">
+      <c r="K86" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="L82" s="46" t="s">
+      <c r="L86" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="M82" s="18"/>
-      <c r="N82" s="15" t="s">
+      <c r="M86" s="14"/>
+      <c r="N86" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="O82" s="15" t="s">
+      <c r="O86" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="P82" s="15" t="s">
+      <c r="P86" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="Q82" s="15" t="s">
+      <c r="Q86" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="R82" s="46" t="s">
+      <c r="R86" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="S82" s="25"/>
-      <c r="T82" s="36" t="s">
+      <c r="S86" s="14"/>
+      <c r="T86" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="U82" s="36" t="s">
+      <c r="U86" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="V82" s="36" t="s">
+      <c r="V86" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="W82" s="36" t="s">
+      <c r="W86" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="X82" s="46" t="s">
+      <c r="X86" s="1" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="83" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A83" s="1" t="s">
+    <row r="87" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A87" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="B87" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C83" s="1" t="s">
+      <c r="C87" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D83" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E83" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F83" s="1" t="s">
+      <c r="D87" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E87" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F87" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="G83" s="18"/>
-      <c r="L83" s="46"/>
-      <c r="M83" s="18"/>
-      <c r="N83" s="15"/>
-      <c r="O83" s="15"/>
-      <c r="P83" s="15"/>
-      <c r="Q83" s="15"/>
-      <c r="R83" s="46"/>
-      <c r="S83" s="25"/>
-      <c r="T83" s="36"/>
-      <c r="U83" s="36"/>
-      <c r="V83" s="36"/>
-      <c r="W83" s="36"/>
-      <c r="X83" s="46"/>
-    </row>
-    <row r="84" spans="1:25" s="5" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A84" s="5" t="s">
+      <c r="G87" s="14"/>
+      <c r="M87" s="14"/>
+      <c r="S87" s="14"/>
+    </row>
+    <row r="88" spans="1:25" s="5" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A88" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="B84" s="5" t="s">
+      <c r="B88" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="C84" s="5" t="s">
+      <c r="C88" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="D84" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="E84" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="F84" s="5" t="s">
+      <c r="D88" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E88" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F88" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="G84" s="18"/>
-      <c r="M84" s="18"/>
-      <c r="S84" s="25"/>
-    </row>
-    <row r="85" spans="1:25" s="5" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A85" s="5" t="s">
+      <c r="G88" s="14"/>
+      <c r="M88" s="14"/>
+      <c r="S88" s="14"/>
+    </row>
+    <row r="89" spans="1:25" s="5" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A89" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="B85" s="5" t="s">
+      <c r="B89" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C85" s="5" t="s">
+      <c r="C89" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="D85" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="E85" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="F85" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G85" s="18"/>
-      <c r="M85" s="18"/>
-      <c r="S85" s="25"/>
-    </row>
-    <row r="86" spans="1:25" s="5" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A86" s="37" t="s">
+      <c r="D89" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E89" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F89" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G89" s="14"/>
+      <c r="M89" s="14"/>
+      <c r="S89" s="14"/>
+    </row>
+    <row r="90" spans="1:25" s="5" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A90" s="19" t="s">
         <v>324</v>
       </c>
-      <c r="B86" s="37" t="s">
+      <c r="B90" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C86" s="37" t="s">
+      <c r="C90" s="19" t="s">
         <v>325</v>
       </c>
-      <c r="D86" s="37" t="b">
-        <v>0</v>
-      </c>
-      <c r="E86" s="37" t="b">
-        <v>1</v>
-      </c>
-      <c r="F86" s="37" t="s">
-        <v>16</v>
-      </c>
-      <c r="G86" s="25"/>
-      <c r="H86" s="37"/>
-      <c r="I86" s="37"/>
-      <c r="J86" s="37"/>
-      <c r="K86" s="37"/>
-      <c r="L86" s="37" t="s">
-        <v>4</v>
-      </c>
-      <c r="M86" s="38"/>
-      <c r="N86" s="37"/>
-      <c r="O86" s="37"/>
-      <c r="P86" s="37"/>
-      <c r="Q86" s="37"/>
-      <c r="R86" s="37" t="s">
-        <v>4</v>
-      </c>
-      <c r="S86" s="38"/>
-      <c r="T86" s="37"/>
-      <c r="U86" s="37"/>
-      <c r="V86" s="37"/>
-      <c r="W86" s="37"/>
-      <c r="X86" s="37" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y86" s="37"/>
-    </row>
-    <row r="87" spans="1:25" s="1" customFormat="1" ht="58.3" x14ac:dyDescent="0.4">
-      <c r="A87" s="1" t="s">
+      <c r="D90" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="E90" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="F90" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="G90" s="14"/>
+      <c r="H90" s="19"/>
+      <c r="I90" s="19"/>
+      <c r="J90" s="19"/>
+      <c r="K90" s="19"/>
+      <c r="L90" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="M90" s="20"/>
+      <c r="N90" s="19"/>
+      <c r="O90" s="19"/>
+      <c r="P90" s="19"/>
+      <c r="Q90" s="19"/>
+      <c r="R90" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="S90" s="20"/>
+      <c r="T90" s="19"/>
+      <c r="U90" s="19"/>
+      <c r="V90" s="19"/>
+      <c r="W90" s="19"/>
+      <c r="X90" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y90" s="19"/>
+    </row>
+    <row r="91" spans="1:25" s="1" customFormat="1" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A91" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B87" s="1" t="s">
+      <c r="B91" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C87" s="1" t="s">
+      <c r="C91" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D87" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E87" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F87" s="1" t="s">
+      <c r="D91" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E91" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F91" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="G87" s="18"/>
-      <c r="L87" s="46"/>
-      <c r="M87" s="18"/>
-      <c r="N87" s="15"/>
-      <c r="O87" s="15"/>
-      <c r="P87" s="15"/>
-      <c r="Q87" s="15"/>
-      <c r="R87" s="46"/>
-      <c r="S87" s="25"/>
-      <c r="T87" s="36"/>
-      <c r="U87" s="36"/>
-      <c r="V87" s="36"/>
-      <c r="W87" s="36"/>
-      <c r="X87" s="46"/>
-    </row>
-    <row r="88" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A88" s="1" t="s">
+      <c r="G91" s="14"/>
+      <c r="M91" s="14"/>
+      <c r="S91" s="14"/>
+    </row>
+    <row r="92" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A92" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="B88" s="6"/>
-      <c r="C88" s="6"/>
-      <c r="D88" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E88" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G88" s="18"/>
-      <c r="H88" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I88" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J88" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K88" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="L88" s="46" t="s">
-        <v>16</v>
-      </c>
-      <c r="M88" s="18"/>
-      <c r="N88" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="O88" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="P88" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q88" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="R88" s="46" t="s">
-        <v>16</v>
-      </c>
-      <c r="S88" s="25"/>
-      <c r="T88" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="U88" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="V88" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="W88" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="X88" s="46" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="89" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A89" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="D89" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E89" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F89" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G89" s="18"/>
-      <c r="L89" s="46"/>
-      <c r="M89" s="18"/>
-      <c r="N89" s="15"/>
-      <c r="O89" s="15"/>
-      <c r="P89" s="15"/>
-      <c r="Q89" s="15"/>
-      <c r="R89" s="46"/>
-      <c r="S89" s="25"/>
-      <c r="T89" s="36"/>
-      <c r="U89" s="36"/>
-      <c r="V89" s="36"/>
-      <c r="W89" s="36"/>
-      <c r="X89" s="46"/>
-    </row>
-    <row r="90" spans="1:25" s="29" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A90" s="29" t="s">
-        <v>98</v>
-      </c>
-      <c r="B90" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="C90" s="29" t="s">
-        <v>99</v>
-      </c>
-      <c r="D90" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="E90" s="29" t="b">
-        <v>0</v>
-      </c>
-      <c r="F90" s="29" t="s">
-        <v>267</v>
-      </c>
-      <c r="G90" s="25"/>
-      <c r="L90" s="46"/>
-      <c r="M90" s="25"/>
-      <c r="R90" s="46"/>
-      <c r="S90" s="25"/>
-      <c r="T90" s="36"/>
-      <c r="U90" s="36"/>
-      <c r="V90" s="36"/>
-      <c r="W90" s="36"/>
-      <c r="X90" s="46"/>
-    </row>
-    <row r="91" spans="1:25" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A91" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="D91" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E91" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F91" s="10" t="s">
-        <v>251</v>
-      </c>
-      <c r="G91" s="18"/>
-      <c r="L91" s="46"/>
-      <c r="M91" s="18"/>
-      <c r="N91" s="15"/>
-      <c r="O91" s="15"/>
-      <c r="P91" s="15"/>
-      <c r="Q91" s="15"/>
-      <c r="R91" s="46"/>
-      <c r="S91" s="25"/>
-      <c r="T91" s="36"/>
-      <c r="U91" s="36"/>
-      <c r="V91" s="36"/>
-      <c r="W91" s="36"/>
-      <c r="X91" s="46"/>
-    </row>
-    <row r="92" spans="1:25" s="12" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A92" s="12" t="s">
-        <v>247</v>
-      </c>
-      <c r="B92" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="C92" s="12" t="s">
-        <v>249</v>
-      </c>
-      <c r="D92" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="E92" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="F92" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="G92" s="18"/>
-      <c r="L92" s="46"/>
-      <c r="M92" s="18"/>
-      <c r="N92" s="15"/>
-      <c r="O92" s="15"/>
-      <c r="P92" s="15"/>
-      <c r="Q92" s="15"/>
-      <c r="R92" s="46"/>
-      <c r="S92" s="25"/>
-      <c r="T92" s="36"/>
-      <c r="U92" s="36"/>
-      <c r="V92" s="36"/>
-      <c r="W92" s="36"/>
-      <c r="X92" s="46"/>
+      <c r="B92" s="6"/>
+      <c r="C92" s="6"/>
+      <c r="D92" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E92" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G92" s="14"/>
+      <c r="H92" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I92" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J92" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K92" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L92" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M92" s="14"/>
+      <c r="N92" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O92" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P92" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q92" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="R92" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S92" s="14"/>
+      <c r="T92" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="U92" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="V92" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="W92" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="X92" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="93" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A93" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="B93" s="6"/>
-      <c r="C93" s="6"/>
+        <v>150</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>151</v>
+      </c>
       <c r="D93" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E93" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F93" s="15" t="s">
-        <v>305</v>
-      </c>
-      <c r="G93" s="18"/>
-      <c r="I93" s="33"/>
-      <c r="J93" s="33"/>
-      <c r="K93" s="33"/>
-      <c r="L93" s="46"/>
-      <c r="M93" s="18"/>
-      <c r="N93" s="33"/>
-      <c r="O93" s="33"/>
-      <c r="P93" s="33"/>
-      <c r="Q93" s="33"/>
-      <c r="R93" s="46"/>
-      <c r="S93" s="25"/>
-      <c r="T93" s="36"/>
-      <c r="U93" s="36"/>
-      <c r="V93" s="36"/>
-      <c r="W93" s="36"/>
-      <c r="X93" s="46"/>
-    </row>
-    <row r="94" spans="1:25" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F93" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G93" s="14"/>
+      <c r="M93" s="14"/>
+      <c r="S93" s="14"/>
+    </row>
+    <row r="94" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A94" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D94" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E94" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G94" s="18"/>
-      <c r="L94" s="46"/>
-      <c r="M94" s="18"/>
-      <c r="N94" s="15"/>
-      <c r="O94" s="15"/>
-      <c r="P94" s="15"/>
-      <c r="Q94" s="15"/>
-      <c r="R94" s="46"/>
-      <c r="S94" s="25"/>
-      <c r="T94" s="36"/>
-      <c r="U94" s="36"/>
-      <c r="V94" s="36"/>
-      <c r="W94" s="36"/>
-      <c r="X94" s="46"/>
-    </row>
-    <row r="95" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A95" t="s">
-        <v>291</v>
-      </c>
-      <c r="B95" t="s">
-        <v>10</v>
-      </c>
-      <c r="C95" t="s">
-        <v>292</v>
-      </c>
-      <c r="D95" t="b">
-        <v>1</v>
-      </c>
-      <c r="E95" t="b">
-        <v>1</v>
-      </c>
-      <c r="F95" t="s">
-        <v>305</v>
-      </c>
-      <c r="G95" s="25"/>
-      <c r="M95" s="25"/>
-      <c r="S95" s="25"/>
+        <v>267</v>
+      </c>
+      <c r="G94" s="14"/>
+      <c r="M94" s="14"/>
+      <c r="S94" s="14"/>
+    </row>
+    <row r="95" spans="1:25" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A95" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D95" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E95" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="G95" s="14"/>
+      <c r="M95" s="14"/>
+      <c r="S95" s="14"/>
     </row>
     <row r="96" spans="1:25" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A96" s="1" t="s">
-        <v>102</v>
+        <v>247</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>55</v>
+        <v>248</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>103</v>
+        <v>249</v>
       </c>
       <c r="D96" s="1" t="b">
         <v>0</v>
@@ -5026,66 +4419,40 @@
         <v>1</v>
       </c>
       <c r="F96" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="G96" s="18"/>
-      <c r="L96" s="46"/>
-      <c r="M96" s="18"/>
-      <c r="N96" s="15"/>
-      <c r="O96" s="15"/>
-      <c r="P96" s="15"/>
-      <c r="Q96" s="15"/>
-      <c r="R96" s="46"/>
-      <c r="S96" s="25"/>
-      <c r="T96" s="36"/>
-      <c r="U96" s="36"/>
-      <c r="V96" s="36"/>
-      <c r="W96" s="36"/>
-      <c r="X96" s="46"/>
-    </row>
-    <row r="97" spans="1:24" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+        <v>250</v>
+      </c>
+      <c r="G96" s="14"/>
+      <c r="M96" s="14"/>
+      <c r="S96" s="14"/>
+    </row>
+    <row r="97" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A97" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>105</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="B97" s="6"/>
+      <c r="C97" s="6"/>
       <c r="D97" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E97" s="1" t="b">
         <v>1</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G97" s="18"/>
-      <c r="L97" s="46"/>
-      <c r="M97" s="18"/>
-      <c r="N97" s="15"/>
-      <c r="O97" s="15"/>
-      <c r="P97" s="15"/>
-      <c r="Q97" s="15"/>
-      <c r="R97" s="46"/>
-      <c r="S97" s="25"/>
-      <c r="T97" s="36"/>
-      <c r="U97" s="36"/>
-      <c r="V97" s="36"/>
-      <c r="W97" s="36"/>
-      <c r="X97" s="46"/>
-    </row>
-    <row r="98" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.4">
+        <v>305</v>
+      </c>
+      <c r="G97" s="14"/>
+      <c r="M97" s="14"/>
+      <c r="S97" s="14"/>
+    </row>
+    <row r="98" spans="1:24" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A98" s="1" t="s">
-        <v>203</v>
+        <v>100</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>204</v>
+        <v>101</v>
       </c>
       <c r="D98" s="1" t="b">
         <v>0</v>
@@ -5093,500 +4460,361 @@
       <c r="E98" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="G98" s="18"/>
-      <c r="L98" s="46"/>
-      <c r="M98" s="18"/>
-      <c r="N98" s="15"/>
-      <c r="O98" s="15"/>
-      <c r="P98" s="15"/>
-      <c r="Q98" s="15"/>
-      <c r="R98" s="46"/>
-      <c r="S98" s="25"/>
-      <c r="T98" s="36"/>
-      <c r="U98" s="36"/>
-      <c r="V98" s="36"/>
-      <c r="W98" s="36"/>
-      <c r="X98" s="46"/>
-    </row>
-    <row r="99" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A99" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D99" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E99" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F99" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="G99" s="18"/>
-      <c r="L99" s="46"/>
-      <c r="M99" s="18"/>
-      <c r="N99" s="15"/>
-      <c r="O99" s="15"/>
-      <c r="P99" s="15"/>
-      <c r="Q99" s="15"/>
-      <c r="R99" s="46"/>
-      <c r="S99" s="25"/>
-      <c r="T99" s="36"/>
-      <c r="U99" s="36"/>
-      <c r="V99" s="36"/>
-      <c r="W99" s="36"/>
-      <c r="X99" s="46"/>
+      <c r="F98" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G98" s="14"/>
+      <c r="M98" s="14"/>
+      <c r="S98" s="14"/>
+    </row>
+    <row r="99" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A99" t="s">
+        <v>291</v>
+      </c>
+      <c r="B99" t="s">
+        <v>10</v>
+      </c>
+      <c r="C99" t="s">
+        <v>292</v>
+      </c>
+      <c r="D99" t="b">
+        <v>1</v>
+      </c>
+      <c r="E99" t="b">
+        <v>1</v>
+      </c>
+      <c r="F99" t="s">
+        <v>305</v>
+      </c>
+      <c r="G99" s="14"/>
+      <c r="M99" s="14"/>
+      <c r="S99" s="14"/>
     </row>
     <row r="100" spans="1:24" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A100" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D100" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E100" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F100" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="G100" s="14"/>
+      <c r="M100" s="14"/>
+      <c r="S100" s="14"/>
+    </row>
+    <row r="101" spans="1:24" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A101" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D101" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E101" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G101" s="14"/>
+      <c r="M101" s="14"/>
+      <c r="S101" s="14"/>
+    </row>
+    <row r="102" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A102" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D102" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E102" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G102" s="14"/>
+      <c r="M102" s="14"/>
+      <c r="S102" s="14"/>
+    </row>
+    <row r="103" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A103" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D103" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E103" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G103" s="14"/>
+      <c r="M103" s="14"/>
+      <c r="S103" s="14"/>
+    </row>
+    <row r="104" spans="1:24" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A104" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B100" s="1" t="s">
+      <c r="B104" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C100" s="1" t="s">
+      <c r="C104" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="D100" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E100" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G100" s="18"/>
-      <c r="H100" s="39" t="s">
-        <v>308</v>
-      </c>
-      <c r="I100" s="39" t="s">
-        <v>308</v>
-      </c>
-      <c r="J100" s="39" t="s">
-        <v>308</v>
-      </c>
-      <c r="K100" s="39" t="s">
-        <v>308</v>
-      </c>
-      <c r="L100" s="46" t="s">
-        <v>308</v>
-      </c>
-      <c r="M100" s="25"/>
-      <c r="N100" s="39" t="s">
-        <v>309</v>
-      </c>
-      <c r="O100" s="39" t="s">
-        <v>309</v>
-      </c>
-      <c r="P100" s="39" t="s">
-        <v>309</v>
-      </c>
-      <c r="Q100" s="39" t="s">
-        <v>309</v>
-      </c>
-      <c r="R100" s="46" t="s">
-        <v>309</v>
-      </c>
-      <c r="S100" s="25"/>
-      <c r="T100" s="39" t="s">
-        <v>310</v>
-      </c>
-      <c r="U100" s="39" t="s">
-        <v>310</v>
-      </c>
-      <c r="V100" s="39" t="s">
-        <v>310</v>
-      </c>
-      <c r="W100" s="39" t="s">
-        <v>310</v>
-      </c>
-      <c r="X100" s="46" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="101" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A101" s="5" t="s">
+      <c r="D104" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E104" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G104" s="14"/>
+      <c r="M104" s="14"/>
+      <c r="S104" s="14"/>
+    </row>
+    <row r="105" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A105" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="B101" s="5" t="s">
+      <c r="B105" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C101" s="5" t="s">
+      <c r="C105" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="D101" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E101" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="F101" s="5" t="s">
+      <c r="D105" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E105" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F105" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="G101" s="18"/>
-      <c r="M101" s="18"/>
-      <c r="S101" s="25"/>
-    </row>
-    <row r="102" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A102" s="5" t="s">
+      <c r="G105" s="14"/>
+      <c r="M105" s="14"/>
+      <c r="S105" s="14"/>
+    </row>
+    <row r="106" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A106" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="B102" s="5" t="s">
+      <c r="B106" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C102" s="5" t="s">
+      <c r="C106" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="D102" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E102" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="F102" s="5" t="s">
+      <c r="D106" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E106" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F106" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="G102" s="18"/>
-      <c r="M102" s="18"/>
-      <c r="S102" s="25"/>
-    </row>
-    <row r="103" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A103" s="5" t="s">
+      <c r="G106" s="14"/>
+      <c r="M106" s="14"/>
+      <c r="S106" s="14"/>
+    </row>
+    <row r="107" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A107" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="B103" s="5" t="s">
+      <c r="B107" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C103" s="5" t="s">
+      <c r="C107" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="D103" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E103" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="F103" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G103" s="18"/>
-      <c r="M103" s="18"/>
-      <c r="S103" s="25"/>
-    </row>
-    <row r="104" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A104" s="1" t="s">
+      <c r="D107" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E107" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F107" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G107" s="14"/>
+      <c r="M107" s="14"/>
+      <c r="S107" s="14"/>
+    </row>
+    <row r="108" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A108" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B104" s="1" t="s">
+      <c r="B108" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C104" s="1" t="s">
+      <c r="C108" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="D104" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E104" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G104" s="18"/>
-      <c r="H104" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I104" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J104" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K104" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="L104" s="46" t="s">
-        <v>4</v>
-      </c>
-      <c r="M104" s="18"/>
-      <c r="N104" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="O104" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="P104" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q104" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="R104" s="46" t="s">
-        <v>4</v>
-      </c>
-      <c r="S104" s="25"/>
-      <c r="T104" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="U104" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="V104" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="W104" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="X104" s="46" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="105" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A105" s="1" t="s">
+      <c r="D108" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E108" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G108" s="14"/>
+      <c r="H108" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I108" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J108" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K108" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L108" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M108" s="14"/>
+      <c r="N108" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="O108" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="P108" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q108" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="R108" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="S108" s="14"/>
+      <c r="T108" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="U108" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="V108" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="W108" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="X108" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="109" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A109" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B105" s="1" t="s">
+      <c r="B109" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C105" s="1" t="s">
+      <c r="C109" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D105" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E105" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G105" s="18"/>
-      <c r="H105" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I105" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J105" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K105" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="L105" s="46" t="s">
-        <v>4</v>
-      </c>
-      <c r="M105" s="18"/>
-      <c r="N105" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="O105" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="P105" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q105" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="R105" s="46" t="s">
-        <v>4</v>
-      </c>
-      <c r="S105" s="25"/>
-      <c r="T105" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="U105" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="V105" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="W105" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="X105" s="46" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="106" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A106" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D106" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E106" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G106" s="18"/>
-      <c r="H106" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I106" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J106" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K106" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="L106" s="46" t="s">
-        <v>4</v>
-      </c>
-      <c r="M106" s="18"/>
-      <c r="N106" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="O106" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="P106" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q106" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="R106" s="46" t="s">
-        <v>4</v>
-      </c>
-      <c r="S106" s="25"/>
-      <c r="T106" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="U106" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="V106" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="W106" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="X106" s="46" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="107" spans="1:24" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A107" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="D107" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E107" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F107" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G107" s="18"/>
-      <c r="H107"/>
-      <c r="I107"/>
-      <c r="J107"/>
-      <c r="K107"/>
-      <c r="L107"/>
-      <c r="M107" s="18"/>
-      <c r="N107" s="15"/>
-      <c r="O107" s="15"/>
-      <c r="P107" s="15"/>
-      <c r="Q107" s="15"/>
-      <c r="R107" s="46"/>
-      <c r="S107" s="25"/>
-      <c r="T107" s="36"/>
-      <c r="U107" s="36"/>
-      <c r="V107" s="36"/>
-      <c r="W107" s="36"/>
-      <c r="X107" s="46"/>
-    </row>
-    <row r="108" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A108" t="s">
-        <v>293</v>
-      </c>
-      <c r="B108" t="s">
-        <v>5</v>
-      </c>
-      <c r="C108" t="s">
-        <v>294</v>
-      </c>
-      <c r="D108" t="b">
-        <v>0</v>
-      </c>
-      <c r="E108" t="b">
-        <v>1</v>
-      </c>
-      <c r="F108" t="s">
-        <v>4</v>
-      </c>
-      <c r="G108" s="25"/>
-      <c r="H108"/>
-      <c r="I108"/>
-      <c r="J108"/>
-      <c r="K108"/>
-      <c r="L108"/>
-      <c r="M108" s="25"/>
-      <c r="N108"/>
-      <c r="O108"/>
-      <c r="P108"/>
-      <c r="Q108"/>
-      <c r="R108"/>
-      <c r="S108" s="25"/>
-      <c r="T108"/>
-      <c r="U108"/>
-      <c r="V108"/>
-      <c r="W108"/>
-      <c r="X108"/>
-    </row>
-    <row r="109" spans="1:24" s="5" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A109" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="B109" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="C109" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="D109" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E109" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="F109" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G109" s="18"/>
-      <c r="M109" s="18"/>
-      <c r="S109" s="25"/>
+      <c r="D109" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E109" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G109" s="14"/>
+      <c r="H109" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I109" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J109" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K109" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L109" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M109" s="14"/>
+      <c r="N109" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="O109" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="P109" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q109" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="R109" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="S109" s="14"/>
+      <c r="T109" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="U109" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="V109" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="W109" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="X109" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="110" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A110" s="1" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D110" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E110" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="G110" s="18"/>
+      <c r="G110" s="14"/>
       <c r="H110" s="1" t="s">
         <v>16</v>
       </c>
@@ -5599,274 +4827,349 @@
       <c r="K110" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="L110" s="46" t="s">
-        <v>4</v>
-      </c>
-      <c r="M110" s="18"/>
-      <c r="N110" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="O110" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="P110" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q110" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="R110" s="46" t="s">
-        <v>4</v>
-      </c>
-      <c r="S110" s="25"/>
-      <c r="T110" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="U110" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="V110" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="W110" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="X110" s="46" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="111" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="L110" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M110" s="14"/>
+      <c r="N110" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O110" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="P110" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q110" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="R110" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="S110" s="14"/>
+      <c r="T110" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="U110" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="V110" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="W110" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="X110" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111" spans="1:24" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A111" s="1" t="s">
-        <v>238</v>
+        <v>152</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C111" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D111" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E111" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G111" s="14"/>
+      <c r="H111"/>
+      <c r="I111"/>
+      <c r="J111"/>
+      <c r="K111"/>
+      <c r="L111"/>
+      <c r="M111" s="14"/>
+      <c r="S111" s="14"/>
+    </row>
+    <row r="112" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A112" t="s">
+        <v>293</v>
+      </c>
+      <c r="B112" t="s">
+        <v>5</v>
+      </c>
+      <c r="C112" t="s">
+        <v>294</v>
+      </c>
+      <c r="D112" t="b">
+        <v>0</v>
+      </c>
+      <c r="E112" t="b">
+        <v>1</v>
+      </c>
+      <c r="F112" t="s">
+        <v>4</v>
+      </c>
+      <c r="G112" s="14"/>
+      <c r="H112"/>
+      <c r="I112"/>
+      <c r="J112"/>
+      <c r="K112"/>
+      <c r="L112"/>
+      <c r="M112" s="14"/>
+      <c r="N112"/>
+      <c r="O112"/>
+      <c r="P112"/>
+      <c r="Q112"/>
+      <c r="R112"/>
+      <c r="S112" s="14"/>
+      <c r="T112"/>
+      <c r="U112"/>
+      <c r="V112"/>
+      <c r="W112"/>
+      <c r="X112"/>
+    </row>
+    <row r="113" spans="1:24" s="5" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A113" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B113" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C113" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="D113" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E113" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F113" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G113" s="14"/>
+      <c r="M113" s="14"/>
+      <c r="S113" s="14"/>
+    </row>
+    <row r="114" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A114" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D114" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E114" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G114" s="14"/>
+      <c r="H114" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I114" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J114" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K114" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L114" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M114" s="14"/>
+      <c r="N114" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O114" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="P114" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q114" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="R114" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="S114" s="14"/>
+      <c r="T114" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="U114" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="V114" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="W114" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="X114" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="115" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A115" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C115" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="D111" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E111" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G111" s="18"/>
-      <c r="H111" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I111" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J111" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K111" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="L111" s="46" t="s">
-        <v>4</v>
-      </c>
-      <c r="M111" s="18"/>
-      <c r="N111" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="O111" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="P111" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q111" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="R111" s="46" t="s">
-        <v>4</v>
-      </c>
-      <c r="S111" s="25"/>
-      <c r="T111" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="U111" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="V111" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="W111" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="X111" s="46" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="112" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A112" s="1" t="s">
+      <c r="D115" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E115" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G115" s="14"/>
+      <c r="H115" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I115" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J115" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K115" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L115" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M115" s="14"/>
+      <c r="N115" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O115" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="P115" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q115" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="R115" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="S115" s="14"/>
+      <c r="T115" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="U115" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="V115" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="W115" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="X115" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A116" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B112" s="1" t="s">
+      <c r="B116" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C112" s="1" t="s">
+      <c r="C116" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="D112" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E112" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F112" s="1" t="s">
+      <c r="D116" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E116" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F116" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="G112" s="18"/>
-      <c r="L112" s="46"/>
-      <c r="M112" s="18"/>
-      <c r="N112" s="15"/>
-      <c r="O112" s="15"/>
-      <c r="P112" s="15"/>
-      <c r="Q112" s="15"/>
-      <c r="R112" s="46"/>
-      <c r="S112" s="25"/>
-      <c r="T112" s="36"/>
-      <c r="U112" s="36"/>
-      <c r="V112" s="36"/>
-      <c r="W112" s="36"/>
-      <c r="X112" s="46"/>
-    </row>
-    <row r="113" spans="1:24" s="43" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A113" s="43" t="s">
+      <c r="G116" s="14"/>
+      <c r="M116" s="14"/>
+      <c r="S116" s="14"/>
+    </row>
+    <row r="117" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A117" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="B113" s="43" t="s">
+      <c r="B117" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C113" s="43" t="s">
+      <c r="C117" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="D113" s="43" t="b">
-        <v>1</v>
-      </c>
-      <c r="E113" s="43" t="b">
-        <v>1</v>
-      </c>
-      <c r="G113" s="25"/>
-      <c r="H113" s="43" t="s">
-        <v>308</v>
-      </c>
-      <c r="I113" s="43" t="s">
-        <v>308</v>
-      </c>
-      <c r="J113" s="43" t="s">
-        <v>308</v>
-      </c>
-      <c r="K113" s="43" t="s">
-        <v>308</v>
-      </c>
-      <c r="L113" s="46" t="s">
-        <v>308</v>
-      </c>
-      <c r="M113" s="25"/>
-      <c r="N113" s="43" t="s">
-        <v>309</v>
-      </c>
-      <c r="O113" s="43" t="s">
-        <v>309</v>
-      </c>
-      <c r="P113" s="43" t="s">
-        <v>309</v>
-      </c>
-      <c r="Q113" s="43" t="s">
-        <v>309</v>
-      </c>
-      <c r="R113" s="46" t="s">
-        <v>309</v>
-      </c>
-      <c r="S113" s="25"/>
-      <c r="T113" s="43" t="s">
-        <v>310</v>
-      </c>
-      <c r="U113" s="43" t="s">
-        <v>310</v>
-      </c>
-      <c r="V113" s="43" t="s">
-        <v>310</v>
-      </c>
-      <c r="W113" s="43" t="s">
-        <v>310</v>
-      </c>
-      <c r="X113" s="46" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="114" spans="1:24" s="23" customFormat="1" ht="58.3" x14ac:dyDescent="0.4">
-      <c r="A114" s="24" t="s">
+      <c r="D117" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E117" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G117" s="14"/>
+      <c r="M117" s="14"/>
+      <c r="S117" s="14"/>
+    </row>
+    <row r="118" spans="1:24" s="1" customFormat="1" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A118" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="B114" s="24" t="s">
+      <c r="B118" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C114" s="24" t="s">
+      <c r="C118" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="D114" s="24" t="b">
-        <v>1</v>
-      </c>
-      <c r="E114" s="24" t="b">
-        <v>1</v>
-      </c>
-      <c r="F114" s="24" t="s">
+      <c r="D118" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E118" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F118" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="G114" s="25"/>
-      <c r="H114" s="24"/>
-      <c r="I114" s="24"/>
-      <c r="J114" s="24"/>
-      <c r="K114" s="24"/>
-      <c r="L114" s="46"/>
-      <c r="M114" s="25"/>
-      <c r="N114" s="24"/>
-      <c r="R114" s="46"/>
-      <c r="S114" s="25"/>
-      <c r="T114" s="36"/>
-      <c r="U114" s="36"/>
-      <c r="V114" s="36"/>
-      <c r="W114" s="36"/>
-      <c r="X114" s="46"/>
-    </row>
-    <row r="115" spans="1:24" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A115" s="1" t="s">
+      <c r="G118" s="14"/>
+      <c r="M118" s="14"/>
+      <c r="S118" s="14"/>
+    </row>
+    <row r="119" spans="1:24" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A119" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B115" s="1" t="s">
+      <c r="B119" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C115" s="1" t="s">
+      <c r="C119" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D115" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E115" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F115" s="1" t="s">
+      <c r="D119" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E119" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F119" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="G115" s="18"/>
-      <c r="L115" s="46"/>
-      <c r="M115" s="18"/>
-      <c r="N115" s="15"/>
-      <c r="O115" s="15"/>
-      <c r="P115" s="15"/>
-      <c r="Q115" s="15"/>
-      <c r="R115" s="46"/>
-      <c r="S115" s="25"/>
-      <c r="T115" s="36"/>
-      <c r="U115" s="36"/>
-      <c r="V115" s="36"/>
-      <c r="W115" s="36"/>
-      <c r="X115" s="46"/>
+      <c r="G119" s="14"/>
+      <c r="M119" s="14"/>
+      <c r="S119" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -5880,9 +5183,9 @@
     <mergeCell ref="D45:D46"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="F20" r:id="rId1"/>
-    <hyperlink ref="F21" r:id="rId2"/>
-    <hyperlink ref="F59" r:id="rId3"/>
+    <hyperlink ref="F20" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="F21" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="F59" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="37" fitToHeight="0" orientation="landscape" r:id="rId4"/>
@@ -5890,7 +5193,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/src/main/resources/input/Kennisnet/props/Kennisnet.xlsx
+++ b/src/main/resources/input/Kennisnet/props/Kennisnet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\gitprojects\Imvertor-Maven\src\main\resources\input\Kennisnet\props\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C6157F6-71B9-4771-AF2A-DAB011FD6B44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4292099-EE9A-4366-B1D0-EE26E334C035}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="20057" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="338">
   <si>
     <t>Name</t>
   </si>
@@ -1034,9 +1034,6 @@
   </si>
   <si>
     <t>1.1</t>
-  </si>
-  <si>
-    <t>MUG</t>
   </si>
   <si>
     <t>MBG</t>
@@ -1518,10 +1515,10 @@
   <dimension ref="A1:Y119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B56" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="L56" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A72" sqref="A72"/>
+      <selection pane="bottomRight" activeCell="AA71" sqref="AA71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -3657,19 +3654,19 @@
       </c>
       <c r="S71" s="14"/>
       <c r="T71" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="U71" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="V71" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="W71" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="X71" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="72" spans="1:24" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
@@ -3706,35 +3703,35 @@
       </c>
       <c r="M72" s="14"/>
       <c r="N72" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="O72" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="P72" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="Q72" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="R72" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="S72" s="14"/>
       <c r="T72" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="U72" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="V72" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="W72" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="X72" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="73" spans="1:24" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">

--- a/src/main/resources/input/Kennisnet/props/Kennisnet.xlsx
+++ b/src/main/resources/input/Kennisnet/props/Kennisnet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\gitprojects\Imvertor-Maven\src\main\resources\input\Kennisnet\props\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4292099-EE9A-4366-B1D0-EE26E334C035}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77A19306-FBA1-4A27-8DAA-D4445F4B935D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="20057" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38290" yWindow="2280" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Kennisnet" sheetId="3" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="335">
   <si>
     <t>Name</t>
   </si>
@@ -167,15 +167,6 @@
   </si>
   <si>
     <t>Yes if the released application should be zipped for distribution</t>
-  </si>
-  <si>
-    <t>dashboardpath</t>
-  </si>
-  <si>
-    <t>http-path</t>
-  </si>
-  <si>
-    <t>The path to the Imvertor dashboard application.</t>
   </si>
   <si>
     <t>debug</t>
@@ -1512,13 +1503,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Y119"/>
+  <dimension ref="A1:Y118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="L56" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B28" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AA71" sqref="AA71"/>
+      <selection pane="bottomRight" activeCell="E44" sqref="A44:XFD44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1560,126 +1551,126 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G1" s="12"/>
       <c r="H1" s="3" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="M1" s="12"/>
       <c r="N1" s="3" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="S1" s="12"/>
       <c r="T1" s="3" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="U1" s="3" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="V1" s="3" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="W1" s="3" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="X1" s="3" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="Y1" s="3" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="2" spans="1:25" s="3" customFormat="1" ht="56.15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F2" s="2"/>
       <c r="G2" s="13"/>
       <c r="H2" s="2" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="M2" s="13"/>
       <c r="N2" s="2" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="S2" s="13"/>
       <c r="T2" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="W2" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="U2" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>282</v>
-      </c>
       <c r="X2" s="2" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="3" spans="1:25" s="1" customFormat="1" ht="44.15" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D3" s="1" t="b">
         <v>0</v>
@@ -1739,13 +1730,13 @@
     </row>
     <row r="6" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A6" s="5" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D6" s="5" t="b">
         <v>0</v>
@@ -1788,13 +1779,13 @@
     </row>
     <row r="9" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A9" s="5" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D9" s="5" t="b">
         <v>0</v>
@@ -1834,13 +1825,13 @@
     </row>
     <row r="11" spans="1:25" s="5" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A11" s="5" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D11" s="5" t="b">
         <v>0</v>
@@ -1854,13 +1845,13 @@
     </row>
     <row r="12" spans="1:25" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D12" s="1" t="b">
         <v>0</v>
@@ -1877,22 +1868,22 @@
     </row>
     <row r="13" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D13" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E13" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>243</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="D13" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E13" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>246</v>
       </c>
       <c r="G13" s="14"/>
       <c r="M13" s="14"/>
@@ -1945,10 +1936,10 @@
         <v>19</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="L15" s="1" t="s">
         <v>19</v>
@@ -1961,10 +1952,10 @@
         <v>19</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="R15" s="1" t="s">
         <v>19</v>
@@ -1977,10 +1968,10 @@
         <v>19</v>
       </c>
       <c r="V15" s="1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="W15" s="1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="X15" s="1" t="s">
         <v>19</v>
@@ -2011,13 +2002,13 @@
     </row>
     <row r="17" spans="1:24" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D17" s="1" t="b">
         <v>1</v>
@@ -2026,7 +2017,7 @@
         <v>1</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G17" s="14"/>
       <c r="M17" s="14"/>
@@ -2034,7 +2025,7 @@
     </row>
     <row r="18" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -2045,7 +2036,7 @@
         <v>1</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="G18" s="14"/>
       <c r="M18" s="14"/>
@@ -2053,13 +2044,13 @@
     </row>
     <row r="19" spans="1:24" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D19" s="1" t="b">
         <v>0</v>
@@ -2073,13 +2064,13 @@
     </row>
     <row r="20" spans="1:24" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D20" s="1" t="b">
         <v>0</v>
@@ -2088,7 +2079,7 @@
         <v>1</v>
       </c>
       <c r="F20" s="18" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="G20" s="14"/>
       <c r="M20" s="14"/>
@@ -2096,13 +2087,13 @@
     </row>
     <row r="21" spans="1:24" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D21" s="1" t="b">
         <v>0</v>
@@ -2111,7 +2102,7 @@
         <v>1</v>
       </c>
       <c r="F21" s="18" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G21" s="14"/>
       <c r="M21" s="14"/>
@@ -2119,13 +2110,13 @@
     </row>
     <row r="22" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D22" s="1" t="b">
         <v>0</v>
@@ -2207,13 +2198,13 @@
     </row>
     <row r="24" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A24" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D24" s="1" t="b">
         <v>0</v>
@@ -2422,13 +2413,13 @@
     </row>
     <row r="28" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A28" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D28" s="1" t="b">
         <v>0</v>
@@ -2487,13 +2478,13 @@
     </row>
     <row r="29" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A29" s="1" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D29" s="1" t="b">
         <v>0</v>
@@ -2552,13 +2543,13 @@
     </row>
     <row r="30" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A30" s="1" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D30" s="1" t="b">
         <v>0</v>
@@ -2567,7 +2558,7 @@
         <v>1</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="G30" s="14"/>
       <c r="M30" s="14"/>
@@ -2575,13 +2566,13 @@
     </row>
     <row r="31" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A31" s="1" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D31" s="1" t="b">
         <v>0</v>
@@ -2645,13 +2636,13 @@
     </row>
     <row r="33" spans="1:24" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A33" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D33" s="1" t="b">
         <v>0</v>
@@ -2668,13 +2659,13 @@
     </row>
     <row r="34" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A34" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D34" s="1" t="b">
         <v>0</v>
@@ -2683,7 +2674,7 @@
         <v>1</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G34" s="14"/>
       <c r="M34" s="14"/>
@@ -2691,22 +2682,22 @@
     </row>
     <row r="35" spans="1:24" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A35" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="D35" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E35" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F35" s="1" t="s">
         <v>270</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="D35" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E35" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>273</v>
       </c>
       <c r="G35" s="14"/>
       <c r="M35" s="14"/>
@@ -2737,13 +2728,13 @@
     </row>
     <row r="37" spans="1:24" s="19" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A37" s="19" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B37" s="19" t="s">
         <v>5</v>
       </c>
       <c r="C37" s="19" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D37" s="19" t="b">
         <v>0</v>
@@ -2871,13 +2862,13 @@
     </row>
     <row r="41" spans="1:24" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A41" s="1" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D41" s="1" t="b">
         <v>0</v>
@@ -2887,62 +2878,62 @@
       </c>
       <c r="G41" s="14"/>
       <c r="H41" s="1" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="M41" s="14"/>
       <c r="N41" s="1" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="O41" s="1" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="P41" s="1" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="Q41" s="1" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="R41" s="1" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="S41" s="14"/>
       <c r="T41" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="U41" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="V41" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="W41" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="X41" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="42" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A42" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D42" s="1" t="b">
         <v>0</v>
@@ -2980,87 +2971,84 @@
       <c r="M43" s="14"/>
       <c r="S43" s="14"/>
     </row>
-    <row r="44" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="5" t="s">
+    <row r="44" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A44" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="B44" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C44" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="C44" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D44" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E44" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="F44" s="5" t="s">
-        <v>218</v>
+      <c r="D44" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="E44" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="G44" s="14"/>
       <c r="M44" s="14"/>
       <c r="S44" s="14"/>
     </row>
     <row r="45" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="B45" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="C45" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="D45" s="21" t="b">
-        <v>0</v>
-      </c>
-      <c r="E45" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="A45" s="21"/>
+      <c r="B45" s="21"/>
+      <c r="C45" s="21"/>
+      <c r="D45" s="21"/>
       <c r="G45" s="14"/>
       <c r="M45" s="14"/>
       <c r="S45" s="14"/>
     </row>
-    <row r="46" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="21"/>
-      <c r="B46" s="21"/>
-      <c r="C46" s="21"/>
-      <c r="D46" s="21"/>
+    <row r="46" spans="1:24" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A46" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D46" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E46" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="G46" s="14"/>
       <c r="M46" s="14"/>
       <c r="S46" s="14"/>
     </row>
-    <row r="47" spans="1:24" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A47" s="1" t="s">
-        <v>176</v>
+        <v>49</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>177</v>
+        <v>5</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>178</v>
+        <v>50</v>
       </c>
       <c r="D47" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E47" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G47" s="14"/>
       <c r="M47" s="14"/>
       <c r="S47" s="14"/>
     </row>
-    <row r="48" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:24" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A48" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>5</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>53</v>
@@ -3071,55 +3059,58 @@
       <c r="E48" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="G48" s="14"/>
-      <c r="M48" s="14"/>
-      <c r="S48" s="14"/>
-    </row>
-    <row r="49" spans="1:24" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="F48" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="G48" s="15"/>
+      <c r="M48" s="15"/>
+      <c r="S48" s="15"/>
+    </row>
+    <row r="49" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A49" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>56</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="B49" s="6"/>
+      <c r="C49" s="6"/>
       <c r="D49" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E49" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F49" s="4" t="s">
-        <v>206</v>
+        <v>0</v>
       </c>
       <c r="G49" s="15"/>
-      <c r="M49" s="15"/>
-      <c r="S49" s="15"/>
-    </row>
-    <row r="50" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A50" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="B50" s="6"/>
-      <c r="C50" s="6"/>
-      <c r="D50" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E50" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G50" s="15"/>
+      <c r="M49" s="14"/>
+      <c r="S49" s="14"/>
+    </row>
+    <row r="50" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A50" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="D50" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E50" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G50" s="14"/>
       <c r="M50" s="14"/>
       <c r="S50" s="14"/>
     </row>
-    <row r="51" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:24" s="5" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A51" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="B51" s="5" t="s">
         <v>179</v>
-      </c>
-      <c r="B51" s="5" t="s">
-        <v>5</v>
       </c>
       <c r="C51" s="5" t="s">
         <v>180</v>
@@ -3131,30 +3122,30 @@
         <v>1</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>4</v>
+        <v>206</v>
       </c>
       <c r="G51" s="14"/>
       <c r="M51" s="14"/>
       <c r="S51" s="14"/>
     </row>
-    <row r="52" spans="1:24" s="5" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A52" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="B52" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="D52" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="E52" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="F52" s="5" t="s">
-        <v>209</v>
+    <row r="52" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A52" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D52" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E52" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="G52" s="14"/>
       <c r="M52" s="14"/>
@@ -3162,13 +3153,13 @@
     </row>
     <row r="53" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D53" s="1" t="b">
         <v>0</v>
@@ -3183,115 +3174,115 @@
       <c r="M53" s="14"/>
       <c r="S53" s="14"/>
     </row>
-    <row r="54" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="1" t="s">
+    <row r="54" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A54" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C54" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B54" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D54" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E54" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F54" s="1" t="s">
+      <c r="D54" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E54" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F54" s="5" t="s">
         <v>16</v>
       </c>
       <c r="G54" s="14"/>
       <c r="M54" s="14"/>
       <c r="S54" s="14"/>
     </row>
-    <row r="55" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A55" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B55" s="5" t="s">
+    <row r="55" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A55" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B55" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C55" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D55" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="E55" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="F55" s="5" t="s">
+      <c r="C55" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D55" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E55" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F55" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G55" s="14"/>
       <c r="M55" s="14"/>
       <c r="S55" s="14"/>
     </row>
-    <row r="56" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A56" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="D56" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E56" s="1" t="b">
+    <row r="56" spans="1:24" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A56" s="11" t="s">
+        <v>292</v>
+      </c>
+      <c r="B56" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C56" s="10" t="s">
+        <v>293</v>
+      </c>
+      <c r="D56" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="E56" s="11" t="b">
         <v>1</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G56" s="14"/>
-      <c r="M56" s="14"/>
-      <c r="S56" s="14"/>
-    </row>
-    <row r="57" spans="1:24" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="A57" s="11" t="s">
+        <v>302</v>
+      </c>
+      <c r="G56" s="16"/>
+      <c r="H56" s="11"/>
+      <c r="I56" s="11"/>
+      <c r="J56" s="11"/>
+      <c r="K56" s="11"/>
+      <c r="L56" s="11"/>
+      <c r="M56" s="16"/>
+      <c r="N56" s="11"/>
+      <c r="O56" s="11"/>
+      <c r="P56" s="11"/>
+      <c r="Q56" s="11"/>
+      <c r="R56" s="11"/>
+      <c r="S56" s="16"/>
+      <c r="T56" s="11"/>
+    </row>
+    <row r="57" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A57" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="B57" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="B57" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C57" s="10" t="s">
+      <c r="C57" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="D57" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="E57" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="G57" s="16"/>
-      <c r="H57" s="11"/>
-      <c r="I57" s="11"/>
-      <c r="J57" s="11"/>
-      <c r="K57" s="11"/>
-      <c r="L57" s="11"/>
-      <c r="M57" s="16"/>
-      <c r="N57" s="11"/>
-      <c r="O57" s="11"/>
-      <c r="P57" s="11"/>
-      <c r="Q57" s="11"/>
-      <c r="R57" s="11"/>
-      <c r="S57" s="16"/>
-      <c r="T57" s="11"/>
-    </row>
-    <row r="58" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="D57" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E57" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="G57" s="14"/>
+      <c r="M57" s="14"/>
+      <c r="S57" s="14"/>
+    </row>
+    <row r="58" spans="1:24" s="5" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A58" s="5" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>298</v>
+        <v>86</v>
       </c>
       <c r="C58" s="5" t="s">
         <v>299</v>
@@ -3302,22 +3293,32 @@
       <c r="E58" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="F58" s="5" t="s">
-        <v>300</v>
+      <c r="F58" s="18" t="s">
+        <v>304</v>
       </c>
       <c r="G58" s="14"/>
+      <c r="H58" s="18"/>
+      <c r="I58" s="18"/>
+      <c r="J58" s="18"/>
+      <c r="K58" s="18"/>
+      <c r="L58" s="18"/>
       <c r="M58" s="14"/>
+      <c r="N58" s="18"/>
+      <c r="O58" s="18"/>
+      <c r="P58" s="18"/>
+      <c r="Q58" s="18"/>
+      <c r="R58" s="18"/>
       <c r="S58" s="14"/>
     </row>
     <row r="59" spans="1:24" s="5" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A59" s="5" t="s">
-        <v>301</v>
+        <v>183</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>89</v>
+        <v>155</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>302</v>
+        <v>184</v>
       </c>
       <c r="D59" s="5" t="b">
         <v>0</v>
@@ -3325,183 +3326,173 @@
       <c r="E59" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="F59" s="18" t="s">
-        <v>307</v>
-      </c>
       <c r="G59" s="14"/>
-      <c r="H59" s="18"/>
-      <c r="I59" s="18"/>
-      <c r="J59" s="18"/>
-      <c r="K59" s="18"/>
-      <c r="L59" s="18"/>
       <c r="M59" s="14"/>
-      <c r="N59" s="18"/>
-      <c r="O59" s="18"/>
-      <c r="P59" s="18"/>
-      <c r="Q59" s="18"/>
-      <c r="R59" s="18"/>
       <c r="S59" s="14"/>
     </row>
-    <row r="60" spans="1:24" s="5" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A60" s="5" t="s">
+    <row r="60" spans="1:24" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A60" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="B60" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="C60" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="D60" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="E60" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="F60" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="G60" s="16"/>
+      <c r="H60" s="11"/>
+      <c r="I60" s="11"/>
+      <c r="J60" s="11"/>
+      <c r="K60" s="11"/>
+      <c r="L60" s="11"/>
+      <c r="M60" s="16"/>
+      <c r="N60" s="11"/>
+      <c r="O60" s="11"/>
+      <c r="P60" s="11"/>
+      <c r="Q60" s="11"/>
+      <c r="R60" s="11"/>
+      <c r="S60" s="16"/>
+      <c r="T60" s="11"/>
+      <c r="U60" s="11"/>
+      <c r="V60" s="11"/>
+      <c r="W60" s="11"/>
+      <c r="X60" s="11"/>
+    </row>
+    <row r="61" spans="1:24" s="5" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A61" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="B61" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="B60" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="C60" s="5" t="s">
+      <c r="C61" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="D60" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="E60" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="G60" s="14"/>
-      <c r="M60" s="14"/>
-      <c r="S60" s="14"/>
-    </row>
-    <row r="61" spans="1:24" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A61" s="11" t="s">
-        <v>239</v>
-      </c>
-      <c r="B61" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="C61" s="10" t="s">
-        <v>241</v>
-      </c>
-      <c r="D61" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="E61" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="F61" s="11" t="s">
-        <v>242</v>
-      </c>
-      <c r="G61" s="16"/>
-      <c r="H61" s="11"/>
-      <c r="I61" s="11"/>
-      <c r="J61" s="11"/>
-      <c r="K61" s="11"/>
-      <c r="L61" s="11"/>
-      <c r="M61" s="16"/>
-      <c r="N61" s="11"/>
-      <c r="O61" s="11"/>
-      <c r="P61" s="11"/>
-      <c r="Q61" s="11"/>
-      <c r="R61" s="11"/>
-      <c r="S61" s="16"/>
-      <c r="T61" s="11"/>
-      <c r="U61" s="11"/>
-      <c r="V61" s="11"/>
-      <c r="W61" s="11"/>
-      <c r="X61" s="11"/>
-    </row>
-    <row r="62" spans="1:24" s="5" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A62" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="B62" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="C62" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="D62" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="E62" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="F62" s="5" t="s">
+      <c r="D61" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E61" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F61" s="5" t="s">
         <v>19</v>
+      </c>
+      <c r="G61" s="14"/>
+      <c r="M61" s="14"/>
+      <c r="S61" s="14"/>
+    </row>
+    <row r="62" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A62" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D62" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E62" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>204</v>
       </c>
       <c r="G62" s="14"/>
       <c r="M62" s="14"/>
       <c r="S62" s="14"/>
     </row>
-    <row r="63" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A63" s="1" t="s">
+    <row r="63" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A63" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B63" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="B63" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C63" s="1" t="s">
+      <c r="C63" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="D63" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E63" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>207</v>
+      <c r="D63" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E63" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>215</v>
       </c>
       <c r="G63" s="14"/>
       <c r="M63" s="14"/>
       <c r="S63" s="14"/>
     </row>
     <row r="64" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A64" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B64" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C64" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="D64" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E64" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="F64" s="5" t="s">
-        <v>218</v>
+      <c r="A64" t="s">
+        <v>258</v>
+      </c>
+      <c r="B64" t="s">
+        <v>78</v>
+      </c>
+      <c r="C64" t="s">
+        <v>259</v>
+      </c>
+      <c r="D64" t="b">
+        <v>0</v>
+      </c>
+      <c r="E64" t="b">
+        <v>1</v>
+      </c>
+      <c r="F64" t="s">
+        <v>223</v>
       </c>
       <c r="G64" s="14"/>
       <c r="M64" s="14"/>
       <c r="S64" s="14"/>
     </row>
-    <row r="65" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A65" t="s">
-        <v>261</v>
-      </c>
-      <c r="B65" t="s">
-        <v>81</v>
-      </c>
-      <c r="C65" t="s">
-        <v>262</v>
-      </c>
-      <c r="D65" t="b">
-        <v>0</v>
-      </c>
-      <c r="E65" t="b">
-        <v>1</v>
-      </c>
-      <c r="F65" t="s">
-        <v>226</v>
+    <row r="65" spans="1:24" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A65" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D65" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E65" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>207</v>
       </c>
       <c r="G65" s="14"/>
       <c r="M65" s="14"/>
       <c r="S65" s="14"/>
     </row>
-    <row r="66" spans="1:24" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A66" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C66" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B66" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>147</v>
-      </c>
       <c r="D66" s="1" t="b">
         <v>0</v>
       </c>
@@ -3509,30 +3500,30 @@
         <v>0</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>210</v>
+        <v>303</v>
       </c>
       <c r="G66" s="14"/>
       <c r="M66" s="14"/>
       <c r="S66" s="14"/>
     </row>
-    <row r="67" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:24" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>188</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>10</v>
+        <v>189</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>71</v>
+        <v>190</v>
       </c>
       <c r="D67" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E67" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>306</v>
+        <v>205</v>
       </c>
       <c r="G67" s="14"/>
       <c r="M67" s="14"/>
@@ -3540,13 +3531,13 @@
     </row>
     <row r="68" spans="1:24" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A68" s="1" t="s">
-        <v>191</v>
+        <v>250</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>192</v>
+        <v>5</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>193</v>
+        <v>252</v>
       </c>
       <c r="D68" s="1" t="b">
         <v>0</v>
@@ -3555,61 +3546,103 @@
         <v>1</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>208</v>
+        <v>251</v>
       </c>
       <c r="G68" s="14"/>
       <c r="M68" s="14"/>
       <c r="S68" s="14"/>
     </row>
-    <row r="69" spans="1:24" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A69" s="1" t="s">
-        <v>253</v>
+        <v>69</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>255</v>
+        <v>70</v>
       </c>
       <c r="D69" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E69" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>254</v>
+        <v>0</v>
       </c>
       <c r="G69" s="14"/>
       <c r="M69" s="14"/>
       <c r="S69" s="14"/>
     </row>
-    <row r="70" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:24" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>323</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>73</v>
+        <v>324</v>
       </c>
       <c r="D70" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E70" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G70" s="14"/>
+      <c r="H70" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="J70" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="K70" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="L70" s="1" t="s">
+        <v>325</v>
+      </c>
       <c r="M70" s="14"/>
+      <c r="N70" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="O70" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="P70" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="Q70" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="R70" s="1" t="s">
+        <v>333</v>
+      </c>
       <c r="S70" s="14"/>
+      <c r="T70" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="U70" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="V70" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="W70" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="X70" s="1" t="s">
+        <v>333</v>
+      </c>
     </row>
     <row r="71" spans="1:24" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A71" s="1" t="s">
         <v>326</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>10</v>
+        <v>237</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>327</v>
@@ -3622,62 +3655,62 @@
       </c>
       <c r="G71" s="14"/>
       <c r="H71" s="1" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="K71" s="1" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="L71" s="1" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="M71" s="14"/>
       <c r="N71" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="O71" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="P71" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="Q71" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="R71" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="S71" s="14"/>
       <c r="T71" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="U71" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="V71" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="W71" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="X71" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="72" spans="1:24" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A72" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C72" s="1" t="s">
         <v>329</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>330</v>
       </c>
       <c r="D72" s="1" t="b">
         <v>0</v>
@@ -3687,63 +3720,63 @@
       </c>
       <c r="G72" s="14"/>
       <c r="H72" s="1" t="s">
-        <v>335</v>
+        <v>281</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>335</v>
+        <v>281</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>335</v>
+        <v>281</v>
       </c>
       <c r="K72" s="1" t="s">
-        <v>335</v>
+        <v>281</v>
       </c>
       <c r="L72" s="1" t="s">
-        <v>335</v>
+        <v>281</v>
       </c>
       <c r="M72" s="14"/>
       <c r="N72" s="1" t="s">
-        <v>337</v>
+        <v>282</v>
       </c>
       <c r="O72" s="1" t="s">
-        <v>337</v>
+        <v>282</v>
       </c>
       <c r="P72" s="1" t="s">
-        <v>337</v>
+        <v>282</v>
       </c>
       <c r="Q72" s="1" t="s">
-        <v>337</v>
+        <v>282</v>
       </c>
       <c r="R72" s="1" t="s">
-        <v>337</v>
+        <v>282</v>
       </c>
       <c r="S72" s="14"/>
       <c r="T72" s="1" t="s">
-        <v>337</v>
+        <v>283</v>
       </c>
       <c r="U72" s="1" t="s">
-        <v>337</v>
+        <v>283</v>
       </c>
       <c r="V72" s="1" t="s">
-        <v>337</v>
+        <v>283</v>
       </c>
       <c r="W72" s="1" t="s">
-        <v>337</v>
+        <v>283</v>
       </c>
       <c r="X72" s="1" t="s">
-        <v>337</v>
+        <v>283</v>
       </c>
     </row>
     <row r="73" spans="1:24" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A73" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C73" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="B73" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>332</v>
-      </c>
       <c r="D73" s="1" t="b">
         <v>0</v>
       </c>
@@ -3751,63 +3784,19 @@
         <v>1</v>
       </c>
       <c r="G73" s="14"/>
-      <c r="H73" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="I73" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="J73" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="K73" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="L73" s="1" t="s">
-        <v>284</v>
-      </c>
       <c r="M73" s="14"/>
-      <c r="N73" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="O73" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="P73" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="Q73" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="R73" s="1" t="s">
-        <v>285</v>
-      </c>
       <c r="S73" s="14"/>
-      <c r="T73" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="U73" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="V73" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="W73" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="X73" s="1" t="s">
-        <v>286</v>
-      </c>
+      <c r="T73"/>
     </row>
     <row r="74" spans="1:24" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A74" s="1" t="s">
-        <v>333</v>
+        <v>191</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>240</v>
+        <v>10</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>334</v>
+        <v>309</v>
       </c>
       <c r="D74" s="1" t="b">
         <v>0</v>
@@ -3818,92 +3807,94 @@
       <c r="G74" s="14"/>
       <c r="M74" s="14"/>
       <c r="S74" s="14"/>
-      <c r="T74"/>
-    </row>
-    <row r="75" spans="1:24" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    </row>
+    <row r="75" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A75" s="1" t="s">
-        <v>194</v>
+        <v>314</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="D75" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E75" s="1" t="b">
         <v>1</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>223</v>
       </c>
       <c r="G75" s="14"/>
       <c r="M75" s="14"/>
       <c r="S75" s="14"/>
     </row>
-    <row r="76" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A76" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="D76" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E76" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F76" s="1" t="s">
-        <v>226</v>
+    <row r="76" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A76" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D76" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E76" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F76" s="5" t="s">
+        <v>4</v>
       </c>
       <c r="G76" s="14"/>
       <c r="M76" s="14"/>
       <c r="S76" s="14"/>
     </row>
-    <row r="77" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A77" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B77" s="5" t="s">
+    <row r="77" spans="1:24" s="5" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A77" s="19" t="s">
+        <v>312</v>
+      </c>
+      <c r="B77" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C77" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D77" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E77" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="F77" s="5" t="s">
+      <c r="C77" s="19" t="s">
+        <v>313</v>
+      </c>
+      <c r="D77" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E77" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F77" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G77" s="14"/>
       <c r="M77" s="14"/>
       <c r="S77" s="14"/>
     </row>
-    <row r="78" spans="1:24" s="5" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A78" s="19" t="s">
-        <v>315</v>
-      </c>
-      <c r="B78" s="19" t="s">
+    <row r="78" spans="1:24" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A78" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B78" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C78" s="19" t="s">
-        <v>316</v>
+      <c r="C78" s="1" t="s">
+        <v>226</v>
       </c>
       <c r="D78" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E78" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="G78" s="14"/>
       <c r="M78" s="14"/>
@@ -3911,245 +3902,245 @@
     </row>
     <row r="79" spans="1:24" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A79" s="1" t="s">
-        <v>217</v>
+        <v>73</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>229</v>
+        <v>74</v>
       </c>
       <c r="D79" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E79" s="1" t="b">
         <v>0</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="G79" s="14"/>
       <c r="M79" s="14"/>
       <c r="S79" s="14"/>
     </row>
-    <row r="80" spans="1:24" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A80" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C80" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B80" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="D80" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E80" s="1" t="b">
         <v>0</v>
-      </c>
-      <c r="F80" s="1" t="s">
-        <v>4</v>
       </c>
       <c r="G80" s="14"/>
       <c r="M80" s="14"/>
       <c r="S80" s="14"/>
     </row>
-    <row r="81" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:25" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A81" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B81" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D81" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E81" s="1" t="b">
         <v>0</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>266</v>
       </c>
       <c r="G81" s="14"/>
       <c r="M81" s="14"/>
       <c r="S81" s="14"/>
     </row>
-    <row r="82" spans="1:25" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A82" s="1" t="s">
+    <row r="82" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A82" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="B82" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C82" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="C82" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D82" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E82" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F82" s="1" t="s">
-        <v>269</v>
+      <c r="D82" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E82" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F82" s="5" t="s">
+        <v>302</v>
       </c>
       <c r="G82" s="14"/>
       <c r="M82" s="14"/>
       <c r="S82" s="14"/>
     </row>
-    <row r="83" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A83" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="B83" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C83" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D83" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E83" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="F83" s="5" t="s">
-        <v>305</v>
+    <row r="83" spans="1:25" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A83" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D83" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E83" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="G83" s="14"/>
       <c r="M83" s="14"/>
       <c r="S83" s="14"/>
     </row>
-    <row r="84" spans="1:25" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A84" s="1" t="s">
+    <row r="84" spans="1:25" s="5" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A84" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="B84" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C84" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="C84" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="D84" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E84" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F84" s="1" t="s">
-        <v>19</v>
+      <c r="D84" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E84" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F84" s="5" t="s">
+        <v>208</v>
       </c>
       <c r="G84" s="14"/>
       <c r="M84" s="14"/>
       <c r="S84" s="14"/>
     </row>
-    <row r="85" spans="1:25" s="5" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="A85" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="B85" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="C85" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="D85" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="E85" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="F85" s="5" t="s">
-        <v>211</v>
+    <row r="85" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A85" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D85" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E85" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="G85" s="14"/>
+      <c r="H85" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="I85" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="J85" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="K85" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="L85" s="1" t="s">
+        <v>281</v>
+      </c>
       <c r="M85" s="14"/>
+      <c r="N85" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="O85" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="P85" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q85" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="R85" s="1" t="s">
+        <v>282</v>
+      </c>
       <c r="S85" s="14"/>
+      <c r="T85" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="U85" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="V85" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="W85" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="X85" s="1" t="s">
+        <v>283</v>
+      </c>
     </row>
     <row r="86" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A86" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D86" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E86" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F86" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B86" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D86" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E86" s="1" t="b">
-        <v>0</v>
-      </c>
       <c r="G86" s="14"/>
-      <c r="H86" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="I86" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="J86" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="K86" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="L86" s="1" t="s">
-        <v>284</v>
-      </c>
       <c r="M86" s="14"/>
-      <c r="N86" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="O86" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="P86" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="Q86" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="R86" s="1" t="s">
-        <v>285</v>
-      </c>
       <c r="S86" s="14"/>
-      <c r="T86" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="U86" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="V86" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="W86" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="X86" s="1" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="87" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A87" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B87" s="1" t="s">
+    </row>
+    <row r="87" spans="1:25" s="5" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A87" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D87" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E87" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F87" s="5" t="s">
         <v>89</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D87" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E87" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F87" s="1" t="s">
-        <v>88</v>
       </c>
       <c r="G87" s="14"/>
       <c r="M87" s="14"/>
@@ -4157,220 +4148,220 @@
     </row>
     <row r="88" spans="1:25" s="5" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A88" s="5" t="s">
-        <v>91</v>
+        <v>145</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>94</v>
+        <v>146</v>
       </c>
       <c r="D88" s="5" t="b">
         <v>0</v>
       </c>
       <c r="E88" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F88" s="5" t="s">
-        <v>92</v>
+        <v>16</v>
       </c>
       <c r="G88" s="14"/>
       <c r="M88" s="14"/>
       <c r="S88" s="14"/>
     </row>
     <row r="89" spans="1:25" s="5" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A89" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="B89" s="5" t="s">
+      <c r="A89" s="19" t="s">
+        <v>321</v>
+      </c>
+      <c r="B89" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C89" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="D89" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="E89" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="F89" s="5" t="s">
+      <c r="C89" s="19" t="s">
+        <v>322</v>
+      </c>
+      <c r="D89" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="E89" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="F89" s="19" t="s">
         <v>16</v>
       </c>
       <c r="G89" s="14"/>
-      <c r="M89" s="14"/>
-      <c r="S89" s="14"/>
-    </row>
-    <row r="90" spans="1:25" s="5" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A90" s="19" t="s">
-        <v>324</v>
-      </c>
-      <c r="B90" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="C90" s="19" t="s">
-        <v>325</v>
-      </c>
-      <c r="D90" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="E90" s="19" t="b">
-        <v>1</v>
-      </c>
-      <c r="F90" s="19" t="s">
-        <v>16</v>
+      <c r="H89" s="19"/>
+      <c r="I89" s="19"/>
+      <c r="J89" s="19"/>
+      <c r="K89" s="19"/>
+      <c r="L89" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="M89" s="20"/>
+      <c r="N89" s="19"/>
+      <c r="O89" s="19"/>
+      <c r="P89" s="19"/>
+      <c r="Q89" s="19"/>
+      <c r="R89" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="S89" s="20"/>
+      <c r="T89" s="19"/>
+      <c r="U89" s="19"/>
+      <c r="V89" s="19"/>
+      <c r="W89" s="19"/>
+      <c r="X89" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y89" s="19"/>
+    </row>
+    <row r="90" spans="1:25" s="1" customFormat="1" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A90" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D90" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E90" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="G90" s="14"/>
-      <c r="H90" s="19"/>
-      <c r="I90" s="19"/>
-      <c r="J90" s="19"/>
-      <c r="K90" s="19"/>
-      <c r="L90" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="M90" s="20"/>
-      <c r="N90" s="19"/>
-      <c r="O90" s="19"/>
-      <c r="P90" s="19"/>
-      <c r="Q90" s="19"/>
-      <c r="R90" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="S90" s="20"/>
-      <c r="T90" s="19"/>
-      <c r="U90" s="19"/>
-      <c r="V90" s="19"/>
-      <c r="W90" s="19"/>
-      <c r="X90" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y90" s="19"/>
-    </row>
-    <row r="91" spans="1:25" s="1" customFormat="1" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="M90" s="14"/>
+      <c r="S90" s="14"/>
+    </row>
+    <row r="91" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A91" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>97</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="B91" s="6"/>
+      <c r="C91" s="6"/>
       <c r="D91" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E91" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F91" s="1" t="s">
-        <v>96</v>
+        <v>1</v>
       </c>
       <c r="G91" s="14"/>
+      <c r="H91" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I91" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J91" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K91" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L91" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="M91" s="14"/>
+      <c r="N91" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O91" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P91" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q91" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="R91" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="S91" s="14"/>
+      <c r="T91" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="U91" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="V91" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="W91" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="X91" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="92" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A92" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="B92" s="6"/>
-      <c r="C92" s="6"/>
+        <v>147</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>148</v>
+      </c>
       <c r="D92" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E92" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="F92" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="G92" s="14"/>
-      <c r="H92" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I92" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J92" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K92" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="L92" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="M92" s="14"/>
-      <c r="N92" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="O92" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="P92" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q92" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="R92" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="S92" s="14"/>
-      <c r="T92" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="U92" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="V92" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="W92" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="X92" s="1" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="93" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A93" s="1" t="s">
-        <v>150</v>
+        <v>95</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>151</v>
+        <v>96</v>
       </c>
       <c r="D93" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E93" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>4</v>
+        <v>264</v>
       </c>
       <c r="G93" s="14"/>
       <c r="M93" s="14"/>
       <c r="S93" s="14"/>
     </row>
-    <row r="94" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:25" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>197</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>10</v>
+        <v>198</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>99</v>
+        <v>199</v>
       </c>
       <c r="D94" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E94" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>267</v>
+        <v>248</v>
       </c>
       <c r="G94" s="14"/>
       <c r="M94" s="14"/>
@@ -4378,13 +4369,13 @@
     </row>
     <row r="95" spans="1:25" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A95" s="1" t="s">
-        <v>200</v>
+        <v>244</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>201</v>
+        <v>245</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>202</v>
+        <v>246</v>
       </c>
       <c r="D95" s="1" t="b">
         <v>0</v>
@@ -4392,96 +4383,96 @@
       <c r="E95" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F95" s="1" t="s">
-        <v>251</v>
+      <c r="F95" s="4" t="s">
+        <v>247</v>
       </c>
       <c r="G95" s="14"/>
       <c r="M95" s="14"/>
       <c r="S95" s="14"/>
     </row>
-    <row r="96" spans="1:25" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A96" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>249</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="B96" s="6"/>
+      <c r="C96" s="6"/>
       <c r="D96" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E96" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F96" s="4" t="s">
-        <v>250</v>
+      <c r="F96" s="1" t="s">
+        <v>302</v>
       </c>
       <c r="G96" s="14"/>
       <c r="M96" s="14"/>
       <c r="S96" s="14"/>
     </row>
-    <row r="97" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:24" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A97" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="B97" s="6"/>
-      <c r="C97" s="6"/>
+        <v>97</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="D97" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E97" s="1" t="b">
         <v>1</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>305</v>
+        <v>16</v>
       </c>
       <c r="G97" s="14"/>
       <c r="M97" s="14"/>
       <c r="S97" s="14"/>
     </row>
-    <row r="98" spans="1:24" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A98" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D98" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E98" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F98" s="1" t="s">
-        <v>16</v>
+    <row r="98" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A98" t="s">
+        <v>288</v>
+      </c>
+      <c r="B98" t="s">
+        <v>10</v>
+      </c>
+      <c r="C98" t="s">
+        <v>289</v>
+      </c>
+      <c r="D98" t="b">
+        <v>1</v>
+      </c>
+      <c r="E98" t="b">
+        <v>1</v>
+      </c>
+      <c r="F98" t="s">
+        <v>302</v>
       </c>
       <c r="G98" s="14"/>
       <c r="M98" s="14"/>
       <c r="S98" s="14"/>
     </row>
-    <row r="99" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A99" t="s">
-        <v>291</v>
-      </c>
-      <c r="B99" t="s">
-        <v>10</v>
-      </c>
-      <c r="C99" t="s">
-        <v>292</v>
-      </c>
-      <c r="D99" t="b">
-        <v>1</v>
-      </c>
-      <c r="E99" t="b">
-        <v>1</v>
-      </c>
-      <c r="F99" t="s">
-        <v>305</v>
+    <row r="99" spans="1:24" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A99" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D99" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E99" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F99" s="4" t="s">
+        <v>209</v>
       </c>
       <c r="G99" s="14"/>
       <c r="M99" s="14"/>
@@ -4489,45 +4480,42 @@
     </row>
     <row r="100" spans="1:24" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A100" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C100" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B100" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>103</v>
-      </c>
       <c r="D100" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E100" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F100" s="4" t="s">
-        <v>212</v>
+      <c r="F100" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="G100" s="14"/>
       <c r="M100" s="14"/>
       <c r="S100" s="14"/>
     </row>
-    <row r="101" spans="1:24" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>200</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>105</v>
+        <v>201</v>
       </c>
       <c r="D101" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E101" s="1" t="b">
         <v>1</v>
-      </c>
-      <c r="F101" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="G101" s="14"/>
       <c r="M101" s="14"/>
@@ -4535,62 +4523,65 @@
     </row>
     <row r="102" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A102" s="1" t="s">
-        <v>203</v>
+        <v>103</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>5</v>
+        <v>105</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>204</v>
+        <v>106</v>
       </c>
       <c r="D102" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E102" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>104</v>
       </c>
       <c r="G102" s="14"/>
       <c r="M102" s="14"/>
       <c r="S102" s="14"/>
     </row>
-    <row r="103" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:24" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B103" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C103" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C103" s="1" t="s">
-        <v>109</v>
-      </c>
       <c r="D103" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E103" s="1" t="b">
         <v>0</v>
-      </c>
-      <c r="F103" s="1" t="s">
-        <v>107</v>
       </c>
       <c r="G103" s="14"/>
       <c r="M103" s="14"/>
       <c r="S103" s="14"/>
     </row>
-    <row r="104" spans="1:24" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A104" s="1" t="s">
+    <row r="104" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A104" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C104" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="B104" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D104" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E104" s="1" t="b">
-        <v>0</v>
+      <c r="D104" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E104" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F104" s="5" t="s">
+        <v>215</v>
       </c>
       <c r="G104" s="14"/>
       <c r="M104" s="14"/>
@@ -4598,14 +4589,14 @@
     </row>
     <row r="105" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A105" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B105" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C105" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="B105" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C105" s="5" t="s">
-        <v>113</v>
-      </c>
       <c r="D105" s="5" t="b">
         <v>1</v>
       </c>
@@ -4613,7 +4604,7 @@
         <v>0</v>
       </c>
       <c r="F105" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G105" s="14"/>
       <c r="M105" s="14"/>
@@ -4621,62 +4612,104 @@
     </row>
     <row r="106" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A106" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B106" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C106" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="B106" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C106" s="5" t="s">
-        <v>115</v>
-      </c>
       <c r="D106" s="5" t="b">
         <v>1</v>
       </c>
       <c r="E106" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F106" s="5" t="s">
-        <v>218</v>
+        <v>16</v>
       </c>
       <c r="G106" s="14"/>
       <c r="M106" s="14"/>
       <c r="S106" s="14"/>
     </row>
-    <row r="107" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A107" s="5" t="s">
+    <row r="107" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A107" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C107" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B107" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C107" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="D107" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E107" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="F107" s="5" t="s">
-        <v>16</v>
+      <c r="D107" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E107" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="G107" s="14"/>
+      <c r="H107" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I107" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J107" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K107" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L107" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="M107" s="14"/>
+      <c r="N107" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="O107" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="P107" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q107" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="R107" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="S107" s="14"/>
+      <c r="T107" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="U107" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="V107" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="W107" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="X107" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="108" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A108" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D108" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E108" s="1" t="b">
         <v>1</v>
@@ -4732,23 +4765,23 @@
     </row>
     <row r="109" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A109" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D109" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E109" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G109" s="14"/>
       <c r="H109" s="1" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="I109" s="1" t="s">
         <v>4</v>
@@ -4764,7 +4797,7 @@
       </c>
       <c r="M109" s="14"/>
       <c r="N109" s="1" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="O109" s="1" t="s">
         <v>4</v>
@@ -4780,7 +4813,7 @@
       </c>
       <c r="S109" s="14"/>
       <c r="T109" s="1" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="U109" s="1" t="s">
         <v>4</v>
@@ -4795,15 +4828,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="110" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:24" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A110" s="1" t="s">
-        <v>122</v>
+        <v>149</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>123</v>
+        <v>150</v>
       </c>
       <c r="D110" s="1" t="b">
         <v>0</v>
@@ -4811,72 +4844,35 @@
       <c r="E110" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="F110" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="G110" s="14"/>
-      <c r="H110" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I110" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J110" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K110" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="L110" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="H110"/>
+      <c r="I110"/>
+      <c r="J110"/>
+      <c r="K110"/>
+      <c r="L110"/>
       <c r="M110" s="14"/>
-      <c r="N110" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="O110" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="P110" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q110" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="R110" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="S110" s="14"/>
-      <c r="T110" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="U110" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="V110" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="W110" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="X110" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="111" spans="1:24" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A111" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B111" s="1" t="s">
+    </row>
+    <row r="111" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A111" t="s">
+        <v>290</v>
+      </c>
+      <c r="B111" t="s">
         <v>5</v>
       </c>
-      <c r="C111" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="D111" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E111" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F111" s="1" t="s">
+      <c r="C111" t="s">
+        <v>291</v>
+      </c>
+      <c r="D111" t="b">
+        <v>0</v>
+      </c>
+      <c r="E111" t="b">
+        <v>1</v>
+      </c>
+      <c r="F111" t="s">
         <v>4</v>
       </c>
       <c r="G111" s="14"/>
@@ -4886,78 +4882,115 @@
       <c r="K111"/>
       <c r="L111"/>
       <c r="M111" s="14"/>
+      <c r="N111"/>
+      <c r="O111"/>
+      <c r="P111"/>
+      <c r="Q111"/>
+      <c r="R111"/>
       <c r="S111" s="14"/>
-    </row>
-    <row r="112" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A112" t="s">
-        <v>293</v>
-      </c>
-      <c r="B112" t="s">
+      <c r="T111"/>
+      <c r="U111"/>
+      <c r="V111"/>
+      <c r="W111"/>
+      <c r="X111"/>
+    </row>
+    <row r="112" spans="1:24" s="5" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A112" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B112" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C112" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D112" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E112" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F112" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G112" s="14"/>
+      <c r="M112" s="14"/>
+      <c r="S112" s="14"/>
+    </row>
+    <row r="113" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A113" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B113" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C112" t="s">
-        <v>294</v>
-      </c>
-      <c r="D112" t="b">
-        <v>0</v>
-      </c>
-      <c r="E112" t="b">
-        <v>1</v>
-      </c>
-      <c r="F112" t="s">
-        <v>4</v>
-      </c>
-      <c r="G112" s="14"/>
-      <c r="H112"/>
-      <c r="I112"/>
-      <c r="J112"/>
-      <c r="K112"/>
-      <c r="L112"/>
-      <c r="M112" s="14"/>
-      <c r="N112"/>
-      <c r="O112"/>
-      <c r="P112"/>
-      <c r="Q112"/>
-      <c r="R112"/>
-      <c r="S112" s="14"/>
-      <c r="T112"/>
-      <c r="U112"/>
-      <c r="V112"/>
-      <c r="W112"/>
-      <c r="X112"/>
-    </row>
-    <row r="113" spans="1:24" s="5" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A113" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="B113" s="5" t="s">
+      <c r="C113" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C113" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="D113" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E113" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="F113" s="5" t="s">
-        <v>16</v>
+      <c r="D113" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E113" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="G113" s="14"/>
+      <c r="H113" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I113" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J113" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K113" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L113" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="M113" s="14"/>
+      <c r="N113" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O113" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="P113" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q113" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="R113" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="S113" s="14"/>
+      <c r="T113" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="U113" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="V113" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="W113" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="X113" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="114" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A114" s="1" t="s">
-        <v>127</v>
+        <v>235</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D114" s="1" t="b">
         <v>1</v>
@@ -5016,157 +5049,92 @@
     </row>
     <row r="115" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A115" s="1" t="s">
-        <v>238</v>
+        <v>127</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D115" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E115" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>302</v>
       </c>
       <c r="G115" s="14"/>
-      <c r="H115" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I115" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J115" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K115" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="L115" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="M115" s="14"/>
-      <c r="N115" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="O115" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="P115" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q115" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="R115" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="S115" s="14"/>
-      <c r="T115" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="U115" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="V115" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="W115" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="X115" s="1" t="s">
-        <v>4</v>
-      </c>
     </row>
     <row r="116" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A116" s="1" t="s">
-        <v>130</v>
+        <v>310</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>131</v>
+        <v>311</v>
       </c>
       <c r="D116" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E116" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F116" s="1" t="s">
-        <v>305</v>
+        <v>1</v>
       </c>
       <c r="G116" s="14"/>
       <c r="M116" s="14"/>
       <c r="S116" s="14"/>
     </row>
-    <row r="117" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:24" s="1" customFormat="1" ht="58.3" x14ac:dyDescent="0.4">
       <c r="A117" s="1" t="s">
-        <v>313</v>
+        <v>253</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>10</v>
+        <v>78</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>314</v>
+        <v>254</v>
       </c>
       <c r="D117" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E117" s="1" t="b">
         <v>1</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>255</v>
       </c>
       <c r="G117" s="14"/>
       <c r="M117" s="14"/>
       <c r="S117" s="14"/>
     </row>
-    <row r="118" spans="1:24" s="1" customFormat="1" ht="58.3" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:24" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A118" s="1" t="s">
-        <v>256</v>
+        <v>129</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>81</v>
+        <v>130</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>257</v>
+        <v>131</v>
       </c>
       <c r="D118" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E118" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>258</v>
+        <v>223</v>
       </c>
       <c r="G118" s="14"/>
       <c r="M118" s="14"/>
       <c r="S118" s="14"/>
-    </row>
-    <row r="119" spans="1:24" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A119" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B119" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C119" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="D119" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E119" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F119" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="G119" s="14"/>
-      <c r="M119" s="14"/>
-      <c r="S119" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -5174,15 +5142,15 @@
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="D7:D8"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="D44:D45"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F20" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="F21" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="F59" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="F58" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="37" fitToHeight="0" orientation="landscape" r:id="rId4"/>
@@ -5203,48 +5171,48 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" s="9" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B3" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" s="8" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B4" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="6" spans="1:2" ht="19.3" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="3" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B6" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="19.3" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="19.3" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B8" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.4"/>
